--- a/Data/FodstadData.xlsx
+++ b/Data/FodstadData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/berendmarkhorst/Library/Mobile Documents/com~apple~CloudDocs/PhD/READINESS/08 - Trondheim/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46A34F39-A3A6-C94A-BB59-13DD4D2B3B1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4E0EF2E-9DAC-4D40-9BFE-2844E21D69EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16060" activeTab="4" xr2:uid="{D82E7092-1A4C-0041-9612-C431AA3B912B}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="51200" windowHeight="26860" activeTab="6" xr2:uid="{D82E7092-1A4C-0041-9612-C431AA3B912B}"/>
   </bookViews>
   <sheets>
     <sheet name="Visualisation" sheetId="7" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="119">
   <si>
     <t>ID</t>
   </si>
@@ -144,9 +144,6 @@
     <t>Europipe II</t>
   </si>
   <si>
-    <t>Åsgard Transport</t>
-  </si>
-  <si>
     <t>Arc 1</t>
   </si>
   <si>
@@ -159,9 +156,6 @@
     <t>Arc 4</t>
   </si>
   <si>
-    <t>Karstø</t>
-  </si>
-  <si>
     <t>Source_ID</t>
   </si>
   <si>
@@ -201,12 +195,6 @@
     <t>St Fergus</t>
   </si>
   <si>
-    <t>Production Capacity</t>
-  </si>
-  <si>
-    <t>Storage Capacity</t>
-  </si>
-  <si>
     <t>Shipper 1</t>
   </si>
   <si>
@@ -225,24 +213,12 @@
     <t>Demand</t>
   </si>
   <si>
-    <t>Gas</t>
-  </si>
-  <si>
-    <t>Hydrogen</t>
-  </si>
-  <si>
     <t>Vermoeden</t>
   </si>
   <si>
-    <t>Flow costs</t>
-  </si>
-  <si>
     <t>Unit</t>
   </si>
   <si>
-    <t>Production Costs</t>
-  </si>
-  <si>
     <t>Explanation</t>
   </si>
   <si>
@@ -252,9 +228,6 @@
     <t>NOK / MSm3</t>
   </si>
   <si>
-    <t>Entry Storage Costs</t>
-  </si>
-  <si>
     <t>MSm3</t>
   </si>
   <si>
@@ -291,24 +264,6 @@
     <t>Probability</t>
   </si>
   <si>
-    <t>Entry Costs Stage 1</t>
-  </si>
-  <si>
-    <t>Exit Costs Stage 1</t>
-  </si>
-  <si>
-    <t>Entry Costs Stage 2</t>
-  </si>
-  <si>
-    <t>Exit Costs Stage 2</t>
-  </si>
-  <si>
-    <t>Entry Costs Stage 3</t>
-  </si>
-  <si>
-    <t>Exit Costs Stage 3</t>
-  </si>
-  <si>
     <t>gas or mix</t>
   </si>
   <si>
@@ -324,18 +279,9 @@
     <t>Gamma</t>
   </si>
   <si>
-    <t>Hours</t>
-  </si>
-  <si>
     <t>Capacity</t>
   </si>
   <si>
-    <t>Entry Capacity</t>
-  </si>
-  <si>
-    <t>Exit Capacity</t>
-  </si>
-  <si>
     <t>Node Number</t>
   </si>
   <si>
@@ -349,6 +295,111 @@
   </si>
   <si>
     <t>Value</t>
+  </si>
+  <si>
+    <t>Production Capacity Gas</t>
+  </si>
+  <si>
+    <t>Entry Capacity Gas</t>
+  </si>
+  <si>
+    <t>Exit Capacity Gas</t>
+  </si>
+  <si>
+    <t>Production Costs Gas</t>
+  </si>
+  <si>
+    <t>Storage Capacity Gas</t>
+  </si>
+  <si>
+    <t>Entry Storage Costs Gas</t>
+  </si>
+  <si>
+    <t>Entry Costs Gas Stage 1</t>
+  </si>
+  <si>
+    <t>Exit Costs Gas Stage 1</t>
+  </si>
+  <si>
+    <t>Entry Costs Gas Stage 2</t>
+  </si>
+  <si>
+    <t>Exit Costs Gas Stage 2</t>
+  </si>
+  <si>
+    <t>Entry Costs Gas Stage 3</t>
+  </si>
+  <si>
+    <t>Exit Costs Gas Stage 3</t>
+  </si>
+  <si>
+    <t>Production Capacity Hydrogen</t>
+  </si>
+  <si>
+    <t>Entry Capacity Hydrogen</t>
+  </si>
+  <si>
+    <t>Exit Capacity Hydrogen</t>
+  </si>
+  <si>
+    <t>Production Costs Hydrogen</t>
+  </si>
+  <si>
+    <t>Storage Capacity Hydrogen</t>
+  </si>
+  <si>
+    <t>Entry Storage Costs Hydrogen</t>
+  </si>
+  <si>
+    <t>Entry Costs Hydrogen Stage 1</t>
+  </si>
+  <si>
+    <t>Exit Costs Hydrogen Stage 1</t>
+  </si>
+  <si>
+    <t>Entry Costs Hydrogen Stage 2</t>
+  </si>
+  <si>
+    <t>Exit Costs Hydrogen Stage 2</t>
+  </si>
+  <si>
+    <t>Entry Costs Hydrogen Stage 3</t>
+  </si>
+  <si>
+    <t>Exit Costs Hydrogen Stage 3</t>
+  </si>
+  <si>
+    <t>Number hours</t>
+  </si>
+  <si>
+    <t>Number markets</t>
+  </si>
+  <si>
+    <t>Number shippers</t>
+  </si>
+  <si>
+    <t>Flow costs Gas</t>
+  </si>
+  <si>
+    <t>Flow costs Hydrogen</t>
+  </si>
+  <si>
+    <t>X_coordinate</t>
+  </si>
+  <si>
+    <t>Y_coordinate</t>
+  </si>
+  <si>
+    <t>Karsto</t>
+  </si>
+  <si>
+    <t>Asgard Transport</t>
+  </si>
+  <si>
+    <t>Original Capacity</t>
+  </si>
+  <si>
+    <t>Niet op Gassco</t>
   </si>
 </sst>
 </file>
@@ -384,13 +435,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color rgb="FF9C5700"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="12"/>
       <color theme="1"/>
@@ -415,22 +459,29 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="12"/>
+      <color rgb="FF202122"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="12"/>
-      <color rgb="FF9C5700"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
-      <color rgb="FF202122"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -445,11 +496,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
       </patternFill>
     </fill>
   </fills>
@@ -514,24 +560,23 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="2" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -539,22 +584,30 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="2" fontId="3" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -570,9 +623,8 @@
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="4">
+  <cellStyles count="3">
     <cellStyle name="Goed" xfId="1" builtinId="26"/>
-    <cellStyle name="Neutraal" xfId="3" builtinId="28"/>
     <cellStyle name="Ongeldig" xfId="2" builtinId="27"/>
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -937,7 +989,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58A08315-FBE0-CA4C-9EFE-0A9542346138}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="S30" sqref="S30"/>
     </sheetView>
   </sheetViews>
@@ -965,103 +1017,103 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="68" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="str">
-        <f>Nodes!F3</f>
-        <v>Production Capacity</v>
+        <f>Nodes!H2</f>
+        <v>Production Capacity Gas</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="str">
-        <f>Nodes!I3</f>
-        <v>Production Costs</v>
+        <f>Nodes!K2</f>
+        <v>Production Costs Gas</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="C3" s="1"/>
     </row>
     <row r="4" spans="1:3" ht="19" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="str">
-        <f>Nodes!J3</f>
-        <v>Storage Capacity</v>
+        <f>Nodes!L2</f>
+        <v>Storage Capacity Gas</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="C4" s="9"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="str">
-        <f>Nodes!K3</f>
-        <v>Entry Storage Costs</v>
+        <f>Nodes!M2</f>
+        <v>Entry Storage Costs Gas</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="C5" s="1"/>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="str">
-        <f>Nodes!L3</f>
-        <v>Entry Costs Stage 1</v>
+        <f>Nodes!N2</f>
+        <v>Entry Costs Gas Stage 1</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="C6" s="1"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="str">
-        <f>Nodes!M3</f>
-        <v>Exit Costs Stage 1</v>
+        <f>Nodes!O2</f>
+        <v>Exit Costs Gas Stage 1</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="C7" s="1"/>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="str">
-        <f>Arcs!I3</f>
-        <v>Flow costs</v>
+        <f>Arcs!I1</f>
+        <v>Flow costs Gas</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="C8" s="1"/>
     </row>
     <row r="9" spans="1:3" ht="19" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="str">
-        <f>Arcs!E3</f>
+        <f>Arcs!E1</f>
         <v>Capacity</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="C9" s="9"/>
     </row>
     <row r="10" spans="1:3" ht="19" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="C10" s="1"/>
     </row>
@@ -1072,10 +1124,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA3F5746-A1B1-6F4F-9762-CACD4A91B5F2}">
-  <dimension ref="A1:AI24"/>
+  <dimension ref="A1:AE23"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1083,306 +1135,316 @@
     <col min="1" max="1" width="3.1640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.1640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="17.5" customWidth="1"/>
-    <col min="9" max="9" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="17.1640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15.83203125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="17.1640625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="15.83203125" customWidth="1"/>
-    <col min="16" max="16" width="17.1640625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="15.83203125" customWidth="1"/>
-    <col min="18" max="18" width="17.5" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="15" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="15.83203125" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="17.5" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="15" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="9.1640625" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="17.5" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="15" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="15.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="16.5" customWidth="1"/>
+    <col min="6" max="6" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.1640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="21.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.83203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="18.83203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="21" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="20.83203125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="19.6640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="20.83203125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="19.6640625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="20.83203125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="19.6640625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="27" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="22" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="24.1640625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="24" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="26.1640625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="25.83203125" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="24.6640625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="25.83203125" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="24.6640625" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="25.83203125" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="24.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="F1" s="15" t="str">
-        <f>Traders!B2</f>
-        <v>Shipper 1</v>
-      </c>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
-      <c r="J1" s="15"/>
-      <c r="K1" s="15"/>
-      <c r="L1" s="15"/>
-      <c r="M1" s="15"/>
-      <c r="N1" s="15"/>
-      <c r="O1" s="15"/>
-      <c r="P1" s="15"/>
-      <c r="Q1" s="15"/>
-      <c r="R1" s="15"/>
-      <c r="S1" s="15"/>
-      <c r="T1" s="15"/>
-      <c r="U1" s="15"/>
-      <c r="V1" s="15"/>
-      <c r="W1" s="15"/>
-      <c r="X1" s="15" t="str">
-        <f>Traders!B3</f>
-        <v>Shipper 2</v>
-      </c>
-      <c r="Y1" s="15"/>
-      <c r="Z1" s="15"/>
-      <c r="AA1" s="15"/>
-      <c r="AB1" s="15"/>
-      <c r="AC1" s="15"/>
-      <c r="AD1" s="15"/>
-      <c r="AE1" s="15"/>
-      <c r="AF1" s="15"/>
-      <c r="AG1" s="15"/>
-      <c r="AH1" s="15"/>
-      <c r="AI1" s="15"/>
-    </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A2" s="8"/>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="17" t="str">
+    <row r="1" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A1" s="8"/>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="16" t="str">
         <f>Commodities!B2</f>
         <v>gas</v>
       </c>
-      <c r="G2" s="18"/>
-      <c r="H2" s="18"/>
-      <c r="I2" s="18"/>
-      <c r="J2" s="18"/>
-      <c r="K2" s="18"/>
-      <c r="L2" s="18"/>
-      <c r="M2" s="18"/>
-      <c r="N2" s="18"/>
-      <c r="O2" s="18"/>
-      <c r="P2" s="18"/>
-      <c r="Q2" s="19"/>
-      <c r="R2" s="14" t="str">
+      <c r="I1" s="17"/>
+      <c r="J1" s="17"/>
+      <c r="K1" s="17"/>
+      <c r="L1" s="17"/>
+      <c r="M1" s="17"/>
+      <c r="N1" s="17"/>
+      <c r="O1" s="17"/>
+      <c r="P1" s="17"/>
+      <c r="Q1" s="17"/>
+      <c r="R1" s="17"/>
+      <c r="S1" s="18"/>
+      <c r="T1" s="19" t="str">
         <f>Commodities!B3</f>
         <v>hydrogen</v>
       </c>
-      <c r="S2" s="14"/>
-      <c r="T2" s="14"/>
-      <c r="U2" s="14"/>
-      <c r="V2" s="14"/>
-      <c r="W2" s="14"/>
-      <c r="X2" s="16" t="str">
-        <f>Commodities!B2</f>
-        <v>gas</v>
-      </c>
-      <c r="Y2" s="16"/>
-      <c r="Z2" s="16"/>
-      <c r="AA2" s="16"/>
-      <c r="AB2" s="16"/>
-      <c r="AC2" s="16"/>
-      <c r="AD2" s="14" t="str">
-        <f>Commodities!B3</f>
-        <v>hydrogen</v>
-      </c>
-      <c r="AE2" s="14"/>
-      <c r="AF2" s="14"/>
-      <c r="AG2" s="14"/>
-      <c r="AH2" s="14"/>
-      <c r="AI2" s="14"/>
-    </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A3" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="4" t="s">
+      <c r="U1" s="20"/>
+      <c r="V1" s="20"/>
+      <c r="W1" s="20"/>
+      <c r="X1" s="20"/>
+      <c r="Y1" s="20"/>
+      <c r="Z1" s="20"/>
+      <c r="AA1" s="20"/>
+      <c r="AB1" s="20"/>
+      <c r="AC1" s="20"/>
+      <c r="AD1" s="20"/>
+      <c r="AE1" s="21"/>
+    </row>
+    <row r="2" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A2" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="E3" s="4" t="s">
+      <c r="D2" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="G2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="G3" s="5" t="s">
+      <c r="H2" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="L2" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="M2" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="N2" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="O2" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="P2" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q2" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="R2" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="S2" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="H3" s="5" t="s">
+      <c r="T2" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="I3" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="J3" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="K3" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="L3" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="M3" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="N3" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="O3" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="P3" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="Q3" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="R3" s="6" t="str">
-        <f>F3</f>
-        <v>Production Capacity</v>
-      </c>
-      <c r="S3" s="6" t="str">
-        <f t="shared" ref="S3:W3" si="0">I3</f>
-        <v>Production Costs</v>
-      </c>
-      <c r="T3" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>Storage Capacity</v>
-      </c>
-      <c r="U3" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>Entry Storage Costs</v>
-      </c>
-      <c r="V3" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>Entry Costs Stage 1</v>
-      </c>
-      <c r="W3" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>Exit Costs Stage 1</v>
-      </c>
-      <c r="X3" s="5" t="str">
-        <f t="shared" ref="X3:AI3" si="1">R3</f>
-        <v>Production Capacity</v>
-      </c>
-      <c r="Y3" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>Production Costs</v>
-      </c>
-      <c r="Z3" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>Storage Capacity</v>
-      </c>
-      <c r="AA3" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>Entry Storage Costs</v>
-      </c>
-      <c r="AB3" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>Entry Costs Stage 1</v>
-      </c>
-      <c r="AC3" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>Exit Costs Stage 1</v>
-      </c>
-      <c r="AD3" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>Production Capacity</v>
-      </c>
-      <c r="AE3" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>Production Costs</v>
-      </c>
-      <c r="AF3" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>Storage Capacity</v>
-      </c>
-      <c r="AG3" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>Entry Storage Costs</v>
-      </c>
-      <c r="AH3" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>Entry Costs Stage 1</v>
-      </c>
-      <c r="AI3" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>Exit Costs Stage 1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="U2" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="V2" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="W2" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="X2" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="Y2" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="Z2" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="AA2" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="AB2" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="AC2" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="AD2" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="AE2" s="6" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="3" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" s="1">
+        <v>8</v>
+      </c>
+      <c r="E3" s="1">
+        <v>50</v>
+      </c>
+      <c r="F3" s="1"/>
+      <c r="G3" s="11"/>
+      <c r="H3" s="13">
+        <f>($H$23-$H$22)/3</f>
+        <v>24.933333333333337</v>
+      </c>
+      <c r="I3" s="13">
+        <v>500</v>
+      </c>
+      <c r="J3" s="13">
+        <v>0</v>
+      </c>
+      <c r="K3" s="2">
+        <v>1</v>
+      </c>
+      <c r="L3" s="2">
+        <v>0</v>
+      </c>
+      <c r="M3" s="2">
+        <v>0</v>
+      </c>
+      <c r="N3" s="2">
+        <v>1</v>
+      </c>
+      <c r="O3" s="2">
+        <v>1</v>
+      </c>
+      <c r="P3" s="2">
+        <v>3</v>
+      </c>
+      <c r="Q3" s="2">
+        <v>3</v>
+      </c>
+      <c r="R3" s="2">
+        <v>5</v>
+      </c>
+      <c r="S3" s="2">
+        <v>5</v>
+      </c>
+      <c r="T3" s="3">
+        <v>0</v>
+      </c>
+      <c r="U3" s="3">
+        <v>0</v>
+      </c>
+      <c r="V3" s="3">
+        <v>0</v>
+      </c>
+      <c r="W3" s="3">
+        <v>0</v>
+      </c>
+      <c r="X3" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y3" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z3" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA3" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB3" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC3" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD3" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE3" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D4" s="1"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="13">
-        <f>($F$24-$F$23)/3</f>
-        <v>24.933333333333337</v>
-      </c>
-      <c r="G4" s="13">
+      <c r="D4" s="1">
+        <v>7</v>
+      </c>
+      <c r="E4" s="1">
+        <v>45</v>
+      </c>
+      <c r="F4" s="1"/>
+      <c r="G4" t="s">
+        <v>69</v>
+      </c>
+      <c r="H4" s="13">
+        <v>27</v>
+      </c>
+      <c r="I4" s="13">
         <v>500</v>
       </c>
-      <c r="H4" s="13">
-        <v>0</v>
-      </c>
-      <c r="I4" s="2">
-        <v>1</v>
-      </c>
-      <c r="J4" s="2">
+      <c r="J4" s="13">
         <v>0</v>
       </c>
       <c r="K4" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L4" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M4" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N4" s="2">
+        <v>1</v>
+      </c>
+      <c r="O4" s="2">
+        <v>1</v>
+      </c>
+      <c r="P4" s="2">
         <v>3</v>
       </c>
-      <c r="O4" s="2">
+      <c r="Q4" s="2">
         <v>3</v>
       </c>
-      <c r="P4" s="2">
+      <c r="R4" s="2">
         <v>5</v>
       </c>
-      <c r="Q4" s="2">
+      <c r="S4" s="2">
         <v>5</v>
       </c>
-      <c r="R4" s="3">
-        <v>0</v>
-      </c>
-      <c r="S4" s="3">
-        <v>0</v>
-      </c>
       <c r="T4" s="3">
         <v>0</v>
       </c>
@@ -1395,81 +1457,87 @@
       <c r="W4" s="3">
         <v>0</v>
       </c>
-      <c r="X4" s="2">
-        <f>R4</f>
-        <v>0</v>
-      </c>
-      <c r="Y4" s="2"/>
-      <c r="Z4" s="2"/>
-      <c r="AA4" s="2"/>
-      <c r="AB4" s="2"/>
-      <c r="AC4" s="2"/>
+      <c r="X4" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y4" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z4" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA4" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB4" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC4" s="3">
+        <v>0</v>
+      </c>
       <c r="AD4" s="3">
-        <f>X4</f>
-        <v>0</v>
-      </c>
-      <c r="AE4" s="3"/>
-      <c r="AF4" s="3"/>
-      <c r="AG4" s="3"/>
-      <c r="AH4" s="3"/>
-      <c r="AI4" s="3"/>
-    </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="AE4" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="1"/>
-      <c r="E5" t="s">
-        <v>78</v>
-      </c>
-      <c r="F5" s="13">
-        <v>27</v>
-      </c>
-      <c r="G5" s="13">
+      <c r="D5" s="1">
+        <v>9</v>
+      </c>
+      <c r="E5" s="1">
+        <v>40</v>
+      </c>
+      <c r="F5" s="1"/>
+      <c r="G5" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="H5" s="13">
+        <v>0</v>
+      </c>
+      <c r="I5" s="13">
         <v>500</v>
       </c>
-      <c r="H5" s="13">
-        <v>0</v>
-      </c>
-      <c r="I5" s="2">
-        <v>1</v>
-      </c>
-      <c r="J5" s="2">
+      <c r="J5" s="13">
         <v>0</v>
       </c>
       <c r="K5" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L5" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M5" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N5" s="2">
+        <v>1</v>
+      </c>
+      <c r="O5" s="2">
+        <v>1</v>
+      </c>
+      <c r="P5" s="2">
         <v>3</v>
       </c>
-      <c r="O5" s="2">
+      <c r="Q5" s="2">
         <v>3</v>
       </c>
-      <c r="P5" s="2">
+      <c r="R5" s="2">
         <v>5</v>
       </c>
-      <c r="Q5" s="2">
+      <c r="S5" s="2">
         <v>5</v>
       </c>
-      <c r="R5" s="3">
-        <v>0</v>
-      </c>
-      <c r="S5" s="3">
-        <v>0</v>
-      </c>
       <c r="T5" s="3">
         <v>0</v>
       </c>
@@ -1482,81 +1550,86 @@
       <c r="W5" s="3">
         <v>0</v>
       </c>
-      <c r="X5" s="2">
-        <f t="shared" ref="X5:X21" si="2">R5</f>
-        <v>0</v>
-      </c>
-      <c r="Y5" s="2"/>
-      <c r="Z5" s="2"/>
-      <c r="AA5" s="2"/>
-      <c r="AB5" s="2"/>
-      <c r="AC5" s="2"/>
+      <c r="X5" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y5" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z5" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA5" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB5" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC5" s="3">
+        <v>0</v>
+      </c>
       <c r="AD5" s="3">
-        <f t="shared" ref="AD5:AD21" si="3">X5</f>
-        <v>0</v>
-      </c>
-      <c r="AE5" s="3"/>
-      <c r="AF5" s="3"/>
-      <c r="AG5" s="3"/>
-      <c r="AH5" s="3"/>
-      <c r="AI5" s="3"/>
-    </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="AE5" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D6" s="1"/>
-      <c r="E6" s="12" t="s">
-        <v>76</v>
-      </c>
-      <c r="F6" s="13">
-        <v>0</v>
-      </c>
-      <c r="G6" s="13">
+      <c r="D6" s="1">
+        <v>14</v>
+      </c>
+      <c r="E6" s="1">
+        <v>40</v>
+      </c>
+      <c r="F6" s="1"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="13">
+        <f>($H$23-$H$22)/3</f>
+        <v>24.933333333333337</v>
+      </c>
+      <c r="I6" s="13">
         <v>500</v>
       </c>
-      <c r="H6" s="13">
-        <v>0</v>
-      </c>
-      <c r="I6" s="2">
-        <v>1</v>
-      </c>
-      <c r="J6" s="2">
+      <c r="J6" s="13">
         <v>0</v>
       </c>
       <c r="K6" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L6" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M6" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N6" s="2">
+        <v>1</v>
+      </c>
+      <c r="O6" s="2">
+        <v>1</v>
+      </c>
+      <c r="P6" s="2">
         <v>3</v>
       </c>
-      <c r="O6" s="2">
+      <c r="Q6" s="2">
         <v>3</v>
       </c>
-      <c r="P6" s="2">
+      <c r="R6" s="2">
         <v>5</v>
       </c>
-      <c r="Q6" s="2">
+      <c r="S6" s="2">
         <v>5</v>
       </c>
-      <c r="R6" s="3">
-        <v>0</v>
-      </c>
-      <c r="S6" s="3">
-        <v>0</v>
-      </c>
       <c r="T6" s="3">
         <v>0</v>
       </c>
@@ -1569,80 +1642,87 @@
       <c r="W6" s="3">
         <v>0</v>
       </c>
-      <c r="X6" s="2">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="Y6" s="2"/>
-      <c r="Z6" s="2"/>
-      <c r="AA6" s="2"/>
-      <c r="AB6" s="2"/>
-      <c r="AC6" s="2"/>
+      <c r="X6" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y6" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z6" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA6" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB6" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC6" s="3">
+        <v>0</v>
+      </c>
       <c r="AD6" s="3">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AE6" s="3"/>
-      <c r="AF6" s="3"/>
-      <c r="AG6" s="3"/>
-      <c r="AH6" s="3"/>
-      <c r="AI6" s="3"/>
-    </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="AE6" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D7" s="1"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="13">
-        <f>($F$24-$F$23)/3</f>
-        <v>24.933333333333337</v>
-      </c>
-      <c r="G7" s="13">
+      <c r="D7" s="1">
+        <v>8</v>
+      </c>
+      <c r="E7" s="1">
+        <v>35</v>
+      </c>
+      <c r="F7" s="1"/>
+      <c r="G7" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="H7" s="13">
+        <v>143</v>
+      </c>
+      <c r="I7" s="13">
         <v>500</v>
       </c>
-      <c r="H7" s="13">
-        <v>0</v>
-      </c>
-      <c r="I7" s="2">
-        <v>1</v>
-      </c>
-      <c r="J7" s="2">
+      <c r="J7" s="13">
         <v>0</v>
       </c>
       <c r="K7" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L7" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M7" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N7" s="2">
+        <v>1</v>
+      </c>
+      <c r="O7" s="2">
+        <v>1</v>
+      </c>
+      <c r="P7" s="2">
         <v>3</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>3</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>5</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>5</v>
       </c>
-      <c r="R7" s="3">
-        <v>0</v>
-      </c>
-      <c r="S7" s="3">
-        <v>0</v>
-      </c>
       <c r="T7" s="3">
         <v>0</v>
       </c>
@@ -1655,81 +1735,85 @@
       <c r="W7" s="3">
         <v>0</v>
       </c>
-      <c r="X7" s="2">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="Y7" s="2"/>
-      <c r="Z7" s="2"/>
-      <c r="AA7" s="2"/>
-      <c r="AB7" s="2"/>
-      <c r="AC7" s="2"/>
+      <c r="X7" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y7" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z7" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA7" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB7" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC7" s="3">
+        <v>0</v>
+      </c>
       <c r="AD7" s="3">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AE7" s="3"/>
-      <c r="AF7" s="3"/>
-      <c r="AG7" s="3"/>
-      <c r="AH7" s="3"/>
-      <c r="AI7" s="3"/>
-    </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="AE7" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D8" s="1"/>
-      <c r="E8" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="F8" s="13">
-        <v>143</v>
-      </c>
-      <c r="G8" s="13">
+      <c r="D8" s="1">
+        <v>6</v>
+      </c>
+      <c r="E8" s="1">
+        <v>32</v>
+      </c>
+      <c r="F8" s="1"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="13">
+        <v>84</v>
+      </c>
+      <c r="I8" s="13">
         <v>500</v>
       </c>
-      <c r="H8" s="13">
-        <v>0</v>
-      </c>
-      <c r="I8" s="2">
-        <v>1</v>
-      </c>
-      <c r="J8" s="2">
+      <c r="J8" s="13">
         <v>0</v>
       </c>
       <c r="K8" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L8" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M8" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N8" s="2">
+        <v>1</v>
+      </c>
+      <c r="O8" s="2">
+        <v>1</v>
+      </c>
+      <c r="P8" s="2">
         <v>3</v>
       </c>
-      <c r="O8" s="2">
+      <c r="Q8" s="2">
         <v>3</v>
       </c>
-      <c r="P8" s="2">
+      <c r="R8" s="2">
         <v>5</v>
       </c>
-      <c r="Q8" s="2">
+      <c r="S8" s="2">
         <v>5</v>
       </c>
-      <c r="R8" s="3">
-        <v>0</v>
-      </c>
-      <c r="S8" s="3">
-        <v>0</v>
-      </c>
       <c r="T8" s="3">
         <v>0</v>
       </c>
@@ -1742,79 +1826,86 @@
       <c r="W8" s="3">
         <v>0</v>
       </c>
-      <c r="X8" s="2">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="Y8" s="2"/>
-      <c r="Z8" s="2"/>
-      <c r="AA8" s="2"/>
-      <c r="AB8" s="2"/>
-      <c r="AC8" s="2"/>
+      <c r="X8" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y8" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z8" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA8" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB8" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC8" s="3">
+        <v>0</v>
+      </c>
       <c r="AD8" s="3">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AE8" s="3"/>
-      <c r="AF8" s="3"/>
-      <c r="AG8" s="3"/>
-      <c r="AH8" s="3"/>
-      <c r="AI8" s="3"/>
-    </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="AE8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D9" s="1"/>
-      <c r="E9" s="11"/>
-      <c r="F9" s="13">
-        <v>84</v>
-      </c>
-      <c r="G9" s="13">
+      <c r="D9" s="1">
+        <v>4</v>
+      </c>
+      <c r="E9" s="1">
+        <v>25</v>
+      </c>
+      <c r="F9" s="1"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="13">
+        <f>($H$23-$H$22)/3</f>
+        <v>24.933333333333337</v>
+      </c>
+      <c r="I9" s="13">
         <v>500</v>
       </c>
-      <c r="H9" s="13">
-        <v>0</v>
-      </c>
-      <c r="I9" s="2">
-        <v>1</v>
-      </c>
-      <c r="J9" s="2">
+      <c r="J9" s="13">
         <v>0</v>
       </c>
       <c r="K9" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L9" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M9" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N9" s="2">
+        <v>1</v>
+      </c>
+      <c r="O9" s="2">
+        <v>1</v>
+      </c>
+      <c r="P9" s="2">
         <v>3</v>
       </c>
-      <c r="O9" s="2">
+      <c r="Q9" s="2">
         <v>3</v>
       </c>
-      <c r="P9" s="2">
+      <c r="R9" s="2">
         <v>5</v>
       </c>
-      <c r="Q9" s="2">
+      <c r="S9" s="2">
         <v>5</v>
       </c>
-      <c r="R9" s="3">
-        <v>0</v>
-      </c>
-      <c r="S9" s="3">
-        <v>0</v>
-      </c>
       <c r="T9" s="3">
         <v>0</v>
       </c>
@@ -1827,80 +1918,87 @@
       <c r="W9" s="3">
         <v>0</v>
       </c>
-      <c r="X9" s="2">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="Y9" s="2"/>
-      <c r="Z9" s="2"/>
-      <c r="AA9" s="2"/>
-      <c r="AB9" s="2"/>
-      <c r="AC9" s="2"/>
+      <c r="X9" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y9" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z9" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA9" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB9" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC9" s="3">
+        <v>0</v>
+      </c>
       <c r="AD9" s="3">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AE9" s="3"/>
-      <c r="AF9" s="3"/>
-      <c r="AG9" s="3"/>
-      <c r="AH9" s="3"/>
-      <c r="AI9" s="3"/>
-    </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="AE9" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D10" s="1"/>
-      <c r="E10" s="11"/>
-      <c r="F10" s="13">
-        <f>($F$24-$F$23)/3</f>
-        <v>24.933333333333337</v>
-      </c>
-      <c r="G10" s="13">
+      <c r="D10" s="1">
+        <v>12</v>
+      </c>
+      <c r="E10" s="1">
+        <v>28</v>
+      </c>
+      <c r="F10" s="1"/>
+      <c r="G10" t="s">
+        <v>68</v>
+      </c>
+      <c r="H10" s="13">
+        <v>21.2</v>
+      </c>
+      <c r="I10" s="13">
         <v>500</v>
       </c>
-      <c r="H10" s="13">
-        <v>0</v>
-      </c>
-      <c r="I10" s="2">
-        <v>1</v>
-      </c>
-      <c r="J10" s="2">
+      <c r="J10" s="13">
         <v>0</v>
       </c>
       <c r="K10" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L10" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M10" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N10" s="2">
+        <v>1</v>
+      </c>
+      <c r="O10" s="2">
+        <v>1</v>
+      </c>
+      <c r="P10" s="2">
         <v>3</v>
       </c>
-      <c r="O10" s="2">
+      <c r="Q10" s="2">
         <v>3</v>
       </c>
-      <c r="P10" s="2">
+      <c r="R10" s="2">
         <v>5</v>
       </c>
-      <c r="Q10" s="2">
+      <c r="S10" s="2">
         <v>5</v>
       </c>
-      <c r="R10" s="3">
-        <v>0</v>
-      </c>
-      <c r="S10" s="3">
-        <v>0</v>
-      </c>
       <c r="T10" s="3">
         <v>0</v>
       </c>
@@ -1913,1057 +2011,1032 @@
       <c r="W10" s="3">
         <v>0</v>
       </c>
-      <c r="X10" s="2">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="Y10" s="2"/>
-      <c r="Z10" s="2"/>
-      <c r="AA10" s="2"/>
-      <c r="AB10" s="2"/>
-      <c r="AC10" s="2"/>
+      <c r="X10" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y10" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z10" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA10" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB10" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC10" s="3">
+        <v>0</v>
+      </c>
       <c r="AD10" s="3">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AE10" s="3"/>
-      <c r="AF10" s="3"/>
-      <c r="AG10" s="3"/>
-      <c r="AH10" s="3"/>
-      <c r="AI10" s="3"/>
-    </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="AE10" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D11" s="1"/>
-      <c r="E11" t="s">
-        <v>77</v>
-      </c>
-      <c r="F11" s="13">
-        <v>21.2</v>
-      </c>
-      <c r="G11" s="13">
+        <v>20</v>
+      </c>
+      <c r="D11" s="1">
+        <v>2</v>
+      </c>
+      <c r="E11" s="1">
+        <v>20</v>
+      </c>
+      <c r="F11" s="1"/>
+      <c r="G11" s="11"/>
+      <c r="H11" s="2">
+        <v>0</v>
+      </c>
+      <c r="I11" s="2">
+        <v>0</v>
+      </c>
+      <c r="J11" s="2">
         <v>500</v>
       </c>
-      <c r="H11" s="13">
-        <v>0</v>
-      </c>
-      <c r="I11" s="2">
-        <v>1</v>
-      </c>
-      <c r="J11" s="2">
-        <v>0</v>
-      </c>
       <c r="K11" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L11" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M11" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N11" s="2">
+        <v>1</v>
+      </c>
+      <c r="O11" s="2">
+        <v>1</v>
+      </c>
+      <c r="P11" s="2">
         <v>3</v>
       </c>
-      <c r="O11" s="2">
+      <c r="Q11" s="2">
         <v>3</v>
       </c>
-      <c r="P11" s="2">
+      <c r="R11" s="2">
         <v>5</v>
       </c>
-      <c r="Q11" s="2">
+      <c r="S11" s="2">
         <v>5</v>
       </c>
-      <c r="R11" s="3">
-        <v>0</v>
-      </c>
-      <c r="S11" s="3">
-        <v>0</v>
-      </c>
       <c r="T11" s="3">
+        <f t="shared" ref="T11:T20" si="0">H11</f>
         <v>0</v>
       </c>
       <c r="U11" s="3">
-        <v>0</v>
+        <f t="shared" ref="U11:U20" si="1">K11</f>
+        <v>1</v>
       </c>
       <c r="V11" s="3">
+        <f t="shared" ref="V11:V20" si="2">L11</f>
         <v>0</v>
       </c>
       <c r="W11" s="3">
-        <v>0</v>
-      </c>
-      <c r="X11" s="2">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="Y11" s="2"/>
-      <c r="Z11" s="2"/>
-      <c r="AA11" s="2"/>
-      <c r="AB11" s="2"/>
-      <c r="AC11" s="2"/>
+        <f t="shared" ref="W11:W20" si="3">M11</f>
+        <v>0</v>
+      </c>
+      <c r="X11" s="3">
+        <f t="shared" ref="X11:X20" si="4">N11</f>
+        <v>1</v>
+      </c>
+      <c r="Y11" s="3">
+        <f t="shared" ref="Y11:Y20" si="5">O11</f>
+        <v>1</v>
+      </c>
+      <c r="Z11" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA11" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB11" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC11" s="3">
+        <v>0</v>
+      </c>
       <c r="AD11" s="3">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AE11" s="3"/>
-      <c r="AF11" s="3"/>
-      <c r="AG11" s="3"/>
-      <c r="AH11" s="3"/>
-      <c r="AI11" s="3"/>
-    </row>
-    <row r="12" spans="1:35" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="AE11" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D12" s="1"/>
-      <c r="E12" s="11"/>
-      <c r="F12" s="2">
-        <v>0</v>
-      </c>
-      <c r="G12" s="2">
-        <v>0</v>
-      </c>
+      <c r="D12" s="1">
+        <v>5</v>
+      </c>
+      <c r="E12" s="1">
+        <v>15</v>
+      </c>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
       <c r="H12" s="2">
+        <v>0</v>
+      </c>
+      <c r="I12" s="2">
+        <v>0</v>
+      </c>
+      <c r="J12" s="2">
         <v>500</v>
       </c>
-      <c r="I12" s="2">
-        <v>1</v>
-      </c>
-      <c r="J12" s="2">
-        <v>0</v>
-      </c>
       <c r="K12" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L12" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M12" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N12" s="2">
+        <v>1</v>
+      </c>
+      <c r="O12" s="2">
+        <v>1</v>
+      </c>
+      <c r="P12" s="2">
         <v>3</v>
       </c>
-      <c r="O12" s="2">
+      <c r="Q12" s="2">
         <v>3</v>
       </c>
-      <c r="P12" s="2">
+      <c r="R12" s="2">
         <v>5</v>
       </c>
-      <c r="Q12" s="2">
+      <c r="S12" s="2">
         <v>5</v>
       </c>
-      <c r="R12" s="3">
-        <f t="shared" ref="R12:R21" si="4">F12</f>
-        <v>0</v>
-      </c>
-      <c r="S12" s="3">
-        <f t="shared" ref="S12:S21" si="5">I12</f>
-        <v>1</v>
-      </c>
       <c r="T12" s="3">
-        <f t="shared" ref="T12:T21" si="6">J12</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="U12" s="3">
-        <f t="shared" ref="U12:U21" si="7">K12</f>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
       <c r="V12" s="3">
-        <f t="shared" ref="V12:V21" si="8">L12</f>
-        <v>1</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="W12" s="3">
-        <f t="shared" ref="W12:W21" si="9">M12</f>
-        <v>1</v>
-      </c>
-      <c r="X12" s="2">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="Y12" s="2"/>
-      <c r="Z12" s="2"/>
-      <c r="AA12" s="2"/>
-      <c r="AB12" s="2"/>
-      <c r="AC12" s="2"/>
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="X12" s="3">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="Y12" s="3">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="Z12" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA12" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB12" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC12" s="3">
+        <v>0</v>
+      </c>
       <c r="AD12" s="3">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AE12" s="3"/>
-      <c r="AF12" s="3"/>
-      <c r="AG12" s="3"/>
-      <c r="AH12" s="3"/>
-      <c r="AI12" s="3"/>
-    </row>
-    <row r="13" spans="1:35" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="AE12" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="2">
-        <v>0</v>
-      </c>
-      <c r="G13" s="2">
-        <v>0</v>
-      </c>
+      <c r="D13" s="1">
+        <v>9</v>
+      </c>
+      <c r="E13" s="1">
+        <v>10</v>
+      </c>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
       <c r="H13" s="2">
+        <v>0</v>
+      </c>
+      <c r="I13" s="2">
+        <v>0</v>
+      </c>
+      <c r="J13" s="2">
         <v>500</v>
       </c>
-      <c r="I13" s="2">
-        <v>1</v>
-      </c>
-      <c r="J13" s="2">
-        <v>0</v>
-      </c>
       <c r="K13" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L13" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M13" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N13" s="2">
+        <v>1</v>
+      </c>
+      <c r="O13" s="2">
+        <v>1</v>
+      </c>
+      <c r="P13" s="2">
         <v>3</v>
       </c>
-      <c r="O13" s="2">
+      <c r="Q13" s="2">
         <v>3</v>
       </c>
-      <c r="P13" s="2">
+      <c r="R13" s="2">
         <v>5</v>
       </c>
-      <c r="Q13" s="2">
+      <c r="S13" s="2">
         <v>5</v>
       </c>
-      <c r="R13" s="3">
+      <c r="T13" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="U13" s="3">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="V13" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="W13" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="X13" s="3">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="S13" s="3">
+        <v>1</v>
+      </c>
+      <c r="Y13" s="3">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="T13" s="3">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="U13" s="3">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="V13" s="3">
-        <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-      <c r="W13" s="3">
-        <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="X13" s="2">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="Y13" s="2"/>
-      <c r="Z13" s="2"/>
-      <c r="AA13" s="2"/>
-      <c r="AB13" s="2"/>
-      <c r="AC13" s="2"/>
+      <c r="Z13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC13" s="3">
+        <v>0</v>
+      </c>
       <c r="AD13" s="3">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AE13" s="3"/>
-      <c r="AF13" s="3"/>
-      <c r="AG13" s="3"/>
-      <c r="AH13" s="3"/>
-      <c r="AI13" s="3"/>
-    </row>
-    <row r="14" spans="1:35" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="AE13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="2">
-        <v>0</v>
-      </c>
-      <c r="G14" s="2">
-        <v>0</v>
-      </c>
+      <c r="D14" s="1">
+        <v>15</v>
+      </c>
+      <c r="E14" s="1">
+        <v>5</v>
+      </c>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
       <c r="H14" s="2">
+        <v>0</v>
+      </c>
+      <c r="I14" s="2">
+        <v>0</v>
+      </c>
+      <c r="J14" s="2">
         <v>500</v>
       </c>
-      <c r="I14" s="2">
-        <v>1</v>
-      </c>
-      <c r="J14" s="2">
-        <v>0</v>
-      </c>
       <c r="K14" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L14" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M14" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N14" s="2">
+        <v>1</v>
+      </c>
+      <c r="O14" s="2">
+        <v>1</v>
+      </c>
+      <c r="P14" s="2">
         <v>3</v>
       </c>
-      <c r="O14" s="2">
+      <c r="Q14" s="2">
         <v>3</v>
       </c>
-      <c r="P14" s="2">
+      <c r="R14" s="2">
         <v>5</v>
       </c>
-      <c r="Q14" s="2">
+      <c r="S14" s="2">
         <v>5</v>
       </c>
-      <c r="R14" s="3">
+      <c r="T14" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="U14" s="3">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="V14" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="W14" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="X14" s="3">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="S14" s="3">
+        <v>1</v>
+      </c>
+      <c r="Y14" s="3">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="T14" s="3">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="U14" s="3">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="V14" s="3">
-        <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-      <c r="W14" s="3">
-        <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="X14" s="2">
+      <c r="Z14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D15" s="1">
+        <v>6</v>
+      </c>
+      <c r="E15" s="1">
+        <v>37</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G15" s="1"/>
+      <c r="H15" s="2">
+        <v>0</v>
+      </c>
+      <c r="I15" s="2">
+        <v>0</v>
+      </c>
+      <c r="J15" s="2">
+        <v>0</v>
+      </c>
+      <c r="K15" s="2">
+        <v>1</v>
+      </c>
+      <c r="L15" s="2">
+        <v>0</v>
+      </c>
+      <c r="M15" s="2">
+        <v>0</v>
+      </c>
+      <c r="N15" s="2">
+        <v>1</v>
+      </c>
+      <c r="O15" s="2">
+        <v>1</v>
+      </c>
+      <c r="P15" s="2">
+        <v>3</v>
+      </c>
+      <c r="Q15" s="2">
+        <v>3</v>
+      </c>
+      <c r="R15" s="2">
+        <v>5</v>
+      </c>
+      <c r="S15" s="2">
+        <v>5</v>
+      </c>
+      <c r="T15" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="U15" s="3">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="V15" s="3">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="Y14" s="2"/>
-      <c r="Z14" s="2"/>
-      <c r="AA14" s="2"/>
-      <c r="AB14" s="2"/>
-      <c r="AC14" s="2"/>
-      <c r="AD14" s="3">
+      <c r="W15" s="3">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AE14" s="3"/>
-      <c r="AF14" s="3"/>
-      <c r="AG14" s="3"/>
-      <c r="AH14" s="3"/>
-      <c r="AI14" s="3"/>
-    </row>
-    <row r="15" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A15" s="1">
-        <v>12</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="2">
-        <v>0</v>
-      </c>
-      <c r="G15" s="2">
-        <v>0</v>
-      </c>
-      <c r="H15" s="2">
-        <v>500</v>
-      </c>
-      <c r="I15" s="2">
-        <v>1</v>
-      </c>
-      <c r="J15" s="2">
-        <v>0</v>
-      </c>
-      <c r="K15" s="2">
-        <v>0</v>
-      </c>
-      <c r="L15" s="2">
-        <v>1</v>
-      </c>
-      <c r="M15" s="2">
-        <v>1</v>
-      </c>
-      <c r="N15" s="2">
-        <v>3</v>
-      </c>
-      <c r="O15" s="2">
-        <v>3</v>
-      </c>
-      <c r="P15" s="2">
-        <v>5</v>
-      </c>
-      <c r="Q15" s="2">
-        <v>5</v>
-      </c>
-      <c r="R15" s="3">
+      <c r="X15" s="3">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="S15" s="3">
+        <v>1</v>
+      </c>
+      <c r="Y15" s="3">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="T15" s="3">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="U15" s="3">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="V15" s="3">
-        <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-      <c r="W15" s="3">
-        <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="X15" s="2">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="Y15" s="2"/>
-      <c r="Z15" s="2"/>
-      <c r="AA15" s="2"/>
-      <c r="AB15" s="2"/>
-      <c r="AC15" s="2"/>
+      <c r="Z15" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA15" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB15" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC15" s="3">
+        <v>0</v>
+      </c>
       <c r="AD15" s="3">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AE15" s="3"/>
-      <c r="AF15" s="3"/>
-      <c r="AG15" s="3"/>
-      <c r="AH15" s="3"/>
-      <c r="AI15" s="3"/>
-    </row>
-    <row r="16" spans="1:35" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="AE15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>17</v>
+        <v>43</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D16" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="E16" s="1"/>
-      <c r="F16" s="2">
-        <v>0</v>
-      </c>
-      <c r="G16" s="2">
-        <v>0</v>
-      </c>
+      <c r="D16" s="1">
+        <v>11</v>
+      </c>
+      <c r="E16" s="1">
+        <v>30</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G16" s="1"/>
       <c r="H16" s="2">
         <v>0</v>
       </c>
       <c r="I16" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J16" s="2">
         <v>0</v>
       </c>
       <c r="K16" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L16" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M16" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N16" s="2">
+        <v>1</v>
+      </c>
+      <c r="O16" s="2">
+        <v>1</v>
+      </c>
+      <c r="P16" s="2">
         <v>3</v>
       </c>
-      <c r="O16" s="2">
+      <c r="Q16" s="2">
         <v>3</v>
       </c>
-      <c r="P16" s="2">
+      <c r="R16" s="2">
         <v>5</v>
       </c>
-      <c r="Q16" s="2">
+      <c r="S16" s="2">
         <v>5</v>
       </c>
-      <c r="R16" s="3">
+      <c r="T16" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="U16" s="3">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="V16" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="W16" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="X16" s="3">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="S16" s="3">
+        <v>1</v>
+      </c>
+      <c r="Y16" s="3">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="T16" s="3">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="U16" s="3">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="V16" s="3">
-        <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-      <c r="W16" s="3">
-        <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="X16" s="2">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="Y16" s="2"/>
-      <c r="Z16" s="2"/>
-      <c r="AA16" s="2"/>
-      <c r="AB16" s="2"/>
-      <c r="AC16" s="2"/>
+      <c r="Z16" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA16" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB16" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC16" s="3">
+        <v>0</v>
+      </c>
       <c r="AD16" s="3">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AE16" s="3"/>
-      <c r="AF16" s="3"/>
-      <c r="AG16" s="3"/>
-      <c r="AH16" s="3"/>
-      <c r="AI16" s="3"/>
-    </row>
-    <row r="17" spans="1:35" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="AE16" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D17" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="E17" s="1"/>
-      <c r="F17" s="2">
-        <v>0</v>
-      </c>
-      <c r="G17" s="2">
-        <v>0</v>
-      </c>
+      <c r="D17" s="1">
+        <v>7</v>
+      </c>
+      <c r="E17" s="1">
+        <v>25</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G17" s="1"/>
       <c r="H17" s="2">
         <v>0</v>
       </c>
       <c r="I17" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J17" s="2">
         <v>0</v>
       </c>
       <c r="K17" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L17" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M17" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N17" s="2">
+        <v>1</v>
+      </c>
+      <c r="O17" s="2">
+        <v>1</v>
+      </c>
+      <c r="P17" s="2">
         <v>3</v>
       </c>
-      <c r="O17" s="2">
+      <c r="Q17" s="2">
         <v>3</v>
       </c>
-      <c r="P17" s="2">
+      <c r="R17" s="2">
         <v>5</v>
       </c>
-      <c r="Q17" s="2">
+      <c r="S17" s="2">
         <v>5</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="U17" s="3">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="V17" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="W17" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="X17" s="3">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="S17" s="3">
+        <v>1</v>
+      </c>
+      <c r="Y17" s="3">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="T17" s="3">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="U17" s="3">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="V17" s="3">
-        <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-      <c r="W17" s="3">
-        <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="X17" s="2">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="Y17" s="2"/>
-      <c r="Z17" s="2"/>
-      <c r="AA17" s="2"/>
-      <c r="AB17" s="2"/>
-      <c r="AC17" s="2"/>
+      <c r="Z17" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA17" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB17" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC17" s="3">
+        <v>0</v>
+      </c>
       <c r="AD17" s="3">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AE17" s="3"/>
-      <c r="AF17" s="3"/>
-      <c r="AG17" s="3"/>
-      <c r="AH17" s="3"/>
-      <c r="AI17" s="3"/>
-    </row>
-    <row r="18" spans="1:35" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="AE17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D18" s="1" t="s">
+      <c r="D18" s="1">
+        <v>12</v>
+      </c>
+      <c r="E18" s="1">
+        <v>22</v>
+      </c>
+      <c r="F18" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="E18" s="1"/>
-      <c r="F18" s="2">
-        <v>0</v>
-      </c>
-      <c r="G18" s="2">
-        <v>0</v>
-      </c>
+      <c r="G18" s="1"/>
       <c r="H18" s="2">
         <v>0</v>
       </c>
       <c r="I18" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J18" s="2">
         <v>0</v>
       </c>
       <c r="K18" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L18" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M18" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N18" s="2">
+        <v>1</v>
+      </c>
+      <c r="O18" s="2">
+        <v>1</v>
+      </c>
+      <c r="P18" s="2">
         <v>3</v>
       </c>
-      <c r="O18" s="2">
+      <c r="Q18" s="2">
         <v>3</v>
       </c>
-      <c r="P18" s="2">
+      <c r="R18" s="2">
         <v>5</v>
       </c>
-      <c r="Q18" s="2">
+      <c r="S18" s="2">
         <v>5</v>
       </c>
-      <c r="R18" s="3">
+      <c r="T18" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="U18" s="3">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="V18" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="W18" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="X18" s="3">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="S18" s="3">
+        <v>1</v>
+      </c>
+      <c r="Y18" s="3">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="T18" s="3">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="U18" s="3">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="V18" s="3">
-        <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-      <c r="W18" s="3">
-        <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="X18" s="2">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="Y18" s="2"/>
-      <c r="Z18" s="2"/>
-      <c r="AA18" s="2"/>
-      <c r="AB18" s="2"/>
-      <c r="AC18" s="2"/>
+      <c r="Z18" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA18" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB18" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC18" s="3">
+        <v>0</v>
+      </c>
       <c r="AD18" s="3">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AE18" s="3"/>
-      <c r="AF18" s="3"/>
-      <c r="AG18" s="3"/>
-      <c r="AH18" s="3"/>
-      <c r="AI18" s="3"/>
-    </row>
-    <row r="19" spans="1:35" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="AE18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D19" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="E19" s="1"/>
-      <c r="F19" s="2">
-        <v>0</v>
-      </c>
-      <c r="G19" s="2">
-        <v>0</v>
-      </c>
+      <c r="D19" s="1">
+        <v>14</v>
+      </c>
+      <c r="E19" s="1">
+        <v>16</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G19" s="1"/>
       <c r="H19" s="2">
         <v>0</v>
       </c>
       <c r="I19" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J19" s="2">
         <v>0</v>
       </c>
       <c r="K19" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L19" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M19" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N19" s="2">
+        <v>1</v>
+      </c>
+      <c r="O19" s="2">
+        <v>1</v>
+      </c>
+      <c r="P19" s="2">
         <v>3</v>
       </c>
-      <c r="O19" s="2">
+      <c r="Q19" s="2">
         <v>3</v>
       </c>
-      <c r="P19" s="2">
+      <c r="R19" s="2">
         <v>5</v>
       </c>
-      <c r="Q19" s="2">
+      <c r="S19" s="2">
         <v>5</v>
       </c>
-      <c r="R19" s="3">
+      <c r="T19" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="U19" s="3">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="V19" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="W19" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="X19" s="3">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="S19" s="3">
+        <v>1</v>
+      </c>
+      <c r="Y19" s="3">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="T19" s="3">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="U19" s="3">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="V19" s="3">
-        <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-      <c r="W19" s="3">
-        <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="X19" s="2">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="Y19" s="2"/>
-      <c r="Z19" s="2"/>
-      <c r="AA19" s="2"/>
-      <c r="AB19" s="2"/>
-      <c r="AC19" s="2"/>
+      <c r="Z19" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA19" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB19" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC19" s="3">
+        <v>0</v>
+      </c>
       <c r="AD19" s="3">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AE19" s="3"/>
-      <c r="AF19" s="3"/>
-      <c r="AG19" s="3"/>
-      <c r="AH19" s="3"/>
-      <c r="AI19" s="3"/>
-    </row>
-    <row r="20" spans="1:35" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="AE19" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>48</v>
+        <v>115</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D20" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="E20" s="1"/>
-      <c r="F20" s="2">
-        <v>0</v>
-      </c>
-      <c r="G20" s="2">
-        <v>0</v>
-      </c>
+      <c r="D20" s="1">
+        <v>15</v>
+      </c>
+      <c r="E20" s="1">
+        <v>25</v>
+      </c>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
       <c r="H20" s="2">
         <v>0</v>
       </c>
       <c r="I20" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J20" s="2">
         <v>0</v>
       </c>
       <c r="K20" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L20" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M20" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N20" s="2">
+        <v>1</v>
+      </c>
+      <c r="O20" s="2">
+        <v>1</v>
+      </c>
+      <c r="P20" s="2">
         <v>3</v>
       </c>
-      <c r="O20" s="2">
+      <c r="Q20" s="2">
         <v>3</v>
       </c>
-      <c r="P20" s="2">
+      <c r="R20" s="2">
         <v>5</v>
       </c>
-      <c r="Q20" s="2">
+      <c r="S20" s="2">
         <v>5</v>
       </c>
-      <c r="R20" s="3">
+      <c r="T20" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="U20" s="3">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="V20" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="W20" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="X20" s="3">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="S20" s="3">
+        <v>1</v>
+      </c>
+      <c r="Y20" s="3">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="T20" s="3">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="U20" s="3">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="V20" s="3">
-        <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-      <c r="W20" s="3">
-        <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="X20" s="2">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="Y20" s="2"/>
-      <c r="Z20" s="2"/>
-      <c r="AA20" s="2"/>
-      <c r="AB20" s="2"/>
-      <c r="AC20" s="2"/>
+      <c r="Z20" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA20" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB20" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC20" s="3">
+        <v>0</v>
+      </c>
       <c r="AD20" s="3">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AE20" s="3"/>
-      <c r="AF20" s="3"/>
-      <c r="AG20" s="3"/>
-      <c r="AH20" s="3"/>
-      <c r="AI20" s="3"/>
-    </row>
-    <row r="21" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A21" s="1">
-        <v>18</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="2">
-        <v>0</v>
-      </c>
-      <c r="G21" s="2">
-        <v>0</v>
-      </c>
-      <c r="H21" s="2">
-        <v>0</v>
-      </c>
-      <c r="I21" s="2">
-        <v>1</v>
-      </c>
-      <c r="J21" s="2">
-        <v>0</v>
-      </c>
-      <c r="K21" s="2">
-        <v>0</v>
-      </c>
-      <c r="L21" s="2">
-        <v>1</v>
-      </c>
-      <c r="M21" s="2">
-        <v>1</v>
-      </c>
-      <c r="N21" s="2">
-        <v>3</v>
-      </c>
-      <c r="O21" s="2">
-        <v>3</v>
-      </c>
-      <c r="P21" s="2">
-        <v>5</v>
-      </c>
-      <c r="Q21" s="2">
-        <v>5</v>
-      </c>
-      <c r="R21" s="3">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="S21" s="3">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="T21" s="3">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="U21" s="3">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="V21" s="3">
-        <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-      <c r="W21" s="3">
-        <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="X21" s="2">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="Y21" s="2"/>
-      <c r="Z21" s="2"/>
-      <c r="AA21" s="2"/>
-      <c r="AB21" s="2"/>
-      <c r="AC21" s="2"/>
-      <c r="AD21" s="3">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AE21" s="3"/>
-      <c r="AF21" s="3"/>
-      <c r="AG21" s="3"/>
-      <c r="AH21" s="3"/>
-      <c r="AI21" s="3"/>
-    </row>
-    <row r="23" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="E23" t="s">
-        <v>80</v>
-      </c>
-      <c r="F23">
-        <f>SUM(F11+F9+F8+F6+F5)</f>
+        <v>0</v>
+      </c>
+      <c r="AE20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="G22" t="s">
+        <v>71</v>
+      </c>
+      <c r="H22">
+        <f>SUM(H10+H8+H7+H5+H4)</f>
         <v>275.2</v>
       </c>
     </row>
-    <row r="24" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="E24" t="s">
-        <v>79</v>
-      </c>
-      <c r="F24">
+    <row r="23" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="G23" t="s">
+        <v>70</v>
+      </c>
+      <c r="H23">
         <v>350</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="R2:W2"/>
-    <mergeCell ref="F1:W1"/>
-    <mergeCell ref="X1:AI1"/>
-    <mergeCell ref="X2:AC2"/>
-    <mergeCell ref="AD2:AI2"/>
-    <mergeCell ref="F2:Q2"/>
+  <mergeCells count="2">
+    <mergeCell ref="H1:S1"/>
+    <mergeCell ref="T1:AE1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2975,7 +3048,7 @@
   <dimension ref="A1:I30"/>
   <sheetViews>
     <sheetView zoomScale="125" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2987,67 +3060,67 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="B1" s="20">
-        <v>1</v>
-      </c>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
-      <c r="I1" s="20"/>
+        <v>79</v>
+      </c>
+      <c r="B1" s="24">
+        <v>1</v>
+      </c>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
+      <c r="I1" s="24"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="B2" s="20">
-        <v>1</v>
-      </c>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
-      <c r="F2" s="20"/>
-      <c r="G2" s="20"/>
-      <c r="H2" s="20"/>
-      <c r="I2" s="20"/>
+        <v>72</v>
+      </c>
+      <c r="B2" s="24">
+        <v>1</v>
+      </c>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="24"/>
+      <c r="G2" s="24"/>
+      <c r="H2" s="24"/>
+      <c r="I2" s="24"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="4"/>
-      <c r="B3" s="16" t="s">
-        <v>88</v>
-      </c>
-      <c r="C3" s="16"/>
-      <c r="D3" s="16"/>
-      <c r="E3" s="16"/>
-      <c r="F3" s="14" t="s">
-        <v>89</v>
-      </c>
-      <c r="G3" s="14"/>
-      <c r="H3" s="14"/>
-      <c r="I3" s="14"/>
+      <c r="B3" s="22" t="s">
+        <v>73</v>
+      </c>
+      <c r="C3" s="22"/>
+      <c r="D3" s="22"/>
+      <c r="E3" s="22"/>
+      <c r="F3" s="23" t="s">
+        <v>74</v>
+      </c>
+      <c r="G3" s="23"/>
+      <c r="H3" s="23"/>
+      <c r="I3" s="23"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B4" s="5" t="str">
+        <f>Nodes!B11</f>
+        <v>NBP</v>
+      </c>
+      <c r="C4" s="5" t="str">
         <f>Nodes!B12</f>
-        <v>NBP</v>
-      </c>
-      <c r="C4" s="5" t="str">
+        <v>Zeebrugge</v>
+      </c>
+      <c r="D4" s="5" t="str">
         <f>Nodes!B13</f>
-        <v>Zeebrugge</v>
-      </c>
-      <c r="D4" s="5" t="str">
+        <v>Dunkerque</v>
+      </c>
+      <c r="E4" s="5" t="str">
         <f>Nodes!B14</f>
-        <v>Dunkerque</v>
-      </c>
-      <c r="E4" s="5" t="str">
-        <f>Nodes!B15</f>
         <v>Germany</v>
       </c>
       <c r="F4" s="6" t="str">
@@ -3072,18 +3145,16 @@
         <v>0</v>
       </c>
       <c r="B5" s="2">
-        <f>25.33+4.95</f>
-        <v>30.279999999999998</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="C5" s="2">
-        <f>48.25+28.47</f>
-        <v>76.72</v>
+        <v>44.6</v>
       </c>
       <c r="D5" s="2">
-        <v>38.79</v>
+        <v>47.5</v>
       </c>
       <c r="E5" s="2">
-        <v>58.48</v>
+        <v>83.5</v>
       </c>
       <c r="F5" s="3">
         <v>0</v>
@@ -3400,7 +3471,7 @@
     <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B30">
         <f>SUM(B5:E5)</f>
-        <v>204.26999999999998</v>
+        <v>177.8</v>
       </c>
     </row>
   </sheetData>
@@ -3418,8 +3489,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B7506CF-850A-ED42-956F-025E5A994524}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="113" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView zoomScale="113" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="N10" sqref="N10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3431,126 +3502,126 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="B1" s="20">
+        <v>79</v>
+      </c>
+      <c r="B1" s="24">
         <v>2</v>
       </c>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
-      <c r="I1" s="20"/>
-      <c r="J1" s="20">
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
+      <c r="I1" s="24"/>
+      <c r="J1" s="24">
         <v>3</v>
       </c>
-      <c r="K1" s="20"/>
-      <c r="L1" s="20"/>
-      <c r="M1" s="20"/>
-      <c r="N1" s="20"/>
-      <c r="O1" s="20"/>
-      <c r="P1" s="20"/>
-      <c r="Q1" s="20"/>
+      <c r="K1" s="24"/>
+      <c r="L1" s="24"/>
+      <c r="M1" s="24"/>
+      <c r="N1" s="24"/>
+      <c r="O1" s="24"/>
+      <c r="P1" s="24"/>
+      <c r="Q1" s="24"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="B2" s="20">
+        <v>72</v>
+      </c>
+      <c r="B2" s="24">
         <v>0.5</v>
       </c>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
-      <c r="F2" s="20"/>
-      <c r="G2" s="20"/>
-      <c r="H2" s="20"/>
-      <c r="I2" s="20"/>
-      <c r="J2" s="20">
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="24"/>
+      <c r="G2" s="24"/>
+      <c r="H2" s="24"/>
+      <c r="I2" s="24"/>
+      <c r="J2" s="24">
         <v>0.5</v>
       </c>
-      <c r="K2" s="20"/>
-      <c r="L2" s="20"/>
-      <c r="M2" s="20"/>
-      <c r="N2" s="20"/>
-      <c r="O2" s="20"/>
-      <c r="P2" s="20"/>
-      <c r="Q2" s="20"/>
+      <c r="K2" s="24"/>
+      <c r="L2" s="24"/>
+      <c r="M2" s="24"/>
+      <c r="N2" s="24"/>
+      <c r="O2" s="24"/>
+      <c r="P2" s="24"/>
+      <c r="Q2" s="24"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="B3" s="21">
-        <v>1</v>
-      </c>
-      <c r="C3" s="22"/>
-      <c r="D3" s="22"/>
-      <c r="E3" s="22"/>
-      <c r="F3" s="22"/>
-      <c r="G3" s="22"/>
-      <c r="H3" s="22"/>
-      <c r="I3" s="23"/>
-      <c r="J3" s="21">
-        <v>1</v>
-      </c>
-      <c r="K3" s="22"/>
-      <c r="L3" s="22"/>
-      <c r="M3" s="22"/>
-      <c r="N3" s="22"/>
-      <c r="O3" s="22"/>
-      <c r="P3" s="22"/>
-      <c r="Q3" s="23"/>
+        <v>80</v>
+      </c>
+      <c r="B3" s="25">
+        <v>1</v>
+      </c>
+      <c r="C3" s="26"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="26"/>
+      <c r="G3" s="26"/>
+      <c r="H3" s="26"/>
+      <c r="I3" s="27"/>
+      <c r="J3" s="25">
+        <v>1</v>
+      </c>
+      <c r="K3" s="26"/>
+      <c r="L3" s="26"/>
+      <c r="M3" s="26"/>
+      <c r="N3" s="26"/>
+      <c r="O3" s="26"/>
+      <c r="P3" s="26"/>
+      <c r="Q3" s="27"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A4" s="4"/>
-      <c r="B4" s="16" t="s">
-        <v>88</v>
-      </c>
-      <c r="C4" s="16"/>
-      <c r="D4" s="16"/>
-      <c r="E4" s="16"/>
-      <c r="F4" s="14" t="s">
-        <v>89</v>
-      </c>
-      <c r="G4" s="14"/>
-      <c r="H4" s="14"/>
-      <c r="I4" s="14"/>
-      <c r="J4" s="16" t="str">
+      <c r="B4" s="22" t="s">
+        <v>73</v>
+      </c>
+      <c r="C4" s="22"/>
+      <c r="D4" s="22"/>
+      <c r="E4" s="22"/>
+      <c r="F4" s="23" t="s">
+        <v>74</v>
+      </c>
+      <c r="G4" s="23"/>
+      <c r="H4" s="23"/>
+      <c r="I4" s="23"/>
+      <c r="J4" s="22" t="str">
         <f>B4</f>
         <v>gas or mix</v>
       </c>
-      <c r="K4" s="16"/>
-      <c r="L4" s="16"/>
-      <c r="M4" s="16"/>
-      <c r="N4" s="14" t="str">
+      <c r="K4" s="22"/>
+      <c r="L4" s="22"/>
+      <c r="M4" s="22"/>
+      <c r="N4" s="23" t="str">
         <f>F4</f>
         <v>pure hydrogen</v>
       </c>
-      <c r="O4" s="14"/>
-      <c r="P4" s="14"/>
-      <c r="Q4" s="14"/>
+      <c r="O4" s="23"/>
+      <c r="P4" s="23"/>
+      <c r="Q4" s="23"/>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B5" s="5" t="str">
+        <f>Nodes!B11</f>
+        <v>NBP</v>
+      </c>
+      <c r="C5" s="5" t="str">
         <f>Nodes!B12</f>
-        <v>NBP</v>
-      </c>
-      <c r="C5" s="5" t="str">
+        <v>Zeebrugge</v>
+      </c>
+      <c r="D5" s="5" t="str">
         <f>Nodes!B13</f>
-        <v>Zeebrugge</v>
-      </c>
-      <c r="D5" s="5" t="str">
+        <v>Dunkerque</v>
+      </c>
+      <c r="E5" s="5" t="str">
         <f>Nodes!B14</f>
-        <v>Dunkerque</v>
-      </c>
-      <c r="E5" s="5" t="str">
-        <f>Nodes!B15</f>
         <v>Germany</v>
       </c>
       <c r="F5" s="6" t="str">
@@ -3607,18 +3678,16 @@
         <v>0</v>
       </c>
       <c r="B6" s="2">
-        <f>25.33+4.95</f>
-        <v>30.279999999999998</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="C6" s="2">
-        <f>48.25+28.47</f>
-        <v>76.72</v>
+        <v>44.6</v>
       </c>
       <c r="D6" s="2">
-        <v>38.79</v>
+        <v>47.5</v>
       </c>
       <c r="E6" s="2">
-        <v>58.48</v>
+        <v>83.5</v>
       </c>
       <c r="F6" s="3">
         <v>0</v>
@@ -3633,20 +3702,20 @@
         <v>0</v>
       </c>
       <c r="J6" s="2">
-        <f>B6+5</f>
-        <v>35.28</v>
+        <f>B6-1</f>
+        <v>1.2000000000000002</v>
       </c>
       <c r="K6" s="2">
-        <f t="shared" ref="K6:M6" si="3">C6+5</f>
-        <v>81.72</v>
+        <f t="shared" ref="K6:M6" si="3">C6-1</f>
+        <v>43.6</v>
       </c>
       <c r="L6" s="2">
         <f t="shared" si="3"/>
-        <v>43.79</v>
+        <v>46.5</v>
       </c>
       <c r="M6" s="2">
         <f t="shared" si="3"/>
-        <v>63.48</v>
+        <v>82.5</v>
       </c>
       <c r="N6" s="3">
         <f>F6</f>
@@ -4151,7 +4220,7 @@
     <row r="31" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B31">
         <f>SUM(B6:E6)</f>
-        <v>204.26999999999998</v>
+        <v>177.8</v>
       </c>
     </row>
   </sheetData>
@@ -4173,10 +4242,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5D89E28-915C-F54C-B37A-2FAB20B0DB56}">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4189,12 +4258,12 @@
         <v>1</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>101</v>
+        <v>83</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="8" t="s">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -4202,7 +4271,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
-        <v>91</v>
+        <v>76</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -4210,7 +4279,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="8" t="s">
-        <v>92</v>
+        <v>77</v>
       </c>
       <c r="B4">
         <v>0.25</v>
@@ -4218,7 +4287,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="8" t="s">
-        <v>93</v>
+        <v>108</v>
       </c>
       <c r="B5">
         <v>1</v>
@@ -4226,7 +4295,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="8" t="s">
-        <v>99</v>
+        <v>81</v>
       </c>
       <c r="B6">
         <v>1</v>
@@ -4234,10 +4303,26 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="8" t="s">
-        <v>100</v>
+        <v>82</v>
       </c>
       <c r="B7">
         <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" s="14" t="s">
+        <v>109</v>
+      </c>
+      <c r="B8" s="15">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" s="14" t="s">
+        <v>110</v>
+      </c>
+      <c r="B9" s="15">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -4247,10 +4332,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2902688A-D2A3-854F-B341-C0BEC53AF991}">
-  <dimension ref="A1:L24"/>
+  <dimension ref="A1:N22"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="150" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="200" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2:E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4260,101 +4345,154 @@
     <col min="5" max="5" width="17.1640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="13.1640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.5" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="I1" s="15" t="str">
-        <f>Traders!B2</f>
-        <v>Shipper 1</v>
-      </c>
-      <c r="J1" s="15"/>
-      <c r="K1" s="15" t="str">
-        <f>Traders!B3</f>
-        <v>Shipper 2</v>
-      </c>
-      <c r="L1" s="15"/>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="I2" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="J2" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="K2" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="L2" s="6" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A3" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="4" t="s">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="H3" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="I3" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="J3" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="K3" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="L3" s="6" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="E1" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="M1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="1" t="str">
+        <f>Nodes!B3</f>
+        <v>AreaA</v>
+      </c>
+      <c r="D2" s="1" t="str">
+        <f>Nodes!B11</f>
+        <v>NBP</v>
+      </c>
+      <c r="E2" s="1">
+        <f>M2+3</f>
+        <v>28</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="G2" s="1">
+        <f>INDEX(Nodes!$A:$A,MATCH(Arcs!C2,Nodes!$B:$B,0))</f>
+        <v>1</v>
+      </c>
+      <c r="H2" s="1">
+        <f>INDEX(Nodes!$A:$A,MATCH(Arcs!D2,Nodes!$B:$B,0))</f>
+        <v>9</v>
+      </c>
+      <c r="I2" s="2">
+        <v>1</v>
+      </c>
+      <c r="J2" s="3">
+        <v>0</v>
+      </c>
+      <c r="M2" s="1">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" s="1" t="str">
+        <f>Nodes!B15</f>
+        <v>Intermediate 1</v>
+      </c>
+      <c r="D3" s="1" t="str">
+        <f>Nodes!B11</f>
+        <v>NBP</v>
+      </c>
+      <c r="E3" s="1">
+        <f t="shared" ref="E3:E22" si="0">M3+3</f>
+        <v>39.9</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="G3" s="1">
+        <f>INDEX(Nodes!$A:$A,MATCH(Arcs!C3,Nodes!$B:$B,0))</f>
+        <v>13</v>
+      </c>
+      <c r="H3" s="1">
+        <f>INDEX(Nodes!$A:$A,MATCH(Arcs!D3,Nodes!$B:$B,0))</f>
+        <v>9</v>
+      </c>
+      <c r="I3" s="2">
+        <v>1</v>
+      </c>
+      <c r="J3" s="3">
+        <v>0</v>
+      </c>
+      <c r="M3" s="1">
+        <v>36.9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C4" s="1" t="str">
-        <f>Nodes!B4</f>
-        <v>AreaA</v>
+        <f>Nodes!B8</f>
+        <v>Nyhamna</v>
       </c>
       <c r="D4" s="1" t="str">
-        <f>Nodes!B12</f>
-        <v>NBP</v>
+        <f>Nodes!B17</f>
+        <v>Intermediate 3</v>
       </c>
       <c r="E4" s="1">
-        <v>25</v>
+        <f t="shared" si="0"/>
+        <v>77.7</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G4" s="1">
         <f>INDEX(Nodes!$A:$A,MATCH(Arcs!C4,Nodes!$B:$B,0))</f>
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H4" s="1">
         <f>INDEX(Nodes!$A:$A,MATCH(Arcs!D4,Nodes!$B:$B,0))</f>
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="I4" s="2">
         <v>1</v>
@@ -4362,33 +4500,35 @@
       <c r="J4" s="3">
         <v>0</v>
       </c>
-      <c r="K4" s="2"/>
-      <c r="L4" s="3"/>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M4" s="1">
+        <v>74.7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C5" s="1" t="str">
-        <f>Nodes!B16</f>
-        <v>Intermediate 1</v>
+        <f>Nodes!B17</f>
+        <v>Intermediate 3</v>
       </c>
       <c r="D5" s="1" t="str">
-        <f>Nodes!B12</f>
+        <f>Nodes!B11</f>
         <v>NBP</v>
       </c>
       <c r="E5" s="1">
-        <v>36.9</v>
+        <f t="shared" si="0"/>
+        <v>76.8</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G5" s="1">
         <f>INDEX(Nodes!$A:$A,MATCH(Arcs!C5,Nodes!$B:$B,0))</f>
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H5" s="1">
         <f>INDEX(Nodes!$A:$A,MATCH(Arcs!D5,Nodes!$B:$B,0))</f>
@@ -4400,37 +4540,39 @@
       <c r="J5" s="3">
         <v>0</v>
       </c>
-      <c r="K5" s="2"/>
-      <c r="L5" s="3"/>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M5" s="1">
+        <v>73.8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C6" s="1" t="str">
-        <f>Nodes!B9</f>
-        <v>Nyhamna</v>
+        <f>Nodes!B17</f>
+        <v>Intermediate 3</v>
       </c>
       <c r="D6" s="1" t="str">
-        <f>Nodes!B18</f>
-        <v>Intermediate 3</v>
+        <f>Nodes!B12</f>
+        <v>Zeebrugge</v>
       </c>
       <c r="E6" s="1">
-        <v>74.7</v>
+        <f t="shared" si="0"/>
+        <v>45.2</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G6" s="1">
         <f>INDEX(Nodes!$A:$A,MATCH(Arcs!C6,Nodes!$B:$B,0))</f>
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="H6" s="1">
         <f>INDEX(Nodes!$A:$A,MATCH(Arcs!D6,Nodes!$B:$B,0))</f>
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="I6" s="2">
         <v>1</v>
@@ -4438,37 +4580,39 @@
       <c r="J6" s="3">
         <v>0</v>
       </c>
-      <c r="K6" s="2"/>
-      <c r="L6" s="3"/>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M6" s="1">
+        <v>42.2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C7" s="1" t="str">
-        <f>Nodes!B18</f>
+        <f>Nodes!B7</f>
+        <v>Kollsnes</v>
+      </c>
+      <c r="D7" s="1" t="str">
+        <f>Nodes!B17</f>
         <v>Intermediate 3</v>
       </c>
-      <c r="D7" s="1" t="str">
-        <f>Nodes!B12</f>
-        <v>NBP</v>
-      </c>
       <c r="E7" s="1">
-        <v>72.099999999999994</v>
+        <f t="shared" si="0"/>
+        <v>77</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G7" s="1">
         <f>INDEX(Nodes!$A:$A,MATCH(Arcs!C7,Nodes!$B:$B,0))</f>
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="H7" s="1">
         <f>INDEX(Nodes!$A:$A,MATCH(Arcs!D7,Nodes!$B:$B,0))</f>
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="I7" s="2">
         <v>1</v>
@@ -4476,37 +4620,42 @@
       <c r="J7" s="3">
         <v>0</v>
       </c>
-      <c r="K7" s="2"/>
-      <c r="L7" s="3"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M7" s="1">
+        <v>74</v>
+      </c>
+      <c r="N7" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C8" s="1" t="str">
-        <f>Nodes!B18</f>
-        <v>Intermediate 3</v>
+        <f>Nodes!B7</f>
+        <v>Kollsnes</v>
       </c>
       <c r="D8" s="1" t="str">
-        <f>Nodes!B13</f>
-        <v>Zeebrugge</v>
+        <f>Nodes!B16</f>
+        <v>Intermediate 2</v>
       </c>
       <c r="E8" s="1">
-        <v>42.2</v>
+        <f t="shared" si="0"/>
+        <v>76</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G8" s="1">
         <f>INDEX(Nodes!$A:$A,MATCH(Arcs!C8,Nodes!$B:$B,0))</f>
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="H8" s="1">
         <f>INDEX(Nodes!$A:$A,MATCH(Arcs!D8,Nodes!$B:$B,0))</f>
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="I8" s="2">
         <v>1</v>
@@ -4514,37 +4663,42 @@
       <c r="J8" s="3">
         <v>0</v>
       </c>
-      <c r="K8" s="2"/>
-      <c r="L8" s="3"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M8" s="1">
+        <v>73</v>
+      </c>
+      <c r="N8" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C9" s="1" t="str">
-        <f>Nodes!B8</f>
-        <v>Kollsnes</v>
+        <f>Nodes!B17</f>
+        <v>Intermediate 3</v>
       </c>
       <c r="D9" s="1" t="str">
-        <f>Nodes!B18</f>
-        <v>Intermediate 3</v>
+        <f>Nodes!B16</f>
+        <v>Intermediate 2</v>
       </c>
       <c r="E9" s="1">
-        <v>74</v>
+        <f t="shared" si="0"/>
+        <v>1003</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="G9" s="1">
         <f>INDEX(Nodes!$A:$A,MATCH(Arcs!C9,Nodes!$B:$B,0))</f>
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="H9" s="1">
         <f>INDEX(Nodes!$A:$A,MATCH(Arcs!D9,Nodes!$B:$B,0))</f>
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I9" s="2">
         <v>1</v>
@@ -4552,33 +4706,35 @@
       <c r="J9" s="3">
         <v>0</v>
       </c>
-      <c r="K9" s="2"/>
-      <c r="L9" s="3"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M9">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C10" s="1" t="str">
-        <f>Nodes!B8</f>
-        <v>Kollsnes</v>
+        <f>Nodes!B5</f>
+        <v>Heimdal</v>
       </c>
       <c r="D10" s="1" t="str">
-        <f>Nodes!B17</f>
+        <f>Nodes!B16</f>
         <v>Intermediate 2</v>
       </c>
       <c r="E10" s="1">
-        <v>73</v>
+        <f t="shared" si="0"/>
+        <v>33.700000000000003</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G10" s="1">
         <f>INDEX(Nodes!$A:$A,MATCH(Arcs!C10,Nodes!$B:$B,0))</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H10" s="1">
         <f>INDEX(Nodes!$A:$A,MATCH(Arcs!D10,Nodes!$B:$B,0))</f>
@@ -4590,37 +4746,39 @@
       <c r="J10" s="3">
         <v>0</v>
       </c>
-      <c r="K10" s="2"/>
-      <c r="L10" s="3"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M10" s="1">
+        <v>30.7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C11" s="1" t="str">
         <f>Nodes!B18</f>
-        <v>Intermediate 3</v>
+        <v>Intermediate 4</v>
       </c>
       <c r="D11" s="1" t="str">
-        <f>Nodes!B17</f>
-        <v>Intermediate 2</v>
-      </c>
-      <c r="E11">
-        <v>1000</v>
+        <f>Nodes!B13</f>
+        <v>Dunkerque</v>
+      </c>
+      <c r="E11" s="1">
+        <f t="shared" si="0"/>
+        <v>57.2</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>74</v>
+        <v>48</v>
       </c>
       <c r="G11" s="1">
         <f>INDEX(Nodes!$A:$A,MATCH(Arcs!C11,Nodes!$B:$B,0))</f>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H11" s="1">
         <f>INDEX(Nodes!$A:$A,MATCH(Arcs!D11,Nodes!$B:$B,0))</f>
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="I11" s="2">
         <v>1</v>
@@ -4628,37 +4786,37 @@
       <c r="J11" s="3">
         <v>0</v>
       </c>
-      <c r="K11" s="2"/>
-      <c r="L11" s="3"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M11" s="1">
+        <v>54.2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>28</v>
       </c>
       <c r="C12" s="1" t="str">
-        <f>Nodes!B6</f>
-        <v>Heimdal</v>
+        <f>Nodes!B3</f>
+        <v>AreaA</v>
       </c>
       <c r="D12" s="1" t="str">
-        <f>Nodes!B17</f>
-        <v>Intermediate 2</v>
+        <f>Nodes!B20</f>
+        <v>Karsto</v>
       </c>
       <c r="E12" s="1">
-        <v>30.7</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>50</v>
-      </c>
+        <f t="shared" si="0"/>
+        <v>24.1</v>
+      </c>
+      <c r="F12" s="1"/>
       <c r="G12" s="1">
         <f>INDEX(Nodes!$A:$A,MATCH(Arcs!C12,Nodes!$B:$B,0))</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H12" s="1">
         <f>INDEX(Nodes!$A:$A,MATCH(Arcs!D12,Nodes!$B:$B,0))</f>
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="I12" s="2">
         <v>1</v>
@@ -4666,37 +4824,39 @@
       <c r="J12" s="3">
         <v>0</v>
       </c>
-      <c r="K12" s="2"/>
-      <c r="L12" s="3"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M12">
+        <v>21.1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C13" s="1" t="str">
-        <f>Nodes!B19</f>
+        <f>Nodes!B20</f>
+        <v>Karsto</v>
+      </c>
+      <c r="D13" s="1" t="str">
+        <f>Nodes!B18</f>
         <v>Intermediate 4</v>
       </c>
-      <c r="D13" s="1" t="str">
-        <f>Nodes!B14</f>
-        <v>Dunkerque</v>
-      </c>
       <c r="E13" s="1">
-        <v>54.8</v>
+        <f t="shared" si="0"/>
+        <v>24.1</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G13" s="1">
         <f>INDEX(Nodes!$A:$A,MATCH(Arcs!C13,Nodes!$B:$B,0))</f>
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="H13" s="1">
         <f>INDEX(Nodes!$A:$A,MATCH(Arcs!D13,Nodes!$B:$B,0))</f>
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="I13" s="2">
         <v>1</v>
@@ -4704,35 +4864,39 @@
       <c r="J13" s="3">
         <v>0</v>
       </c>
-      <c r="K13" s="2"/>
-      <c r="L13" s="3"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M13" s="1">
+        <v>21.1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C14" s="1" t="str">
-        <f>Nodes!B4</f>
-        <v>AreaA</v>
+        <f>Nodes!B18</f>
+        <v>Intermediate 4</v>
       </c>
       <c r="D14" s="1" t="str">
-        <f>Nodes!B21</f>
-        <v>Karstø</v>
-      </c>
-      <c r="E14">
-        <v>21.1</v>
-      </c>
-      <c r="F14" s="1"/>
+        <f>Nodes!B14</f>
+        <v>Germany</v>
+      </c>
+      <c r="E14" s="1">
+        <f t="shared" si="0"/>
+        <v>48.7</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>48</v>
+      </c>
       <c r="G14" s="1">
         <f>INDEX(Nodes!$A:$A,MATCH(Arcs!C14,Nodes!$B:$B,0))</f>
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="H14" s="1">
         <f>INDEX(Nodes!$A:$A,MATCH(Arcs!D14,Nodes!$B:$B,0))</f>
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I14" s="2">
         <v>1</v>
@@ -4740,37 +4904,39 @@
       <c r="J14" s="3">
         <v>0</v>
       </c>
-      <c r="K14" s="2"/>
-      <c r="L14" s="3"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M14" s="1">
+        <v>45.7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C15" s="1" t="str">
-        <f>Nodes!B21</f>
-        <v>Karstø</v>
+        <f>Nodes!B19</f>
+        <v>Intermediate 5</v>
       </c>
       <c r="D15" s="1" t="str">
-        <f>Nodes!B19</f>
-        <v>Intermediate 4</v>
+        <f>Nodes!B14</f>
+        <v>Germany</v>
       </c>
       <c r="E15" s="1">
-        <v>21.1</v>
+        <f t="shared" si="0"/>
+        <v>47.4</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G15" s="1">
         <f>INDEX(Nodes!$A:$A,MATCH(Arcs!C15,Nodes!$B:$B,0))</f>
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H15" s="1">
         <f>INDEX(Nodes!$A:$A,MATCH(Arcs!D15,Nodes!$B:$B,0))</f>
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I15" s="2">
         <v>1</v>
@@ -4778,33 +4944,35 @@
       <c r="J15" s="3">
         <v>0</v>
       </c>
-      <c r="K15" s="2"/>
-      <c r="L15" s="3"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M15" s="1">
+        <v>44.4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C16" s="1" t="str">
-        <f>Nodes!B19</f>
-        <v>Intermediate 4</v>
+        <f>Nodes!B20</f>
+        <v>Karsto</v>
       </c>
       <c r="D16" s="1" t="str">
-        <f>Nodes!B15</f>
+        <f>Nodes!B14</f>
         <v>Germany</v>
       </c>
       <c r="E16" s="1">
-        <v>45.7</v>
+        <f t="shared" si="0"/>
+        <v>76.5</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G16" s="1">
         <f>INDEX(Nodes!$A:$A,MATCH(Arcs!C16,Nodes!$B:$B,0))</f>
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="H16" s="1">
         <f>INDEX(Nodes!$A:$A,MATCH(Arcs!D16,Nodes!$B:$B,0))</f>
@@ -4816,37 +4984,39 @@
       <c r="J16" s="3">
         <v>0</v>
       </c>
-      <c r="K16" s="2"/>
-      <c r="L16" s="3"/>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M16" s="1">
+        <v>73.5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>30</v>
+        <v>116</v>
       </c>
       <c r="C17" s="1" t="str">
+        <f>Nodes!B6</f>
+        <v>AreaB</v>
+      </c>
+      <c r="D17" s="1" t="str">
         <f>Nodes!B20</f>
-        <v>Intermediate 5</v>
-      </c>
-      <c r="D17" s="1" t="str">
-        <f>Nodes!B15</f>
-        <v>Germany</v>
+        <v>Karsto</v>
       </c>
       <c r="E17" s="1">
-        <v>44.4</v>
+        <f t="shared" si="0"/>
+        <v>73</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>50</v>
+        <v>64</v>
       </c>
       <c r="G17" s="1">
         <f>INDEX(Nodes!$A:$A,MATCH(Arcs!C17,Nodes!$B:$B,0))</f>
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="H17" s="1">
         <f>INDEX(Nodes!$A:$A,MATCH(Arcs!D17,Nodes!$B:$B,0))</f>
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I17" s="2">
         <v>1</v>
@@ -4854,37 +5024,39 @@
       <c r="J17" s="3">
         <v>0</v>
       </c>
-      <c r="K17" s="2"/>
-      <c r="L17" s="3"/>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M17">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C18" s="1" t="str">
-        <f>Nodes!B21</f>
-        <v>Karstø</v>
+        <f>Nodes!B18</f>
+        <v>Intermediate 4</v>
       </c>
       <c r="D18" s="1" t="str">
-        <f>Nodes!B15</f>
-        <v>Germany</v>
+        <f>Nodes!B19</f>
+        <v>Intermediate 5</v>
       </c>
       <c r="E18" s="1">
-        <v>71.2</v>
+        <f t="shared" si="0"/>
+        <v>47.4</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="G18" s="1">
         <f>INDEX(Nodes!$A:$A,MATCH(Arcs!C18,Nodes!$B:$B,0))</f>
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H18" s="1">
         <f>INDEX(Nodes!$A:$A,MATCH(Arcs!D18,Nodes!$B:$B,0))</f>
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="I18" s="2">
         <v>1</v>
@@ -4892,37 +5064,39 @@
       <c r="J18" s="3">
         <v>0</v>
       </c>
-      <c r="K18" s="2"/>
-      <c r="L18" s="3"/>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M18" s="1">
+        <v>44.4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>33</v>
       </c>
       <c r="C19" s="1" t="str">
-        <f>Nodes!B7</f>
-        <v>AreaB</v>
+        <f>Nodes!B4</f>
+        <v>Oseberg</v>
       </c>
       <c r="D19" s="1" t="str">
-        <f>Nodes!B21</f>
-        <v>Karstø</v>
-      </c>
-      <c r="E19">
-        <v>70</v>
+        <f>Nodes!B15</f>
+        <v>Intermediate 1</v>
+      </c>
+      <c r="E19" s="1">
+        <f t="shared" si="0"/>
+        <v>1003</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="G19" s="1">
         <f>INDEX(Nodes!$A:$A,MATCH(Arcs!C19,Nodes!$B:$B,0))</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H19" s="1">
         <f>INDEX(Nodes!$A:$A,MATCH(Arcs!D19,Nodes!$B:$B,0))</f>
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="I19" s="2">
         <v>1</v>
@@ -4930,37 +5104,39 @@
       <c r="J19" s="3">
         <v>0</v>
       </c>
-      <c r="K19" s="2"/>
-      <c r="L19" s="3"/>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M19" s="1">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="C20" s="1" t="str">
-        <f>Nodes!B19</f>
-        <v>Intermediate 4</v>
+        <f>Nodes!B5</f>
+        <v>Heimdal</v>
       </c>
       <c r="D20" s="1" t="str">
-        <f>Nodes!B20</f>
-        <v>Intermediate 5</v>
+        <f>Nodes!B15</f>
+        <v>Intermediate 1</v>
       </c>
       <c r="E20" s="1">
-        <v>44.4</v>
+        <f t="shared" si="0"/>
+        <v>1003</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="G20" s="1">
         <f>INDEX(Nodes!$A:$A,MATCH(Arcs!C20,Nodes!$B:$B,0))</f>
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="H20" s="1">
         <f>INDEX(Nodes!$A:$A,MATCH(Arcs!D20,Nodes!$B:$B,0))</f>
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="I20" s="2">
         <v>1</v>
@@ -4968,37 +5144,39 @@
       <c r="J20" s="3">
         <v>0</v>
       </c>
-      <c r="K20" s="2"/>
-      <c r="L20" s="3"/>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M20" s="1">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C21" s="1" t="str">
-        <f>Nodes!B5</f>
-        <v>Oseberg</v>
+        <f>Nodes!B16</f>
+        <v>Intermediate 2</v>
       </c>
       <c r="D21" s="1" t="str">
-        <f>Nodes!B16</f>
-        <v>Intermediate 1</v>
+        <f>Nodes!B20</f>
+        <v>Karsto</v>
       </c>
       <c r="E21" s="1">
-        <v>1000</v>
+        <f t="shared" si="0"/>
+        <v>1003</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="G21" s="1">
         <f>INDEX(Nodes!$A:$A,MATCH(Arcs!C21,Nodes!$B:$B,0))</f>
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="H21" s="1">
         <f>INDEX(Nodes!$A:$A,MATCH(Arcs!D21,Nodes!$B:$B,0))</f>
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="I21" s="2">
         <v>1</v>
@@ -5006,37 +5184,39 @@
       <c r="J21" s="3">
         <v>0</v>
       </c>
-      <c r="K21" s="2"/>
-      <c r="L21" s="3"/>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M21" s="1">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C22" s="1" t="str">
-        <f>Nodes!B6</f>
-        <v>Heimdal</v>
+        <f>Nodes!B16</f>
+        <v>Intermediate 2</v>
       </c>
       <c r="D22" s="1" t="str">
-        <f>Nodes!B16</f>
-        <v>Intermediate 1</v>
+        <f>Nodes!B18</f>
+        <v>Intermediate 4</v>
       </c>
       <c r="E22" s="1">
-        <v>1000</v>
+        <f t="shared" si="0"/>
+        <v>1003</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="G22" s="1">
         <f>INDEX(Nodes!$A:$A,MATCH(Arcs!C22,Nodes!$B:$B,0))</f>
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="H22" s="1">
         <f>INDEX(Nodes!$A:$A,MATCH(Arcs!D22,Nodes!$B:$B,0))</f>
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="I22" s="2">
         <v>1</v>
@@ -5044,90 +5224,11 @@
       <c r="J22" s="3">
         <v>0</v>
       </c>
-      <c r="K22" s="2"/>
-      <c r="L22" s="3"/>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A23" s="1">
-        <v>20</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C23" s="1" t="str">
-        <f>Nodes!B17</f>
-        <v>Intermediate 2</v>
-      </c>
-      <c r="D23" s="1" t="str">
-        <f>Nodes!B21</f>
-        <v>Karstø</v>
-      </c>
-      <c r="E23" s="1">
+      <c r="M22" s="1">
         <v>1000</v>
       </c>
-      <c r="F23" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="G23" s="1">
-        <f>INDEX(Nodes!$A:$A,MATCH(Arcs!C23,Nodes!$B:$B,0))</f>
-        <v>14</v>
-      </c>
-      <c r="H23" s="1">
-        <f>INDEX(Nodes!$A:$A,MATCH(Arcs!D23,Nodes!$B:$B,0))</f>
-        <v>18</v>
-      </c>
-      <c r="I23" s="2">
-        <v>1</v>
-      </c>
-      <c r="J23" s="3">
-        <v>0</v>
-      </c>
-      <c r="K23" s="2"/>
-      <c r="L23" s="3"/>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A24" s="1">
-        <v>21</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C24" s="1" t="str">
-        <f>Nodes!B17</f>
-        <v>Intermediate 2</v>
-      </c>
-      <c r="D24" s="1" t="str">
-        <f>Nodes!B19</f>
-        <v>Intermediate 4</v>
-      </c>
-      <c r="E24" s="1">
-        <v>1000</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="G24" s="1">
-        <f>INDEX(Nodes!$A:$A,MATCH(Arcs!C24,Nodes!$B:$B,0))</f>
-        <v>14</v>
-      </c>
-      <c r="H24" s="1">
-        <f>INDEX(Nodes!$A:$A,MATCH(Arcs!D24,Nodes!$B:$B,0))</f>
-        <v>16</v>
-      </c>
-      <c r="I24" s="2">
-        <v>1</v>
-      </c>
-      <c r="J24" s="3">
-        <v>0</v>
-      </c>
-      <c r="K24" s="2"/>
-      <c r="L24" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="K1:L1"/>
-  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5156,7 +5257,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
@@ -5164,7 +5265,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>
@@ -5195,7 +5296,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
@@ -5203,7 +5304,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
     </row>
   </sheetData>

--- a/Data/FodstadData.xlsx
+++ b/Data/FodstadData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/berendmarkhorst/Library/Mobile Documents/com~apple~CloudDocs/PhD/READINESS/08 - Trondheim/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4E0EF2E-9DAC-4D40-9BFE-2844E21D69EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{058B3F4A-4767-8441-8B95-FCECC6ADABB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="51200" windowHeight="26860" activeTab="6" xr2:uid="{D82E7092-1A4C-0041-9612-C431AA3B912B}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="51200" windowHeight="26860" activeTab="4" xr2:uid="{D82E7092-1A4C-0041-9612-C431AA3B912B}"/>
   </bookViews>
   <sheets>
     <sheet name="Visualisation" sheetId="7" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="123">
   <si>
     <t>ID</t>
   </si>
@@ -400,6 +400,18 @@
   </si>
   <si>
     <t>Niet op Gassco</t>
+  </si>
+  <si>
+    <t>TSO entry costs Gas</t>
+  </si>
+  <si>
+    <t>TSO exit costs Gas</t>
+  </si>
+  <si>
+    <t>TSO entry costs Hydrogen</t>
+  </si>
+  <si>
+    <t>TSO exit costs Hydrogen</t>
   </si>
 </sst>
 </file>
@@ -499,7 +511,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -559,13 +571,44 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="2" applyBorder="1"/>
@@ -586,22 +629,19 @@
     <xf numFmtId="2" fontId="3" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1028,7 +1068,7 @@
     </row>
     <row r="2" spans="1:3" ht="68" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="str">
-        <f>Nodes!H2</f>
+        <f>Nodes!J2</f>
         <v>Production Capacity Gas</v>
       </c>
       <c r="B2" s="9" t="s">
@@ -1040,7 +1080,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="str">
-        <f>Nodes!K2</f>
+        <f>Nodes!M2</f>
         <v>Production Costs Gas</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -1050,7 +1090,7 @@
     </row>
     <row r="4" spans="1:3" ht="19" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="str">
-        <f>Nodes!L2</f>
+        <f>Nodes!N2</f>
         <v>Storage Capacity Gas</v>
       </c>
       <c r="B4" s="9" t="s">
@@ -1060,7 +1100,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="str">
-        <f>Nodes!M2</f>
+        <f>Nodes!O2</f>
         <v>Entry Storage Costs Gas</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -1070,7 +1110,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="str">
-        <f>Nodes!N2</f>
+        <f>Nodes!P2</f>
         <v>Entry Costs Gas Stage 1</v>
       </c>
       <c r="B6" s="1" t="s">
@@ -1080,7 +1120,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="str">
-        <f>Nodes!O2</f>
+        <f>Nodes!Q2</f>
         <v>Exit Costs Gas Stage 1</v>
       </c>
       <c r="B7" s="1" t="s">
@@ -1124,10 +1164,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA3F5746-A1B1-6F4F-9762-CACD4A91B5F2}">
-  <dimension ref="A1:AE23"/>
+  <dimension ref="A1:AI23"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView topLeftCell="C1" zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
+      <selection activeCell="X5" sqref="X5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1138,32 +1178,35 @@
     <col min="4" max="5" width="16.5" customWidth="1"/>
     <col min="6" max="6" width="10.6640625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="18.1640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="21.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.83203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.5" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="18.83203125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="21" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="20.83203125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="19.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="18.1640625" customWidth="1"/>
+    <col min="10" max="10" width="21.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.83203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="18.83203125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="21" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="20.83203125" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="19.6640625" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="20.83203125" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="19.6640625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="27" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="22" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="20.5" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="24.1640625" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="24" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="26.1640625" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="25.83203125" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="24.6640625" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="25.83203125" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="24.6640625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="20.83203125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="19.6640625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="23" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="21.6640625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="27" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="22" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="24.1640625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="24" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="26.1640625" bestFit="1" customWidth="1"/>
     <col min="30" max="30" width="25.83203125" bestFit="1" customWidth="1"/>
     <col min="31" max="31" width="24.6640625" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="25.83203125" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="24.6640625" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="25.83203125" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="24.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A1" s="8"/>
       <c r="B1" s="8"/>
       <c r="C1" s="8"/>
@@ -1175,34 +1218,38 @@
         <f>Commodities!B2</f>
         <v>gas</v>
       </c>
-      <c r="I1" s="17"/>
-      <c r="J1" s="17"/>
-      <c r="K1" s="17"/>
-      <c r="L1" s="17"/>
-      <c r="M1" s="17"/>
-      <c r="N1" s="17"/>
-      <c r="O1" s="17"/>
-      <c r="P1" s="17"/>
-      <c r="Q1" s="17"/>
-      <c r="R1" s="17"/>
-      <c r="S1" s="18"/>
-      <c r="T1" s="19" t="str">
+      <c r="I1" s="16"/>
+      <c r="J1" s="16"/>
+      <c r="K1" s="16"/>
+      <c r="L1" s="16"/>
+      <c r="M1" s="16"/>
+      <c r="N1" s="16"/>
+      <c r="O1" s="16"/>
+      <c r="P1" s="16"/>
+      <c r="Q1" s="16"/>
+      <c r="R1" s="16"/>
+      <c r="S1" s="16"/>
+      <c r="T1" s="16"/>
+      <c r="U1" s="17"/>
+      <c r="V1" s="18" t="str">
         <f>Commodities!B3</f>
         <v>hydrogen</v>
       </c>
-      <c r="U1" s="20"/>
-      <c r="V1" s="20"/>
-      <c r="W1" s="20"/>
-      <c r="X1" s="20"/>
-      <c r="Y1" s="20"/>
-      <c r="Z1" s="20"/>
-      <c r="AA1" s="20"/>
-      <c r="AB1" s="20"/>
-      <c r="AC1" s="20"/>
-      <c r="AD1" s="20"/>
-      <c r="AE1" s="21"/>
-    </row>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="W1" s="19"/>
+      <c r="X1" s="19"/>
+      <c r="Y1" s="19"/>
+      <c r="Z1" s="19"/>
+      <c r="AA1" s="19"/>
+      <c r="AB1" s="19"/>
+      <c r="AC1" s="19"/>
+      <c r="AD1" s="19"/>
+      <c r="AE1" s="19"/>
+      <c r="AF1" s="19"/>
+      <c r="AG1" s="19"/>
+      <c r="AH1" s="19"/>
+      <c r="AI1" s="20"/>
+    </row>
+    <row r="2" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
@@ -1221,83 +1268,95 @@
       <c r="F2" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="7" t="s">
         <v>2</v>
       </c>
       <c r="H2" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="J2" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="I2" s="5" t="s">
+      <c r="K2" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="J2" s="5" t="s">
+      <c r="L2" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="K2" s="5" t="s">
+      <c r="M2" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="L2" s="5" t="s">
+      <c r="N2" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="M2" s="5" t="s">
+      <c r="O2" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="N2" s="5" t="s">
+      <c r="P2" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="O2" s="5" t="s">
+      <c r="Q2" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="P2" s="5" t="s">
+      <c r="R2" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="Q2" s="5" t="s">
+      <c r="S2" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="R2" s="5" t="s">
+      <c r="T2" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="S2" s="5" t="s">
+      <c r="U2" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="T2" s="6" t="s">
+      <c r="V2" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="W2" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="X2" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="U2" s="6" t="s">
+      <c r="Y2" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="V2" s="6" t="s">
+      <c r="Z2" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="W2" s="6" t="s">
+      <c r="AA2" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="X2" s="6" t="s">
+      <c r="AB2" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="Y2" s="6" t="s">
+      <c r="AC2" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="Z2" s="6" t="s">
+      <c r="AD2" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="AA2" s="6" t="s">
+      <c r="AE2" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="AB2" s="6" t="s">
+      <c r="AF2" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="AC2" s="6" t="s">
+      <c r="AG2" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="AD2" s="6" t="s">
+      <c r="AH2" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="AE2" s="6" t="s">
+      <c r="AI2" s="6" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="3" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -1315,54 +1374,54 @@
       </c>
       <c r="F3" s="1"/>
       <c r="G3" s="11"/>
-      <c r="H3" s="13">
-        <f>($H$23-$H$22)/3</f>
+      <c r="H3" s="2">
+        <v>5</v>
+      </c>
+      <c r="I3" s="2">
+        <v>5</v>
+      </c>
+      <c r="J3" s="13">
+        <f>($J$23-$J$22)/3</f>
         <v>24.933333333333337</v>
       </c>
-      <c r="I3" s="13">
+      <c r="K3" s="13">
         <v>500</v>
       </c>
-      <c r="J3" s="13">
-        <v>0</v>
-      </c>
-      <c r="K3" s="2">
-        <v>1</v>
-      </c>
-      <c r="L3" s="2">
+      <c r="L3" s="13">
         <v>0</v>
       </c>
       <c r="M3" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N3" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O3" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P3" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q3" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R3" s="2">
-        <v>5</v>
+        <v>1.5</v>
       </c>
       <c r="S3" s="2">
-        <v>5</v>
-      </c>
-      <c r="T3" s="3">
-        <v>0</v>
-      </c>
-      <c r="U3" s="3">
-        <v>0</v>
+        <v>1.5</v>
+      </c>
+      <c r="T3" s="2">
+        <v>1.5</v>
+      </c>
+      <c r="U3" s="2">
+        <v>1.5</v>
       </c>
       <c r="V3" s="3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="W3" s="3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="X3" s="3">
         <v>0</v>
@@ -1388,8 +1447,20 @@
       <c r="AE3" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF3" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG3" s="3">
+        <v>0</v>
+      </c>
+      <c r="AH3" s="3">
+        <v>0</v>
+      </c>
+      <c r="AI3" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -1409,53 +1480,53 @@
       <c r="G4" t="s">
         <v>69</v>
       </c>
-      <c r="H4" s="13">
+      <c r="H4" s="2">
+        <v>5</v>
+      </c>
+      <c r="I4" s="2">
+        <v>5</v>
+      </c>
+      <c r="J4" s="13">
         <v>27</v>
       </c>
-      <c r="I4" s="13">
+      <c r="K4" s="13">
         <v>500</v>
       </c>
-      <c r="J4" s="13">
-        <v>0</v>
-      </c>
-      <c r="K4" s="2">
-        <v>1</v>
-      </c>
-      <c r="L4" s="2">
+      <c r="L4" s="13">
         <v>0</v>
       </c>
       <c r="M4" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N4" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O4" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P4" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q4" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R4" s="2">
-        <v>5</v>
+        <v>1.5</v>
       </c>
       <c r="S4" s="2">
-        <v>5</v>
-      </c>
-      <c r="T4" s="3">
-        <v>0</v>
-      </c>
-      <c r="U4" s="3">
-        <v>0</v>
+        <v>1.5</v>
+      </c>
+      <c r="T4" s="2">
+        <v>1.5</v>
+      </c>
+      <c r="U4" s="2">
+        <v>1.5</v>
       </c>
       <c r="V4" s="3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="W4" s="3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="X4" s="3">
         <v>0</v>
@@ -1481,8 +1552,20 @@
       <c r="AE4" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF4" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG4" s="3">
+        <v>0</v>
+      </c>
+      <c r="AH4" s="3">
+        <v>0</v>
+      </c>
+      <c r="AI4" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -1502,53 +1585,53 @@
       <c r="G5" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="H5" s="13">
-        <v>0</v>
-      </c>
-      <c r="I5" s="13">
+      <c r="H5" s="2">
+        <v>5</v>
+      </c>
+      <c r="I5" s="2">
+        <v>5</v>
+      </c>
+      <c r="J5" s="13">
+        <v>0</v>
+      </c>
+      <c r="K5" s="13">
         <v>500</v>
       </c>
-      <c r="J5" s="13">
-        <v>0</v>
-      </c>
-      <c r="K5" s="2">
-        <v>1</v>
-      </c>
-      <c r="L5" s="2">
+      <c r="L5" s="13">
         <v>0</v>
       </c>
       <c r="M5" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N5" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O5" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P5" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q5" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R5" s="2">
-        <v>5</v>
+        <v>1.5</v>
       </c>
       <c r="S5" s="2">
-        <v>5</v>
-      </c>
-      <c r="T5" s="3">
-        <v>0</v>
-      </c>
-      <c r="U5" s="3">
-        <v>0</v>
+        <v>1.5</v>
+      </c>
+      <c r="T5" s="2">
+        <v>1.5</v>
+      </c>
+      <c r="U5" s="2">
+        <v>1.5</v>
       </c>
       <c r="V5" s="3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="W5" s="3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="X5" s="3">
         <v>0</v>
@@ -1574,8 +1657,20 @@
       <c r="AE5" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF5" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG5" s="3">
+        <v>0</v>
+      </c>
+      <c r="AH5" s="3">
+        <v>0</v>
+      </c>
+      <c r="AI5" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -1593,54 +1688,54 @@
       </c>
       <c r="F6" s="1"/>
       <c r="G6" s="11"/>
-      <c r="H6" s="13">
-        <f>($H$23-$H$22)/3</f>
+      <c r="H6" s="2">
+        <v>5</v>
+      </c>
+      <c r="I6" s="2">
+        <v>5</v>
+      </c>
+      <c r="J6" s="13">
+        <f>($J$23-$J$22)/3</f>
         <v>24.933333333333337</v>
       </c>
-      <c r="I6" s="13">
+      <c r="K6" s="13">
         <v>500</v>
       </c>
-      <c r="J6" s="13">
-        <v>0</v>
-      </c>
-      <c r="K6" s="2">
-        <v>1</v>
-      </c>
-      <c r="L6" s="2">
+      <c r="L6" s="13">
         <v>0</v>
       </c>
       <c r="M6" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N6" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O6" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P6" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q6" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R6" s="2">
-        <v>5</v>
+        <v>1.5</v>
       </c>
       <c r="S6" s="2">
-        <v>5</v>
-      </c>
-      <c r="T6" s="3">
-        <v>0</v>
-      </c>
-      <c r="U6" s="3">
-        <v>0</v>
+        <v>1.5</v>
+      </c>
+      <c r="T6" s="2">
+        <v>1.5</v>
+      </c>
+      <c r="U6" s="2">
+        <v>1.5</v>
       </c>
       <c r="V6" s="3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="W6" s="3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="X6" s="3">
         <v>0</v>
@@ -1666,8 +1761,20 @@
       <c r="AE6" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF6" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG6" s="3">
+        <v>0</v>
+      </c>
+      <c r="AH6" s="3">
+        <v>0</v>
+      </c>
+      <c r="AI6" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -1687,53 +1794,53 @@
       <c r="G7" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="H7" s="13">
+      <c r="H7" s="2">
+        <v>5</v>
+      </c>
+      <c r="I7" s="2">
+        <v>5</v>
+      </c>
+      <c r="J7" s="13">
         <v>143</v>
       </c>
-      <c r="I7" s="13">
+      <c r="K7" s="13">
         <v>500</v>
       </c>
-      <c r="J7" s="13">
-        <v>0</v>
-      </c>
-      <c r="K7" s="2">
-        <v>1</v>
-      </c>
-      <c r="L7" s="2">
+      <c r="L7" s="13">
         <v>0</v>
       </c>
       <c r="M7" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N7" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O7" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P7" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q7" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R7" s="2">
-        <v>5</v>
+        <v>1.5</v>
       </c>
       <c r="S7" s="2">
-        <v>5</v>
-      </c>
-      <c r="T7" s="3">
-        <v>0</v>
-      </c>
-      <c r="U7" s="3">
-        <v>0</v>
+        <v>1.5</v>
+      </c>
+      <c r="T7" s="2">
+        <v>1.5</v>
+      </c>
+      <c r="U7" s="2">
+        <v>1.5</v>
       </c>
       <c r="V7" s="3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="W7" s="3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="X7" s="3">
         <v>0</v>
@@ -1759,8 +1866,20 @@
       <c r="AE7" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF7" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG7" s="3">
+        <v>0</v>
+      </c>
+      <c r="AH7" s="3">
+        <v>0</v>
+      </c>
+      <c r="AI7" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -1778,53 +1897,53 @@
       </c>
       <c r="F8" s="1"/>
       <c r="G8" s="11"/>
-      <c r="H8" s="13">
+      <c r="H8" s="2">
+        <v>5</v>
+      </c>
+      <c r="I8" s="2">
+        <v>5</v>
+      </c>
+      <c r="J8" s="13">
         <v>84</v>
       </c>
-      <c r="I8" s="13">
+      <c r="K8" s="13">
         <v>500</v>
       </c>
-      <c r="J8" s="13">
-        <v>0</v>
-      </c>
-      <c r="K8" s="2">
-        <v>1</v>
-      </c>
-      <c r="L8" s="2">
+      <c r="L8" s="13">
         <v>0</v>
       </c>
       <c r="M8" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N8" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O8" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P8" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q8" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R8" s="2">
-        <v>5</v>
+        <v>1.5</v>
       </c>
       <c r="S8" s="2">
-        <v>5</v>
-      </c>
-      <c r="T8" s="3">
-        <v>0</v>
-      </c>
-      <c r="U8" s="3">
-        <v>0</v>
+        <v>1.5</v>
+      </c>
+      <c r="T8" s="2">
+        <v>1.5</v>
+      </c>
+      <c r="U8" s="2">
+        <v>1.5</v>
       </c>
       <c r="V8" s="3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="W8" s="3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="X8" s="3">
         <v>0</v>
@@ -1850,8 +1969,20 @@
       <c r="AE8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF8" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG8" s="3">
+        <v>0</v>
+      </c>
+      <c r="AH8" s="3">
+        <v>0</v>
+      </c>
+      <c r="AI8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1869,54 +2000,54 @@
       </c>
       <c r="F9" s="1"/>
       <c r="G9" s="11"/>
-      <c r="H9" s="13">
-        <f>($H$23-$H$22)/3</f>
+      <c r="H9" s="2">
+        <v>5</v>
+      </c>
+      <c r="I9" s="2">
+        <v>5</v>
+      </c>
+      <c r="J9" s="13">
+        <f>($J$23-$J$22)/3</f>
         <v>24.933333333333337</v>
       </c>
-      <c r="I9" s="13">
+      <c r="K9" s="13">
         <v>500</v>
       </c>
-      <c r="J9" s="13">
-        <v>0</v>
-      </c>
-      <c r="K9" s="2">
-        <v>1</v>
-      </c>
-      <c r="L9" s="2">
+      <c r="L9" s="13">
         <v>0</v>
       </c>
       <c r="M9" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N9" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O9" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P9" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q9" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R9" s="2">
-        <v>5</v>
+        <v>1.5</v>
       </c>
       <c r="S9" s="2">
-        <v>5</v>
-      </c>
-      <c r="T9" s="3">
-        <v>0</v>
-      </c>
-      <c r="U9" s="3">
-        <v>0</v>
+        <v>1.5</v>
+      </c>
+      <c r="T9" s="2">
+        <v>1.5</v>
+      </c>
+      <c r="U9" s="2">
+        <v>1.5</v>
       </c>
       <c r="V9" s="3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="W9" s="3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="X9" s="3">
         <v>0</v>
@@ -1942,8 +2073,20 @@
       <c r="AE9" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF9" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG9" s="3">
+        <v>0</v>
+      </c>
+      <c r="AH9" s="3">
+        <v>0</v>
+      </c>
+      <c r="AI9" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1963,53 +2106,53 @@
       <c r="G10" t="s">
         <v>68</v>
       </c>
-      <c r="H10" s="13">
+      <c r="H10" s="2">
+        <v>5</v>
+      </c>
+      <c r="I10" s="2">
+        <v>5</v>
+      </c>
+      <c r="J10" s="13">
         <v>21.2</v>
       </c>
-      <c r="I10" s="13">
+      <c r="K10" s="13">
         <v>500</v>
       </c>
-      <c r="J10" s="13">
-        <v>0</v>
-      </c>
-      <c r="K10" s="2">
-        <v>1</v>
-      </c>
-      <c r="L10" s="2">
+      <c r="L10" s="13">
         <v>0</v>
       </c>
       <c r="M10" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N10" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O10" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P10" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q10" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R10" s="2">
-        <v>5</v>
+        <v>1.5</v>
       </c>
       <c r="S10" s="2">
-        <v>5</v>
-      </c>
-      <c r="T10" s="3">
-        <v>0</v>
-      </c>
-      <c r="U10" s="3">
-        <v>0</v>
+        <v>1.5</v>
+      </c>
+      <c r="T10" s="2">
+        <v>1.5</v>
+      </c>
+      <c r="U10" s="2">
+        <v>1.5</v>
       </c>
       <c r="V10" s="3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="W10" s="3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="X10" s="3">
         <v>0</v>
@@ -2035,8 +2178,20 @@
       <c r="AE10" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF10" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG10" s="3">
+        <v>0</v>
+      </c>
+      <c r="AH10" s="3">
+        <v>0</v>
+      </c>
+      <c r="AI10" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -2055,76 +2210,76 @@
       <c r="F11" s="1"/>
       <c r="G11" s="11"/>
       <c r="H11" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I11" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J11" s="2">
+        <v>0</v>
+      </c>
+      <c r="K11" s="2">
+        <v>0</v>
+      </c>
+      <c r="L11" s="2">
         <v>500</v>
       </c>
-      <c r="K11" s="2">
-        <v>1</v>
-      </c>
-      <c r="L11" s="2">
-        <v>0</v>
-      </c>
       <c r="M11" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N11" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O11" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P11" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q11" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R11" s="2">
-        <v>5</v>
+        <v>1.5</v>
       </c>
       <c r="S11" s="2">
-        <v>5</v>
-      </c>
-      <c r="T11" s="3">
-        <f t="shared" ref="T11:T20" si="0">H11</f>
-        <v>0</v>
-      </c>
-      <c r="U11" s="3">
-        <f t="shared" ref="U11:U20" si="1">K11</f>
-        <v>1</v>
+        <v>1.5</v>
+      </c>
+      <c r="T11" s="2">
+        <v>1.5</v>
+      </c>
+      <c r="U11" s="2">
+        <v>1.5</v>
       </c>
       <c r="V11" s="3">
-        <f t="shared" ref="V11:V20" si="2">L11</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="W11" s="3">
-        <f t="shared" ref="W11:W20" si="3">M11</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="X11" s="3">
-        <f t="shared" ref="X11:X20" si="4">N11</f>
-        <v>1</v>
+        <f t="shared" ref="X11:X20" si="0">J11</f>
+        <v>0</v>
       </c>
       <c r="Y11" s="3">
-        <f t="shared" ref="Y11:Y20" si="5">O11</f>
+        <f t="shared" ref="Y11:Y20" si="1">M11</f>
         <v>1</v>
       </c>
       <c r="Z11" s="3">
+        <f t="shared" ref="Z11:Z20" si="2">N11</f>
         <v>0</v>
       </c>
       <c r="AA11" s="3">
+        <f t="shared" ref="AA11:AA20" si="3">O11</f>
         <v>0</v>
       </c>
       <c r="AB11" s="3">
-        <v>0</v>
+        <f t="shared" ref="AB11:AB20" si="4">P11</f>
+        <v>1</v>
       </c>
       <c r="AC11" s="3">
-        <v>0</v>
+        <f t="shared" ref="AC11:AC20" si="5">Q11</f>
+        <v>1</v>
       </c>
       <c r="AD11" s="3">
         <v>0</v>
@@ -2132,8 +2287,20 @@
       <c r="AE11" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF11" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG11" s="3">
+        <v>0</v>
+      </c>
+      <c r="AH11" s="3">
+        <v>0</v>
+      </c>
+      <c r="AI11" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -2150,87 +2317,99 @@
         <v>15</v>
       </c>
       <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
+      <c r="G12" s="11"/>
       <c r="H12" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I12" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J12" s="2">
+        <v>0</v>
+      </c>
+      <c r="K12" s="2">
+        <v>0</v>
+      </c>
+      <c r="L12" s="2">
         <v>500</v>
       </c>
-      <c r="K12" s="2">
-        <v>1</v>
-      </c>
-      <c r="L12" s="2">
-        <v>0</v>
-      </c>
       <c r="M12" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N12" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O12" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P12" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q12" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R12" s="2">
-        <v>5</v>
+        <v>1.5</v>
       </c>
       <c r="S12" s="2">
-        <v>5</v>
-      </c>
-      <c r="T12" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="T12" s="2">
+        <v>1.5</v>
+      </c>
+      <c r="U12" s="2">
+        <v>1.5</v>
+      </c>
+      <c r="V12" s="3">
+        <v>5</v>
+      </c>
+      <c r="W12" s="3">
+        <v>5</v>
+      </c>
+      <c r="X12" s="3">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="U12" s="3">
+      <c r="Y12" s="3">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="V12" s="3">
+      <c r="Z12" s="3">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="W12" s="3">
+      <c r="AA12" s="3">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="X12" s="3">
+      <c r="AB12" s="3">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="Y12" s="3">
+      <c r="AC12" s="3">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="Z12" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA12" s="3">
-        <v>0</v>
-      </c>
-      <c r="AB12" s="3">
-        <v>0</v>
-      </c>
-      <c r="AC12" s="3">
-        <v>0</v>
-      </c>
       <c r="AD12" s="3">
         <v>0</v>
       </c>
       <c r="AE12" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF12" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG12" s="3">
+        <v>0</v>
+      </c>
+      <c r="AH12" s="3">
+        <v>0</v>
+      </c>
+      <c r="AI12" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -2247,87 +2426,99 @@
         <v>10</v>
       </c>
       <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
+      <c r="G13" s="11"/>
       <c r="H13" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I13" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J13" s="2">
+        <v>0</v>
+      </c>
+      <c r="K13" s="2">
+        <v>0</v>
+      </c>
+      <c r="L13" s="2">
         <v>500</v>
       </c>
-      <c r="K13" s="2">
-        <v>1</v>
-      </c>
-      <c r="L13" s="2">
-        <v>0</v>
-      </c>
       <c r="M13" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N13" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O13" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P13" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q13" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R13" s="2">
-        <v>5</v>
+        <v>1.5</v>
       </c>
       <c r="S13" s="2">
-        <v>5</v>
-      </c>
-      <c r="T13" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="T13" s="2">
+        <v>1.5</v>
+      </c>
+      <c r="U13" s="2">
+        <v>1.5</v>
+      </c>
+      <c r="V13" s="3">
+        <v>5</v>
+      </c>
+      <c r="W13" s="3">
+        <v>5</v>
+      </c>
+      <c r="X13" s="3">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="U13" s="3">
+      <c r="Y13" s="3">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="V13" s="3">
+      <c r="Z13" s="3">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="W13" s="3">
+      <c r="AA13" s="3">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="X13" s="3">
+      <c r="AB13" s="3">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="Y13" s="3">
+      <c r="AC13" s="3">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="Z13" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA13" s="3">
-        <v>0</v>
-      </c>
-      <c r="AB13" s="3">
-        <v>0</v>
-      </c>
-      <c r="AC13" s="3">
-        <v>0</v>
-      </c>
       <c r="AD13" s="3">
         <v>0</v>
       </c>
       <c r="AE13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AH13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AI13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -2344,87 +2535,99 @@
         <v>5</v>
       </c>
       <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
+      <c r="G14" s="11"/>
       <c r="H14" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I14" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J14" s="2">
+        <v>0</v>
+      </c>
+      <c r="K14" s="2">
+        <v>0</v>
+      </c>
+      <c r="L14" s="2">
         <v>500</v>
       </c>
-      <c r="K14" s="2">
-        <v>1</v>
-      </c>
-      <c r="L14" s="2">
-        <v>0</v>
-      </c>
       <c r="M14" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N14" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O14" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P14" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q14" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R14" s="2">
-        <v>5</v>
+        <v>1.5</v>
       </c>
       <c r="S14" s="2">
-        <v>5</v>
-      </c>
-      <c r="T14" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="T14" s="2">
+        <v>1.5</v>
+      </c>
+      <c r="U14" s="2">
+        <v>1.5</v>
+      </c>
+      <c r="V14" s="3">
+        <v>5</v>
+      </c>
+      <c r="W14" s="3">
+        <v>5</v>
+      </c>
+      <c r="X14" s="3">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="U14" s="3">
+      <c r="Y14" s="3">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="V14" s="3">
+      <c r="Z14" s="3">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="W14" s="3">
+      <c r="AA14" s="3">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="X14" s="3">
+      <c r="AB14" s="3">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="Y14" s="3">
+      <c r="AC14" s="3">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="Z14" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA14" s="3">
-        <v>0</v>
-      </c>
-      <c r="AB14" s="3">
-        <v>0</v>
-      </c>
-      <c r="AC14" s="3">
-        <v>0</v>
-      </c>
       <c r="AD14" s="3">
         <v>0</v>
       </c>
       <c r="AE14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AH14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AI14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -2443,87 +2646,99 @@
       <c r="F15" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="G15" s="1"/>
+      <c r="G15" s="11"/>
       <c r="H15" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I15" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J15" s="2">
         <v>0</v>
       </c>
       <c r="K15" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L15" s="2">
         <v>0</v>
       </c>
       <c r="M15" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N15" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O15" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P15" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q15" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R15" s="2">
-        <v>5</v>
+        <v>1.5</v>
       </c>
       <c r="S15" s="2">
-        <v>5</v>
-      </c>
-      <c r="T15" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="T15" s="2">
+        <v>1.5</v>
+      </c>
+      <c r="U15" s="2">
+        <v>1.5</v>
+      </c>
+      <c r="V15" s="3">
+        <v>5</v>
+      </c>
+      <c r="W15" s="3">
+        <v>5</v>
+      </c>
+      <c r="X15" s="3">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="U15" s="3">
+      <c r="Y15" s="3">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="V15" s="3">
+      <c r="Z15" s="3">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="W15" s="3">
+      <c r="AA15" s="3">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="X15" s="3">
+      <c r="AB15" s="3">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="Y15" s="3">
+      <c r="AC15" s="3">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="Z15" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA15" s="3">
-        <v>0</v>
-      </c>
-      <c r="AB15" s="3">
-        <v>0</v>
-      </c>
-      <c r="AC15" s="3">
-        <v>0</v>
-      </c>
       <c r="AD15" s="3">
         <v>0</v>
       </c>
       <c r="AE15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF15" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG15" s="3">
+        <v>0</v>
+      </c>
+      <c r="AH15" s="3">
+        <v>0</v>
+      </c>
+      <c r="AI15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -2542,87 +2757,99 @@
       <c r="F16" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="G16" s="1"/>
+      <c r="G16" s="11"/>
       <c r="H16" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I16" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J16" s="2">
         <v>0</v>
       </c>
       <c r="K16" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L16" s="2">
         <v>0</v>
       </c>
       <c r="M16" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N16" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O16" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P16" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q16" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R16" s="2">
-        <v>5</v>
+        <v>1.5</v>
       </c>
       <c r="S16" s="2">
-        <v>5</v>
-      </c>
-      <c r="T16" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="T16" s="2">
+        <v>1.5</v>
+      </c>
+      <c r="U16" s="2">
+        <v>1.5</v>
+      </c>
+      <c r="V16" s="3">
+        <v>5</v>
+      </c>
+      <c r="W16" s="3">
+        <v>5</v>
+      </c>
+      <c r="X16" s="3">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="U16" s="3">
+      <c r="Y16" s="3">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="V16" s="3">
+      <c r="Z16" s="3">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="W16" s="3">
+      <c r="AA16" s="3">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="X16" s="3">
+      <c r="AB16" s="3">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="Y16" s="3">
+      <c r="AC16" s="3">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="Z16" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA16" s="3">
-        <v>0</v>
-      </c>
-      <c r="AB16" s="3">
-        <v>0</v>
-      </c>
-      <c r="AC16" s="3">
-        <v>0</v>
-      </c>
       <c r="AD16" s="3">
         <v>0</v>
       </c>
       <c r="AE16" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF16" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG16" s="3">
+        <v>0</v>
+      </c>
+      <c r="AH16" s="3">
+        <v>0</v>
+      </c>
+      <c r="AI16" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -2641,87 +2868,99 @@
       <c r="F17" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="G17" s="1"/>
+      <c r="G17" s="11"/>
       <c r="H17" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I17" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J17" s="2">
         <v>0</v>
       </c>
       <c r="K17" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L17" s="2">
         <v>0</v>
       </c>
       <c r="M17" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N17" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O17" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P17" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q17" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R17" s="2">
-        <v>5</v>
+        <v>1.5</v>
       </c>
       <c r="S17" s="2">
-        <v>5</v>
-      </c>
-      <c r="T17" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="T17" s="2">
+        <v>1.5</v>
+      </c>
+      <c r="U17" s="2">
+        <v>1.5</v>
+      </c>
+      <c r="V17" s="3">
+        <v>5</v>
+      </c>
+      <c r="W17" s="3">
+        <v>5</v>
+      </c>
+      <c r="X17" s="3">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="U17" s="3">
+      <c r="Y17" s="3">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="V17" s="3">
+      <c r="Z17" s="3">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="W17" s="3">
+      <c r="AA17" s="3">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="X17" s="3">
+      <c r="AB17" s="3">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="AC17" s="3">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="Z17" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA17" s="3">
-        <v>0</v>
-      </c>
-      <c r="AB17" s="3">
-        <v>0</v>
-      </c>
-      <c r="AC17" s="3">
-        <v>0</v>
-      </c>
       <c r="AD17" s="3">
         <v>0</v>
       </c>
       <c r="AE17" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF17" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG17" s="3">
+        <v>0</v>
+      </c>
+      <c r="AH17" s="3">
+        <v>0</v>
+      </c>
+      <c r="AI17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -2740,87 +2979,99 @@
       <c r="F18" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="G18" s="1"/>
+      <c r="G18" s="11"/>
       <c r="H18" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I18" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J18" s="2">
         <v>0</v>
       </c>
       <c r="K18" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L18" s="2">
         <v>0</v>
       </c>
       <c r="M18" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N18" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O18" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P18" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q18" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R18" s="2">
-        <v>5</v>
+        <v>1.5</v>
       </c>
       <c r="S18" s="2">
-        <v>5</v>
-      </c>
-      <c r="T18" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="T18" s="2">
+        <v>1.5</v>
+      </c>
+      <c r="U18" s="2">
+        <v>1.5</v>
+      </c>
+      <c r="V18" s="3">
+        <v>5</v>
+      </c>
+      <c r="W18" s="3">
+        <v>5</v>
+      </c>
+      <c r="X18" s="3">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="U18" s="3">
+      <c r="Y18" s="3">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="V18" s="3">
+      <c r="Z18" s="3">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="W18" s="3">
+      <c r="AA18" s="3">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="X18" s="3">
+      <c r="AB18" s="3">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="AC18" s="3">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="Z18" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA18" s="3">
-        <v>0</v>
-      </c>
-      <c r="AB18" s="3">
-        <v>0</v>
-      </c>
-      <c r="AC18" s="3">
-        <v>0</v>
-      </c>
       <c r="AD18" s="3">
         <v>0</v>
       </c>
       <c r="AE18" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF18" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG18" s="3">
+        <v>0</v>
+      </c>
+      <c r="AH18" s="3">
+        <v>0</v>
+      </c>
+      <c r="AI18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -2839,87 +3090,99 @@
       <c r="F19" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="G19" s="1"/>
+      <c r="G19" s="11"/>
       <c r="H19" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I19" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J19" s="2">
         <v>0</v>
       </c>
       <c r="K19" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L19" s="2">
         <v>0</v>
       </c>
       <c r="M19" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N19" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O19" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P19" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q19" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R19" s="2">
-        <v>5</v>
+        <v>1.5</v>
       </c>
       <c r="S19" s="2">
-        <v>5</v>
-      </c>
-      <c r="T19" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="T19" s="2">
+        <v>1.5</v>
+      </c>
+      <c r="U19" s="2">
+        <v>1.5</v>
+      </c>
+      <c r="V19" s="3">
+        <v>5</v>
+      </c>
+      <c r="W19" s="3">
+        <v>5</v>
+      </c>
+      <c r="X19" s="3">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="U19" s="3">
+      <c r="Y19" s="3">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="V19" s="3">
+      <c r="Z19" s="3">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="W19" s="3">
+      <c r="AA19" s="3">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="X19" s="3">
+      <c r="AB19" s="3">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="Y19" s="3">
+      <c r="AC19" s="3">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="Z19" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA19" s="3">
-        <v>0</v>
-      </c>
-      <c r="AB19" s="3">
-        <v>0</v>
-      </c>
-      <c r="AC19" s="3">
-        <v>0</v>
-      </c>
       <c r="AD19" s="3">
         <v>0</v>
       </c>
       <c r="AE19" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF19" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG19" s="3">
+        <v>0</v>
+      </c>
+      <c r="AH19" s="3">
+        <v>0</v>
+      </c>
+      <c r="AI19" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -2936,107 +3199,119 @@
         <v>25</v>
       </c>
       <c r="F20" s="1"/>
-      <c r="G20" s="1"/>
+      <c r="G20" s="11"/>
       <c r="H20" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I20" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J20" s="2">
         <v>0</v>
       </c>
       <c r="K20" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L20" s="2">
         <v>0</v>
       </c>
       <c r="M20" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N20" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O20" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P20" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q20" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R20" s="2">
-        <v>5</v>
+        <v>1.5</v>
       </c>
       <c r="S20" s="2">
-        <v>5</v>
-      </c>
-      <c r="T20" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="T20" s="2">
+        <v>1.5</v>
+      </c>
+      <c r="U20" s="2">
+        <v>1.5</v>
+      </c>
+      <c r="V20" s="3">
+        <v>5</v>
+      </c>
+      <c r="W20" s="3">
+        <v>5</v>
+      </c>
+      <c r="X20" s="3">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="U20" s="3">
+      <c r="Y20" s="3">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="V20" s="3">
+      <c r="Z20" s="3">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="W20" s="3">
+      <c r="AA20" s="3">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="X20" s="3">
+      <c r="AB20" s="3">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="AC20" s="3">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="Z20" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA20" s="3">
-        <v>0</v>
-      </c>
-      <c r="AB20" s="3">
-        <v>0</v>
-      </c>
-      <c r="AC20" s="3">
-        <v>0</v>
-      </c>
       <c r="AD20" s="3">
         <v>0</v>
       </c>
       <c r="AE20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF20" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG20" s="3">
+        <v>0</v>
+      </c>
+      <c r="AH20" s="3">
+        <v>0</v>
+      </c>
+      <c r="AI20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:35" x14ac:dyDescent="0.2">
       <c r="G22" t="s">
         <v>71</v>
       </c>
-      <c r="H22">
-        <f>SUM(H10+H8+H7+H5+H4)</f>
+      <c r="J22">
+        <f>SUM(J10+J8+J7+J5+J4)</f>
         <v>275.2</v>
       </c>
     </row>
-    <row r="23" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:35" x14ac:dyDescent="0.2">
       <c r="G23" t="s">
         <v>70</v>
       </c>
-      <c r="H23">
+      <c r="J23">
         <v>350</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="H1:S1"/>
-    <mergeCell ref="T1:AE1"/>
+    <mergeCell ref="H1:U1"/>
+    <mergeCell ref="V1:AI1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3048,7 +3323,7 @@
   <dimension ref="A1:I30"/>
   <sheetViews>
     <sheetView zoomScale="125" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
+      <selection activeCell="B2" sqref="B2:I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3062,46 +3337,47 @@
       <c r="A1" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="B1" s="24">
-        <v>1</v>
-      </c>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
-      <c r="H1" s="24"/>
-      <c r="I1" s="24"/>
+      <c r="B1" s="23">
+        <f>Parameters!B5+1</f>
+        <v>2</v>
+      </c>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="23"/>
+      <c r="I1" s="23"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="B2" s="24">
-        <v>1</v>
-      </c>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
-      <c r="F2" s="24"/>
-      <c r="G2" s="24"/>
-      <c r="H2" s="24"/>
-      <c r="I2" s="24"/>
+      <c r="B2" s="23">
+        <v>1</v>
+      </c>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="23"/>
+      <c r="G2" s="23"/>
+      <c r="H2" s="23"/>
+      <c r="I2" s="23"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="4"/>
-      <c r="B3" s="22" t="s">
+      <c r="B3" s="21" t="s">
         <v>73</v>
       </c>
-      <c r="C3" s="22"/>
-      <c r="D3" s="22"/>
-      <c r="E3" s="22"/>
-      <c r="F3" s="23" t="s">
+      <c r="C3" s="21"/>
+      <c r="D3" s="21"/>
+      <c r="E3" s="21"/>
+      <c r="F3" s="22" t="s">
         <v>74</v>
       </c>
-      <c r="G3" s="23"/>
-      <c r="H3" s="23"/>
-      <c r="I3" s="23"/>
+      <c r="G3" s="22"/>
+      <c r="H3" s="22"/>
+      <c r="I3" s="22"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
@@ -3489,8 +3765,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B7506CF-850A-ED42-956F-025E5A994524}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
-    <sheetView zoomScale="113" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="N10" sqref="N10"/>
+    <sheetView tabSelected="1" zoomScale="113" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="R3" sqref="R3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3504,105 +3780,107 @@
       <c r="A1" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="B1" s="24">
-        <v>2</v>
-      </c>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
-      <c r="H1" s="24"/>
-      <c r="I1" s="24"/>
-      <c r="J1" s="24">
+      <c r="B1" s="23">
+        <f>Parameters!B5*(1+Parameters!B6)+1</f>
         <v>3</v>
       </c>
-      <c r="K1" s="24"/>
-      <c r="L1" s="24"/>
-      <c r="M1" s="24"/>
-      <c r="N1" s="24"/>
-      <c r="O1" s="24"/>
-      <c r="P1" s="24"/>
-      <c r="Q1" s="24"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="23"/>
+      <c r="I1" s="23"/>
+      <c r="J1" s="23">
+        <f>B1+Parameters!B5+1</f>
+        <v>5</v>
+      </c>
+      <c r="K1" s="23"/>
+      <c r="L1" s="23"/>
+      <c r="M1" s="23"/>
+      <c r="N1" s="23"/>
+      <c r="O1" s="23"/>
+      <c r="P1" s="23"/>
+      <c r="Q1" s="23"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="B2" s="24">
+      <c r="B2" s="23">
         <v>0.5</v>
       </c>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
-      <c r="F2" s="24"/>
-      <c r="G2" s="24"/>
-      <c r="H2" s="24"/>
-      <c r="I2" s="24"/>
-      <c r="J2" s="24">
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="23"/>
+      <c r="G2" s="23"/>
+      <c r="H2" s="23"/>
+      <c r="I2" s="23"/>
+      <c r="J2" s="23">
         <v>0.5</v>
       </c>
-      <c r="K2" s="24"/>
-      <c r="L2" s="24"/>
-      <c r="M2" s="24"/>
-      <c r="N2" s="24"/>
-      <c r="O2" s="24"/>
-      <c r="P2" s="24"/>
-      <c r="Q2" s="24"/>
+      <c r="K2" s="23"/>
+      <c r="L2" s="23"/>
+      <c r="M2" s="23"/>
+      <c r="N2" s="23"/>
+      <c r="O2" s="23"/>
+      <c r="P2" s="23"/>
+      <c r="Q2" s="23"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="B3" s="25">
-        <v>1</v>
-      </c>
-      <c r="C3" s="26"/>
-      <c r="D3" s="26"/>
-      <c r="E3" s="26"/>
-      <c r="F3" s="26"/>
-      <c r="G3" s="26"/>
-      <c r="H3" s="26"/>
-      <c r="I3" s="27"/>
-      <c r="J3" s="25">
-        <v>1</v>
-      </c>
-      <c r="K3" s="26"/>
-      <c r="L3" s="26"/>
-      <c r="M3" s="26"/>
-      <c r="N3" s="26"/>
-      <c r="O3" s="26"/>
-      <c r="P3" s="26"/>
-      <c r="Q3" s="27"/>
+      <c r="B3" s="24">
+        <v>2</v>
+      </c>
+      <c r="C3" s="25"/>
+      <c r="D3" s="25"/>
+      <c r="E3" s="25"/>
+      <c r="F3" s="25"/>
+      <c r="G3" s="25"/>
+      <c r="H3" s="25"/>
+      <c r="I3" s="26"/>
+      <c r="J3" s="24">
+        <v>2</v>
+      </c>
+      <c r="K3" s="25"/>
+      <c r="L3" s="25"/>
+      <c r="M3" s="25"/>
+      <c r="N3" s="25"/>
+      <c r="O3" s="25"/>
+      <c r="P3" s="25"/>
+      <c r="Q3" s="26"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A4" s="4"/>
-      <c r="B4" s="22" t="s">
+      <c r="B4" s="21" t="s">
         <v>73</v>
       </c>
-      <c r="C4" s="22"/>
-      <c r="D4" s="22"/>
-      <c r="E4" s="22"/>
-      <c r="F4" s="23" t="s">
+      <c r="C4" s="21"/>
+      <c r="D4" s="21"/>
+      <c r="E4" s="21"/>
+      <c r="F4" s="22" t="s">
         <v>74</v>
       </c>
-      <c r="G4" s="23"/>
-      <c r="H4" s="23"/>
-      <c r="I4" s="23"/>
-      <c r="J4" s="22" t="str">
+      <c r="G4" s="22"/>
+      <c r="H4" s="22"/>
+      <c r="I4" s="22"/>
+      <c r="J4" s="21" t="str">
         <f>B4</f>
         <v>gas or mix</v>
       </c>
-      <c r="K4" s="22"/>
-      <c r="L4" s="22"/>
-      <c r="M4" s="22"/>
-      <c r="N4" s="23" t="str">
+      <c r="K4" s="21"/>
+      <c r="L4" s="21"/>
+      <c r="M4" s="21"/>
+      <c r="N4" s="22" t="str">
         <f>F4</f>
         <v>pure hydrogen</v>
       </c>
-      <c r="O4" s="23"/>
-      <c r="P4" s="23"/>
-      <c r="Q4" s="23"/>
+      <c r="O4" s="22"/>
+      <c r="P4" s="22"/>
+      <c r="Q4" s="22"/>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
@@ -4245,7 +4523,7 @@
   <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4334,8 +4612,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2902688A-D2A3-854F-B341-C0BEC53AF991}">
   <dimension ref="A1:N22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:E22"/>
+    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="N22" sqref="N22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/Data/FodstadData.xlsx
+++ b/Data/FodstadData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/berendmarkhorst/Library/Mobile Documents/com~apple~CloudDocs/PhD/READINESS/08 - Trondheim/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{529CEA1A-A544-034F-873D-BB0A77BCB847}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D38EB058-2698-A943-89DA-BBF6652BB1E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="51200" windowHeight="26860" activeTab="9" xr2:uid="{D82E7092-1A4C-0041-9612-C431AA3B912B}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="51200" windowHeight="26860" activeTab="2" xr2:uid="{D82E7092-1A4C-0041-9612-C431AA3B912B}"/>
   </bookViews>
   <sheets>
     <sheet name="Visualisation" sheetId="7" r:id="rId1"/>
@@ -699,7 +699,7 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="2" applyBorder="1"/>
@@ -724,6 +724,18 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="2" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -739,13 +751,22 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -757,33 +778,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Goed" xfId="1" builtinId="26"/>
@@ -1166,7 +1163,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F599A445-15C0-AB40-A0A7-7DAECA950535}">
   <dimension ref="A1:B13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+    <sheetView zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
@@ -1431,8 +1428,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA3F5746-A1B1-6F4F-9762-CACD4A91B5F2}">
   <dimension ref="A1:AI23"/>
   <sheetViews>
-    <sheetView zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15:B20"/>
+    <sheetView tabSelected="1" topLeftCell="K1" zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
+      <selection activeCell="U19" sqref="U19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1479,40 +1476,40 @@
       <c r="E1" s="8"/>
       <c r="F1" s="8"/>
       <c r="G1" s="8"/>
-      <c r="H1" s="20" t="str">
+      <c r="H1" s="28" t="str">
         <f>Commodities!B2</f>
         <v>gas</v>
       </c>
-      <c r="I1" s="20"/>
-      <c r="J1" s="20"/>
-      <c r="K1" s="20"/>
-      <c r="L1" s="20"/>
-      <c r="M1" s="20"/>
-      <c r="N1" s="20"/>
-      <c r="O1" s="20"/>
-      <c r="P1" s="20"/>
-      <c r="Q1" s="20"/>
-      <c r="R1" s="20"/>
-      <c r="S1" s="20"/>
-      <c r="T1" s="20"/>
-      <c r="U1" s="21"/>
-      <c r="V1" s="22" t="str">
+      <c r="I1" s="28"/>
+      <c r="J1" s="28"/>
+      <c r="K1" s="28"/>
+      <c r="L1" s="28"/>
+      <c r="M1" s="28"/>
+      <c r="N1" s="28"/>
+      <c r="O1" s="28"/>
+      <c r="P1" s="28"/>
+      <c r="Q1" s="28"/>
+      <c r="R1" s="28"/>
+      <c r="S1" s="28"/>
+      <c r="T1" s="28"/>
+      <c r="U1" s="29"/>
+      <c r="V1" s="30" t="str">
         <f>Commodities!B3</f>
         <v>hydrogen</v>
       </c>
-      <c r="W1" s="23"/>
-      <c r="X1" s="23"/>
-      <c r="Y1" s="23"/>
-      <c r="Z1" s="23"/>
-      <c r="AA1" s="23"/>
-      <c r="AB1" s="23"/>
-      <c r="AC1" s="23"/>
-      <c r="AD1" s="23"/>
-      <c r="AE1" s="23"/>
-      <c r="AF1" s="23"/>
-      <c r="AG1" s="23"/>
-      <c r="AH1" s="23"/>
-      <c r="AI1" s="24"/>
+      <c r="W1" s="31"/>
+      <c r="X1" s="31"/>
+      <c r="Y1" s="31"/>
+      <c r="Z1" s="31"/>
+      <c r="AA1" s="31"/>
+      <c r="AB1" s="31"/>
+      <c r="AC1" s="31"/>
+      <c r="AD1" s="31"/>
+      <c r="AE1" s="31"/>
+      <c r="AF1" s="31"/>
+      <c r="AG1" s="31"/>
+      <c r="AH1" s="31"/>
+      <c r="AI1" s="32"/>
     </row>
     <row r="2" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
@@ -1671,16 +1668,16 @@
         <v>1</v>
       </c>
       <c r="R3" s="2">
-        <v>1.5</v>
+        <v>0.2</v>
       </c>
       <c r="S3" s="2">
-        <v>1.5</v>
+        <v>0.2</v>
       </c>
       <c r="T3" s="2">
-        <v>1.5</v>
+        <v>0.3</v>
       </c>
       <c r="U3" s="2">
-        <v>1.5</v>
+        <v>0.3</v>
       </c>
       <c r="V3" s="3">
         <v>5</v>
@@ -1776,16 +1773,16 @@
         <v>1</v>
       </c>
       <c r="R4" s="2">
-        <v>1.5</v>
+        <v>0.2</v>
       </c>
       <c r="S4" s="2">
-        <v>1.5</v>
+        <v>0.2</v>
       </c>
       <c r="T4" s="2">
-        <v>1.5</v>
+        <v>0.3</v>
       </c>
       <c r="U4" s="2">
-        <v>1.5</v>
+        <v>0.3</v>
       </c>
       <c r="V4" s="3">
         <v>5</v>
@@ -1881,16 +1878,16 @@
         <v>1</v>
       </c>
       <c r="R5" s="2">
-        <v>1.5</v>
+        <v>0.2</v>
       </c>
       <c r="S5" s="2">
-        <v>1.5</v>
+        <v>0.2</v>
       </c>
       <c r="T5" s="2">
-        <v>1.5</v>
+        <v>0.3</v>
       </c>
       <c r="U5" s="2">
-        <v>1.5</v>
+        <v>0.3</v>
       </c>
       <c r="V5" s="3">
         <v>5</v>
@@ -1985,16 +1982,16 @@
         <v>1</v>
       </c>
       <c r="R6" s="2">
-        <v>1.5</v>
+        <v>0.2</v>
       </c>
       <c r="S6" s="2">
-        <v>1.5</v>
+        <v>0.2</v>
       </c>
       <c r="T6" s="2">
-        <v>1.5</v>
+        <v>0.3</v>
       </c>
       <c r="U6" s="2">
-        <v>1.5</v>
+        <v>0.3</v>
       </c>
       <c r="V6" s="3">
         <v>5</v>
@@ -2090,16 +2087,16 @@
         <v>1</v>
       </c>
       <c r="R7" s="2">
-        <v>1.5</v>
+        <v>0.2</v>
       </c>
       <c r="S7" s="2">
-        <v>1.5</v>
+        <v>0.2</v>
       </c>
       <c r="T7" s="2">
-        <v>1.5</v>
+        <v>0.3</v>
       </c>
       <c r="U7" s="2">
-        <v>1.5</v>
+        <v>0.3</v>
       </c>
       <c r="V7" s="3">
         <v>5</v>
@@ -2193,16 +2190,16 @@
         <v>1</v>
       </c>
       <c r="R8" s="2">
-        <v>1.5</v>
+        <v>0.2</v>
       </c>
       <c r="S8" s="2">
-        <v>1.5</v>
+        <v>0.2</v>
       </c>
       <c r="T8" s="2">
-        <v>1.5</v>
+        <v>0.3</v>
       </c>
       <c r="U8" s="2">
-        <v>1.5</v>
+        <v>0.3</v>
       </c>
       <c r="V8" s="3">
         <v>5</v>
@@ -2297,16 +2294,16 @@
         <v>1</v>
       </c>
       <c r="R9" s="2">
-        <v>1.5</v>
+        <v>0.2</v>
       </c>
       <c r="S9" s="2">
-        <v>1.5</v>
+        <v>0.2</v>
       </c>
       <c r="T9" s="2">
-        <v>1.5</v>
+        <v>0.3</v>
       </c>
       <c r="U9" s="2">
-        <v>1.5</v>
+        <v>0.3</v>
       </c>
       <c r="V9" s="3">
         <v>5</v>
@@ -2402,16 +2399,16 @@
         <v>1</v>
       </c>
       <c r="R10" s="2">
-        <v>1.5</v>
+        <v>0.2</v>
       </c>
       <c r="S10" s="2">
-        <v>1.5</v>
+        <v>0.2</v>
       </c>
       <c r="T10" s="2">
-        <v>1.5</v>
+        <v>0.3</v>
       </c>
       <c r="U10" s="2">
-        <v>1.5</v>
+        <v>0.3</v>
       </c>
       <c r="V10" s="3">
         <v>5</v>
@@ -2505,16 +2502,16 @@
         <v>1</v>
       </c>
       <c r="R11" s="2">
-        <v>1.5</v>
+        <v>0.2</v>
       </c>
       <c r="S11" s="2">
-        <v>1.5</v>
+        <v>0.2</v>
       </c>
       <c r="T11" s="2">
-        <v>1.5</v>
+        <v>0.3</v>
       </c>
       <c r="U11" s="2">
-        <v>1.5</v>
+        <v>0.3</v>
       </c>
       <c r="V11" s="3">
         <v>5</v>
@@ -2610,16 +2607,16 @@
         <v>1</v>
       </c>
       <c r="R12" s="2">
-        <v>1.5</v>
+        <v>0.2</v>
       </c>
       <c r="S12" s="2">
-        <v>1.5</v>
+        <v>0.2</v>
       </c>
       <c r="T12" s="2">
-        <v>1.5</v>
+        <v>0.3</v>
       </c>
       <c r="U12" s="2">
-        <v>1.5</v>
+        <v>0.3</v>
       </c>
       <c r="V12" s="3">
         <v>5</v>
@@ -2715,16 +2712,16 @@
         <v>1</v>
       </c>
       <c r="R13" s="2">
-        <v>1.5</v>
+        <v>0.2</v>
       </c>
       <c r="S13" s="2">
-        <v>1.5</v>
+        <v>0.2</v>
       </c>
       <c r="T13" s="2">
-        <v>1.5</v>
+        <v>0.3</v>
       </c>
       <c r="U13" s="2">
-        <v>1.5</v>
+        <v>0.3</v>
       </c>
       <c r="V13" s="3">
         <v>5</v>
@@ -2820,16 +2817,16 @@
         <v>1</v>
       </c>
       <c r="R14" s="2">
-        <v>1.5</v>
+        <v>0.2</v>
       </c>
       <c r="S14" s="2">
-        <v>1.5</v>
+        <v>0.2</v>
       </c>
       <c r="T14" s="2">
-        <v>1.5</v>
+        <v>0.3</v>
       </c>
       <c r="U14" s="2">
-        <v>1.5</v>
+        <v>0.3</v>
       </c>
       <c r="V14" s="3">
         <v>5</v>
@@ -2927,16 +2924,16 @@
         <v>1</v>
       </c>
       <c r="R15" s="2">
-        <v>1.5</v>
+        <v>0.2</v>
       </c>
       <c r="S15" s="2">
-        <v>1.5</v>
+        <v>0.2</v>
       </c>
       <c r="T15" s="2">
-        <v>1.5</v>
+        <v>0.3</v>
       </c>
       <c r="U15" s="2">
-        <v>1.5</v>
+        <v>0.3</v>
       </c>
       <c r="V15" s="3">
         <v>5</v>
@@ -3035,16 +3032,16 @@
         <v>1</v>
       </c>
       <c r="R16" s="2">
-        <v>1.5</v>
+        <v>0.2</v>
       </c>
       <c r="S16" s="2">
-        <v>1.5</v>
+        <v>0.2</v>
       </c>
       <c r="T16" s="2">
-        <v>1.5</v>
+        <v>0.3</v>
       </c>
       <c r="U16" s="2">
-        <v>1.5</v>
+        <v>0.3</v>
       </c>
       <c r="V16" s="3">
         <v>5</v>
@@ -3143,16 +3140,16 @@
         <v>1</v>
       </c>
       <c r="R17" s="2">
-        <v>1.5</v>
+        <v>0.2</v>
       </c>
       <c r="S17" s="2">
-        <v>1.5</v>
+        <v>0.2</v>
       </c>
       <c r="T17" s="2">
-        <v>1.5</v>
+        <v>0.3</v>
       </c>
       <c r="U17" s="2">
-        <v>1.5</v>
+        <v>0.3</v>
       </c>
       <c r="V17" s="3">
         <v>5</v>
@@ -3251,16 +3248,16 @@
         <v>1</v>
       </c>
       <c r="R18" s="2">
-        <v>1.5</v>
+        <v>0.2</v>
       </c>
       <c r="S18" s="2">
-        <v>1.5</v>
+        <v>0.2</v>
       </c>
       <c r="T18" s="2">
-        <v>1.5</v>
+        <v>0.3</v>
       </c>
       <c r="U18" s="2">
-        <v>1.5</v>
+        <v>0.3</v>
       </c>
       <c r="V18" s="3">
         <v>5</v>
@@ -3359,16 +3356,16 @@
         <v>1</v>
       </c>
       <c r="R19" s="2">
-        <v>1.5</v>
+        <v>0.2</v>
       </c>
       <c r="S19" s="2">
-        <v>1.5</v>
+        <v>0.2</v>
       </c>
       <c r="T19" s="2">
-        <v>1.5</v>
+        <v>0.3</v>
       </c>
       <c r="U19" s="2">
-        <v>1.5</v>
+        <v>0.3</v>
       </c>
       <c r="V19" s="3">
         <v>5</v>
@@ -3465,16 +3462,16 @@
         <v>1</v>
       </c>
       <c r="R20" s="2">
-        <v>1.5</v>
+        <v>0.2</v>
       </c>
       <c r="S20" s="2">
-        <v>1.5</v>
+        <v>0.2</v>
       </c>
       <c r="T20" s="2">
-        <v>1.5</v>
+        <v>0.3</v>
       </c>
       <c r="U20" s="2">
-        <v>1.5</v>
+        <v>0.3</v>
       </c>
       <c r="V20" s="3">
         <v>5</v>
@@ -3553,8 +3550,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19292E87-5CF7-794D-A1AA-7C1926221C7B}">
   <dimension ref="A1:AG35"/>
   <sheetViews>
-    <sheetView zoomScale="125" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="E31" sqref="E31"/>
+    <sheetView topLeftCell="F1" zoomScale="125" zoomScaleNormal="200" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3568,150 +3565,149 @@
       <c r="A1" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="B1" s="27">
-        <f>Parameters!B5+1</f>
-        <v>5</v>
-      </c>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
-      <c r="H1" s="27"/>
-      <c r="I1" s="27"/>
-      <c r="J1" s="27">
+      <c r="B1" s="33">
+        <v>2</v>
+      </c>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="33"/>
+      <c r="H1" s="33"/>
+      <c r="I1" s="33"/>
+      <c r="J1" s="33">
         <f>B1+Parameters!$B$5</f>
-        <v>9</v>
-      </c>
-      <c r="K1" s="27"/>
-      <c r="L1" s="27"/>
-      <c r="M1" s="27"/>
-      <c r="N1" s="27"/>
-      <c r="O1" s="27"/>
-      <c r="P1" s="27"/>
-      <c r="Q1" s="27"/>
-      <c r="R1" s="27">
+        <v>6</v>
+      </c>
+      <c r="K1" s="33"/>
+      <c r="L1" s="33"/>
+      <c r="M1" s="33"/>
+      <c r="N1" s="33"/>
+      <c r="O1" s="33"/>
+      <c r="P1" s="33"/>
+      <c r="Q1" s="33"/>
+      <c r="R1" s="33">
         <f>J1+Parameters!$B$5</f>
-        <v>13</v>
-      </c>
-      <c r="S1" s="27"/>
-      <c r="T1" s="27"/>
-      <c r="U1" s="27"/>
-      <c r="V1" s="27"/>
-      <c r="W1" s="27"/>
-      <c r="X1" s="27"/>
-      <c r="Y1" s="27"/>
-      <c r="Z1" s="27">
+        <v>10</v>
+      </c>
+      <c r="S1" s="33"/>
+      <c r="T1" s="33"/>
+      <c r="U1" s="33"/>
+      <c r="V1" s="33"/>
+      <c r="W1" s="33"/>
+      <c r="X1" s="33"/>
+      <c r="Y1" s="33"/>
+      <c r="Z1" s="33">
         <f>R1+Parameters!$B$5</f>
-        <v>17</v>
-      </c>
-      <c r="AA1" s="27"/>
-      <c r="AB1" s="27"/>
-      <c r="AC1" s="27"/>
-      <c r="AD1" s="27"/>
-      <c r="AE1" s="27"/>
-      <c r="AF1" s="27"/>
-      <c r="AG1" s="27"/>
+        <v>14</v>
+      </c>
+      <c r="AA1" s="33"/>
+      <c r="AB1" s="33"/>
+      <c r="AC1" s="33"/>
+      <c r="AD1" s="33"/>
+      <c r="AE1" s="33"/>
+      <c r="AF1" s="33"/>
+      <c r="AG1" s="33"/>
     </row>
     <row r="2" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="B2" s="35">
+      <c r="B2" s="33">
         <f>1/2</f>
         <v>0.5</v>
       </c>
-      <c r="C2" s="35"/>
-      <c r="D2" s="35"/>
-      <c r="E2" s="35"/>
-      <c r="F2" s="35"/>
-      <c r="G2" s="35"/>
-      <c r="H2" s="35"/>
-      <c r="I2" s="35"/>
-      <c r="J2" s="27">
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="33"/>
+      <c r="F2" s="33"/>
+      <c r="G2" s="33"/>
+      <c r="H2" s="33"/>
+      <c r="I2" s="33"/>
+      <c r="J2" s="33">
         <f>3/24</f>
         <v>0.125</v>
       </c>
-      <c r="K2" s="27"/>
-      <c r="L2" s="27"/>
-      <c r="M2" s="27"/>
-      <c r="N2" s="27"/>
-      <c r="O2" s="27"/>
-      <c r="P2" s="27"/>
-      <c r="Q2" s="27"/>
-      <c r="R2" s="27">
+      <c r="K2" s="33"/>
+      <c r="L2" s="33"/>
+      <c r="M2" s="33"/>
+      <c r="N2" s="33"/>
+      <c r="O2" s="33"/>
+      <c r="P2" s="33"/>
+      <c r="Q2" s="33"/>
+      <c r="R2" s="33">
         <f>6/24</f>
         <v>0.25</v>
       </c>
-      <c r="S2" s="27"/>
-      <c r="T2" s="27"/>
-      <c r="U2" s="27"/>
-      <c r="V2" s="27"/>
-      <c r="W2" s="27"/>
-      <c r="X2" s="27"/>
-      <c r="Y2" s="27"/>
-      <c r="Z2" s="27">
+      <c r="S2" s="33"/>
+      <c r="T2" s="33"/>
+      <c r="U2" s="33"/>
+      <c r="V2" s="33"/>
+      <c r="W2" s="33"/>
+      <c r="X2" s="33"/>
+      <c r="Y2" s="33"/>
+      <c r="Z2" s="33">
         <f>3/24</f>
         <v>0.125</v>
       </c>
-      <c r="AA2" s="27"/>
-      <c r="AB2" s="27"/>
-      <c r="AC2" s="27"/>
-      <c r="AD2" s="27"/>
-      <c r="AE2" s="27"/>
-      <c r="AF2" s="27"/>
-      <c r="AG2" s="27"/>
+      <c r="AA2" s="33"/>
+      <c r="AB2" s="33"/>
+      <c r="AC2" s="33"/>
+      <c r="AD2" s="33"/>
+      <c r="AE2" s="33"/>
+      <c r="AF2" s="33"/>
+      <c r="AG2" s="33"/>
     </row>
     <row r="3" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A3" s="4"/>
-      <c r="B3" s="25" t="s">
+      <c r="B3" s="34" t="s">
         <v>71</v>
       </c>
-      <c r="C3" s="25"/>
-      <c r="D3" s="25"/>
-      <c r="E3" s="25"/>
-      <c r="F3" s="26" t="s">
+      <c r="C3" s="34"/>
+      <c r="D3" s="34"/>
+      <c r="E3" s="34"/>
+      <c r="F3" s="35" t="s">
         <v>72</v>
       </c>
-      <c r="G3" s="26"/>
-      <c r="H3" s="26"/>
-      <c r="I3" s="26"/>
-      <c r="J3" s="25" t="s">
+      <c r="G3" s="35"/>
+      <c r="H3" s="35"/>
+      <c r="I3" s="35"/>
+      <c r="J3" s="34" t="s">
         <v>71</v>
       </c>
-      <c r="K3" s="25"/>
-      <c r="L3" s="25"/>
-      <c r="M3" s="25"/>
-      <c r="N3" s="26" t="s">
+      <c r="K3" s="34"/>
+      <c r="L3" s="34"/>
+      <c r="M3" s="34"/>
+      <c r="N3" s="35" t="s">
         <v>72</v>
       </c>
-      <c r="O3" s="26"/>
-      <c r="P3" s="26"/>
-      <c r="Q3" s="26"/>
-      <c r="R3" s="25" t="s">
+      <c r="O3" s="35"/>
+      <c r="P3" s="35"/>
+      <c r="Q3" s="35"/>
+      <c r="R3" s="34" t="s">
         <v>71</v>
       </c>
-      <c r="S3" s="25"/>
-      <c r="T3" s="25"/>
-      <c r="U3" s="25"/>
-      <c r="V3" s="26" t="s">
+      <c r="S3" s="34"/>
+      <c r="T3" s="34"/>
+      <c r="U3" s="34"/>
+      <c r="V3" s="35" t="s">
         <v>72</v>
       </c>
-      <c r="W3" s="26"/>
-      <c r="X3" s="26"/>
-      <c r="Y3" s="26"/>
-      <c r="Z3" s="25" t="s">
+      <c r="W3" s="35"/>
+      <c r="X3" s="35"/>
+      <c r="Y3" s="35"/>
+      <c r="Z3" s="34" t="s">
         <v>71</v>
       </c>
-      <c r="AA3" s="25"/>
-      <c r="AB3" s="25"/>
-      <c r="AC3" s="25"/>
-      <c r="AD3" s="26" t="s">
+      <c r="AA3" s="34"/>
+      <c r="AB3" s="34"/>
+      <c r="AC3" s="34"/>
+      <c r="AD3" s="35" t="s">
         <v>72</v>
       </c>
-      <c r="AE3" s="26"/>
-      <c r="AF3" s="26"/>
-      <c r="AG3" s="26"/>
+      <c r="AE3" s="35"/>
+      <c r="AF3" s="35"/>
+      <c r="AG3" s="35"/>
     </row>
     <row r="4" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
@@ -3978,7 +3974,7 @@
         <v>0</v>
       </c>
       <c r="G6" s="3">
-        <f t="shared" ref="G6:I6" si="15">G5*0.5</f>
+        <f t="shared" ref="G6:H6" si="15">G5*0.5</f>
         <v>0</v>
       </c>
       <c r="H6" s="3">
@@ -4007,7 +4003,7 @@
         <v>0</v>
       </c>
       <c r="O6" s="3">
-        <f t="shared" ref="O6:Q6" si="17">O5*0.5</f>
+        <f t="shared" ref="O6:P6" si="17">O5*0.5</f>
         <v>0</v>
       </c>
       <c r="P6" s="3">
@@ -4036,7 +4032,7 @@
         <v>0</v>
       </c>
       <c r="W6" s="3">
-        <f t="shared" ref="W6:Y6" si="20">W5*0.5</f>
+        <f t="shared" ref="W6:X6" si="20">W5*0.5</f>
         <v>0</v>
       </c>
       <c r="X6" s="3">
@@ -4065,7 +4061,7 @@
         <v>0</v>
       </c>
       <c r="AE6" s="3">
-        <f t="shared" ref="AE6:AG6" si="23">AE5*0.5</f>
+        <f t="shared" ref="AE6:AF6" si="23">AE5*0.5</f>
         <v>0</v>
       </c>
       <c r="AF6" s="3">
@@ -5107,6 +5103,14 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="F3:I3"/>
+    <mergeCell ref="B1:I1"/>
+    <mergeCell ref="B2:I2"/>
+    <mergeCell ref="J1:Q1"/>
+    <mergeCell ref="J2:Q2"/>
+    <mergeCell ref="J3:M3"/>
+    <mergeCell ref="N3:Q3"/>
     <mergeCell ref="R1:Y1"/>
     <mergeCell ref="R2:Y2"/>
     <mergeCell ref="R3:U3"/>
@@ -5115,14 +5119,6 @@
     <mergeCell ref="Z2:AG2"/>
     <mergeCell ref="Z3:AC3"/>
     <mergeCell ref="AD3:AG3"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="F3:I3"/>
-    <mergeCell ref="B1:I1"/>
-    <mergeCell ref="B2:I2"/>
-    <mergeCell ref="J1:Q1"/>
-    <mergeCell ref="J2:Q2"/>
-    <mergeCell ref="J3:M3"/>
-    <mergeCell ref="N3:Q3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5133,7 +5129,7 @@
   <dimension ref="A1:DY36"/>
   <sheetViews>
     <sheetView zoomScale="113" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="E32" sqref="E32"/>
+      <selection activeCell="DY15" sqref="DY15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5147,450 +5143,449 @@
       <c r="A1" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="B1" s="27">
-        <f>Parameters!B5*(1+Parameters!B6)+1</f>
-        <v>21</v>
-      </c>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
-      <c r="H1" s="27"/>
-      <c r="I1" s="27"/>
-      <c r="J1" s="27">
+      <c r="B1" s="33">
+        <v>18</v>
+      </c>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="33"/>
+      <c r="H1" s="33"/>
+      <c r="I1" s="33"/>
+      <c r="J1" s="33">
         <f>B1+Parameters!$B$5</f>
-        <v>25</v>
-      </c>
-      <c r="K1" s="27"/>
-      <c r="L1" s="27"/>
-      <c r="M1" s="27"/>
-      <c r="N1" s="27"/>
-      <c r="O1" s="27"/>
-      <c r="P1" s="27"/>
-      <c r="Q1" s="27"/>
-      <c r="R1" s="27">
+        <v>22</v>
+      </c>
+      <c r="K1" s="33"/>
+      <c r="L1" s="33"/>
+      <c r="M1" s="33"/>
+      <c r="N1" s="33"/>
+      <c r="O1" s="33"/>
+      <c r="P1" s="33"/>
+      <c r="Q1" s="33"/>
+      <c r="R1" s="33">
         <f>J1+Parameters!$B$5</f>
-        <v>29</v>
-      </c>
-      <c r="S1" s="27"/>
-      <c r="T1" s="27"/>
-      <c r="U1" s="27"/>
-      <c r="V1" s="27"/>
-      <c r="W1" s="27"/>
-      <c r="X1" s="27"/>
-      <c r="Y1" s="27"/>
-      <c r="Z1" s="27">
+        <v>26</v>
+      </c>
+      <c r="S1" s="33"/>
+      <c r="T1" s="33"/>
+      <c r="U1" s="33"/>
+      <c r="V1" s="33"/>
+      <c r="W1" s="33"/>
+      <c r="X1" s="33"/>
+      <c r="Y1" s="33"/>
+      <c r="Z1" s="33">
         <f>R1+Parameters!$B$5</f>
-        <v>33</v>
-      </c>
-      <c r="AA1" s="27"/>
-      <c r="AB1" s="27"/>
-      <c r="AC1" s="27"/>
-      <c r="AD1" s="27"/>
-      <c r="AE1" s="27"/>
-      <c r="AF1" s="27"/>
-      <c r="AG1" s="27"/>
-      <c r="AH1" s="27">
+        <v>30</v>
+      </c>
+      <c r="AA1" s="33"/>
+      <c r="AB1" s="33"/>
+      <c r="AC1" s="33"/>
+      <c r="AD1" s="33"/>
+      <c r="AE1" s="33"/>
+      <c r="AF1" s="33"/>
+      <c r="AG1" s="33"/>
+      <c r="AH1" s="33">
         <f>Z1+Parameters!$B$5</f>
-        <v>37</v>
-      </c>
-      <c r="AI1" s="27"/>
-      <c r="AJ1" s="27"/>
-      <c r="AK1" s="27"/>
-      <c r="AL1" s="27"/>
-      <c r="AM1" s="27"/>
-      <c r="AN1" s="27"/>
-      <c r="AO1" s="27"/>
-      <c r="AP1" s="27">
+        <v>34</v>
+      </c>
+      <c r="AI1" s="33"/>
+      <c r="AJ1" s="33"/>
+      <c r="AK1" s="33"/>
+      <c r="AL1" s="33"/>
+      <c r="AM1" s="33"/>
+      <c r="AN1" s="33"/>
+      <c r="AO1" s="33"/>
+      <c r="AP1" s="33">
         <f>AH1+Parameters!$B$5</f>
-        <v>41</v>
-      </c>
-      <c r="AQ1" s="27"/>
-      <c r="AR1" s="27"/>
-      <c r="AS1" s="27"/>
-      <c r="AT1" s="27"/>
-      <c r="AU1" s="27"/>
-      <c r="AV1" s="27"/>
-      <c r="AW1" s="27"/>
-      <c r="AX1" s="27">
+        <v>38</v>
+      </c>
+      <c r="AQ1" s="33"/>
+      <c r="AR1" s="33"/>
+      <c r="AS1" s="33"/>
+      <c r="AT1" s="33"/>
+      <c r="AU1" s="33"/>
+      <c r="AV1" s="33"/>
+      <c r="AW1" s="33"/>
+      <c r="AX1" s="33">
         <f>AP1+Parameters!$B$5</f>
-        <v>45</v>
-      </c>
-      <c r="AY1" s="27"/>
-      <c r="AZ1" s="27"/>
-      <c r="BA1" s="27"/>
-      <c r="BB1" s="27"/>
-      <c r="BC1" s="27"/>
-      <c r="BD1" s="27"/>
-      <c r="BE1" s="27"/>
-      <c r="BF1" s="27">
+        <v>42</v>
+      </c>
+      <c r="AY1" s="33"/>
+      <c r="AZ1" s="33"/>
+      <c r="BA1" s="33"/>
+      <c r="BB1" s="33"/>
+      <c r="BC1" s="33"/>
+      <c r="BD1" s="33"/>
+      <c r="BE1" s="33"/>
+      <c r="BF1" s="33">
         <f>AX1+Parameters!$B$5</f>
-        <v>49</v>
-      </c>
-      <c r="BG1" s="27"/>
-      <c r="BH1" s="27"/>
-      <c r="BI1" s="27"/>
-      <c r="BJ1" s="27"/>
-      <c r="BK1" s="27"/>
-      <c r="BL1" s="27"/>
-      <c r="BM1" s="27"/>
-      <c r="BN1" s="27">
+        <v>46</v>
+      </c>
+      <c r="BG1" s="33"/>
+      <c r="BH1" s="33"/>
+      <c r="BI1" s="33"/>
+      <c r="BJ1" s="33"/>
+      <c r="BK1" s="33"/>
+      <c r="BL1" s="33"/>
+      <c r="BM1" s="33"/>
+      <c r="BN1" s="33">
         <f>BF1+Parameters!$B$5</f>
-        <v>53</v>
-      </c>
-      <c r="BO1" s="27"/>
-      <c r="BP1" s="27"/>
-      <c r="BQ1" s="27"/>
-      <c r="BR1" s="27"/>
-      <c r="BS1" s="27"/>
-      <c r="BT1" s="27"/>
-      <c r="BU1" s="27"/>
-      <c r="BV1" s="27">
+        <v>50</v>
+      </c>
+      <c r="BO1" s="33"/>
+      <c r="BP1" s="33"/>
+      <c r="BQ1" s="33"/>
+      <c r="BR1" s="33"/>
+      <c r="BS1" s="33"/>
+      <c r="BT1" s="33"/>
+      <c r="BU1" s="33"/>
+      <c r="BV1" s="33">
         <f>BN1+Parameters!$B$5</f>
-        <v>57</v>
-      </c>
-      <c r="BW1" s="27"/>
-      <c r="BX1" s="27"/>
-      <c r="BY1" s="27"/>
-      <c r="BZ1" s="27"/>
-      <c r="CA1" s="27"/>
-      <c r="CB1" s="27"/>
-      <c r="CC1" s="27"/>
-      <c r="CD1" s="27">
+        <v>54</v>
+      </c>
+      <c r="BW1" s="33"/>
+      <c r="BX1" s="33"/>
+      <c r="BY1" s="33"/>
+      <c r="BZ1" s="33"/>
+      <c r="CA1" s="33"/>
+      <c r="CB1" s="33"/>
+      <c r="CC1" s="33"/>
+      <c r="CD1" s="33">
         <f>BV1+Parameters!$B$5</f>
-        <v>61</v>
-      </c>
-      <c r="CE1" s="27"/>
-      <c r="CF1" s="27"/>
-      <c r="CG1" s="27"/>
-      <c r="CH1" s="27"/>
-      <c r="CI1" s="27"/>
-      <c r="CJ1" s="27"/>
-      <c r="CK1" s="27"/>
-      <c r="CL1" s="27">
+        <v>58</v>
+      </c>
+      <c r="CE1" s="33"/>
+      <c r="CF1" s="33"/>
+      <c r="CG1" s="33"/>
+      <c r="CH1" s="33"/>
+      <c r="CI1" s="33"/>
+      <c r="CJ1" s="33"/>
+      <c r="CK1" s="33"/>
+      <c r="CL1" s="33">
         <f>CD1+Parameters!$B$5</f>
-        <v>65</v>
-      </c>
-      <c r="CM1" s="27"/>
-      <c r="CN1" s="27"/>
-      <c r="CO1" s="27"/>
-      <c r="CP1" s="27"/>
-      <c r="CQ1" s="27"/>
-      <c r="CR1" s="27"/>
-      <c r="CS1" s="27"/>
-      <c r="CT1" s="27">
+        <v>62</v>
+      </c>
+      <c r="CM1" s="33"/>
+      <c r="CN1" s="33"/>
+      <c r="CO1" s="33"/>
+      <c r="CP1" s="33"/>
+      <c r="CQ1" s="33"/>
+      <c r="CR1" s="33"/>
+      <c r="CS1" s="33"/>
+      <c r="CT1" s="33">
         <f>CL1+Parameters!$B$5</f>
-        <v>69</v>
-      </c>
-      <c r="CU1" s="27"/>
-      <c r="CV1" s="27"/>
-      <c r="CW1" s="27"/>
-      <c r="CX1" s="27"/>
-      <c r="CY1" s="27"/>
-      <c r="CZ1" s="27"/>
-      <c r="DA1" s="27"/>
-      <c r="DB1" s="27">
+        <v>66</v>
+      </c>
+      <c r="CU1" s="33"/>
+      <c r="CV1" s="33"/>
+      <c r="CW1" s="33"/>
+      <c r="CX1" s="33"/>
+      <c r="CY1" s="33"/>
+      <c r="CZ1" s="33"/>
+      <c r="DA1" s="33"/>
+      <c r="DB1" s="33">
         <f>CT1+Parameters!$B$5</f>
-        <v>73</v>
-      </c>
-      <c r="DC1" s="27"/>
-      <c r="DD1" s="27"/>
-      <c r="DE1" s="27"/>
-      <c r="DF1" s="27"/>
-      <c r="DG1" s="27"/>
-      <c r="DH1" s="27"/>
-      <c r="DI1" s="27"/>
-      <c r="DJ1" s="27">
+        <v>70</v>
+      </c>
+      <c r="DC1" s="33"/>
+      <c r="DD1" s="33"/>
+      <c r="DE1" s="33"/>
+      <c r="DF1" s="33"/>
+      <c r="DG1" s="33"/>
+      <c r="DH1" s="33"/>
+      <c r="DI1" s="33"/>
+      <c r="DJ1" s="33">
         <f>DB1+Parameters!$B$5</f>
-        <v>77</v>
-      </c>
-      <c r="DK1" s="27"/>
-      <c r="DL1" s="27"/>
-      <c r="DM1" s="27"/>
-      <c r="DN1" s="27"/>
-      <c r="DO1" s="27"/>
-      <c r="DP1" s="27"/>
-      <c r="DQ1" s="27"/>
-      <c r="DR1" s="27">
+        <v>74</v>
+      </c>
+      <c r="DK1" s="33"/>
+      <c r="DL1" s="33"/>
+      <c r="DM1" s="33"/>
+      <c r="DN1" s="33"/>
+      <c r="DO1" s="33"/>
+      <c r="DP1" s="33"/>
+      <c r="DQ1" s="33"/>
+      <c r="DR1" s="33">
         <f>DJ1+Parameters!$B$5</f>
-        <v>81</v>
-      </c>
-      <c r="DS1" s="27"/>
-      <c r="DT1" s="27"/>
-      <c r="DU1" s="27"/>
-      <c r="DV1" s="27"/>
-      <c r="DW1" s="27"/>
-      <c r="DX1" s="27"/>
-      <c r="DY1" s="27"/>
+        <v>78</v>
+      </c>
+      <c r="DS1" s="33"/>
+      <c r="DT1" s="33"/>
+      <c r="DU1" s="33"/>
+      <c r="DV1" s="33"/>
+      <c r="DW1" s="33"/>
+      <c r="DX1" s="33"/>
+      <c r="DY1" s="33"/>
     </row>
     <row r="2" spans="1:129" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="B2" s="27">
+      <c r="B2" s="33">
         <f>0.5/4</f>
         <v>0.125</v>
       </c>
-      <c r="C2" s="27"/>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27"/>
-      <c r="F2" s="27"/>
-      <c r="G2" s="27"/>
-      <c r="H2" s="27"/>
-      <c r="I2" s="27"/>
-      <c r="J2" s="27">
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="33"/>
+      <c r="F2" s="33"/>
+      <c r="G2" s="33"/>
+      <c r="H2" s="33"/>
+      <c r="I2" s="33"/>
+      <c r="J2" s="33">
         <f>0.5/4</f>
         <v>0.125</v>
       </c>
-      <c r="K2" s="27"/>
-      <c r="L2" s="27"/>
-      <c r="M2" s="27"/>
-      <c r="N2" s="27"/>
-      <c r="O2" s="27"/>
-      <c r="P2" s="27"/>
-      <c r="Q2" s="27"/>
-      <c r="R2" s="27">
+      <c r="K2" s="33"/>
+      <c r="L2" s="33"/>
+      <c r="M2" s="33"/>
+      <c r="N2" s="33"/>
+      <c r="O2" s="33"/>
+      <c r="P2" s="33"/>
+      <c r="Q2" s="33"/>
+      <c r="R2" s="33">
         <f>0.5/4</f>
         <v>0.125</v>
       </c>
-      <c r="S2" s="27"/>
-      <c r="T2" s="27"/>
-      <c r="U2" s="27"/>
-      <c r="V2" s="27"/>
-      <c r="W2" s="27"/>
-      <c r="X2" s="27"/>
-      <c r="Y2" s="27"/>
-      <c r="Z2" s="27">
+      <c r="S2" s="33"/>
+      <c r="T2" s="33"/>
+      <c r="U2" s="33"/>
+      <c r="V2" s="33"/>
+      <c r="W2" s="33"/>
+      <c r="X2" s="33"/>
+      <c r="Y2" s="33"/>
+      <c r="Z2" s="33">
         <f>0.5/4</f>
         <v>0.125</v>
       </c>
-      <c r="AA2" s="27"/>
-      <c r="AB2" s="27"/>
-      <c r="AC2" s="27"/>
-      <c r="AD2" s="27"/>
-      <c r="AE2" s="27"/>
-      <c r="AF2" s="27"/>
-      <c r="AG2" s="27"/>
-      <c r="AH2" s="27">
+      <c r="AA2" s="33"/>
+      <c r="AB2" s="33"/>
+      <c r="AC2" s="33"/>
+      <c r="AD2" s="33"/>
+      <c r="AE2" s="33"/>
+      <c r="AF2" s="33"/>
+      <c r="AG2" s="33"/>
+      <c r="AH2" s="33">
         <f>0.125/4</f>
         <v>3.125E-2</v>
       </c>
-      <c r="AI2" s="27"/>
-      <c r="AJ2" s="27"/>
-      <c r="AK2" s="27"/>
-      <c r="AL2" s="27"/>
-      <c r="AM2" s="27"/>
-      <c r="AN2" s="27"/>
-      <c r="AO2" s="27"/>
-      <c r="AP2" s="27">
+      <c r="AI2" s="33"/>
+      <c r="AJ2" s="33"/>
+      <c r="AK2" s="33"/>
+      <c r="AL2" s="33"/>
+      <c r="AM2" s="33"/>
+      <c r="AN2" s="33"/>
+      <c r="AO2" s="33"/>
+      <c r="AP2" s="33">
         <f>0.125/4</f>
         <v>3.125E-2</v>
       </c>
-      <c r="AQ2" s="27"/>
-      <c r="AR2" s="27"/>
-      <c r="AS2" s="27"/>
-      <c r="AT2" s="27"/>
-      <c r="AU2" s="27"/>
-      <c r="AV2" s="27"/>
-      <c r="AW2" s="27"/>
-      <c r="AX2" s="27">
+      <c r="AQ2" s="33"/>
+      <c r="AR2" s="33"/>
+      <c r="AS2" s="33"/>
+      <c r="AT2" s="33"/>
+      <c r="AU2" s="33"/>
+      <c r="AV2" s="33"/>
+      <c r="AW2" s="33"/>
+      <c r="AX2" s="33">
         <f>0.125/4</f>
         <v>3.125E-2</v>
       </c>
-      <c r="AY2" s="27"/>
-      <c r="AZ2" s="27"/>
-      <c r="BA2" s="27"/>
-      <c r="BB2" s="27"/>
-      <c r="BC2" s="27"/>
-      <c r="BD2" s="27"/>
-      <c r="BE2" s="27"/>
-      <c r="BF2" s="27">
+      <c r="AY2" s="33"/>
+      <c r="AZ2" s="33"/>
+      <c r="BA2" s="33"/>
+      <c r="BB2" s="33"/>
+      <c r="BC2" s="33"/>
+      <c r="BD2" s="33"/>
+      <c r="BE2" s="33"/>
+      <c r="BF2" s="33">
         <f>0.125/4</f>
         <v>3.125E-2</v>
       </c>
-      <c r="BG2" s="27"/>
-      <c r="BH2" s="27"/>
-      <c r="BI2" s="27"/>
-      <c r="BJ2" s="27"/>
-      <c r="BK2" s="27"/>
-      <c r="BL2" s="27"/>
-      <c r="BM2" s="27"/>
-      <c r="BN2" s="27">
+      <c r="BG2" s="33"/>
+      <c r="BH2" s="33"/>
+      <c r="BI2" s="33"/>
+      <c r="BJ2" s="33"/>
+      <c r="BK2" s="33"/>
+      <c r="BL2" s="33"/>
+      <c r="BM2" s="33"/>
+      <c r="BN2" s="33">
         <f>0.125/4*2</f>
         <v>6.25E-2</v>
       </c>
-      <c r="BO2" s="27"/>
-      <c r="BP2" s="27"/>
-      <c r="BQ2" s="27"/>
-      <c r="BR2" s="27"/>
-      <c r="BS2" s="27"/>
-      <c r="BT2" s="27"/>
-      <c r="BU2" s="27"/>
-      <c r="BV2" s="27">
+      <c r="BO2" s="33"/>
+      <c r="BP2" s="33"/>
+      <c r="BQ2" s="33"/>
+      <c r="BR2" s="33"/>
+      <c r="BS2" s="33"/>
+      <c r="BT2" s="33"/>
+      <c r="BU2" s="33"/>
+      <c r="BV2" s="33">
         <f>0.125/4*2</f>
         <v>6.25E-2</v>
       </c>
-      <c r="BW2" s="27"/>
-      <c r="BX2" s="27"/>
-      <c r="BY2" s="27"/>
-      <c r="BZ2" s="27"/>
-      <c r="CA2" s="27"/>
-      <c r="CB2" s="27"/>
-      <c r="CC2" s="27"/>
-      <c r="CD2" s="27">
+      <c r="BW2" s="33"/>
+      <c r="BX2" s="33"/>
+      <c r="BY2" s="33"/>
+      <c r="BZ2" s="33"/>
+      <c r="CA2" s="33"/>
+      <c r="CB2" s="33"/>
+      <c r="CC2" s="33"/>
+      <c r="CD2" s="33">
         <f>0.125/4*2</f>
         <v>6.25E-2</v>
       </c>
-      <c r="CE2" s="27"/>
-      <c r="CF2" s="27"/>
-      <c r="CG2" s="27"/>
-      <c r="CH2" s="27"/>
-      <c r="CI2" s="27"/>
-      <c r="CJ2" s="27"/>
-      <c r="CK2" s="27"/>
-      <c r="CL2" s="27">
+      <c r="CE2" s="33"/>
+      <c r="CF2" s="33"/>
+      <c r="CG2" s="33"/>
+      <c r="CH2" s="33"/>
+      <c r="CI2" s="33"/>
+      <c r="CJ2" s="33"/>
+      <c r="CK2" s="33"/>
+      <c r="CL2" s="33">
         <f>0.125/4*2</f>
         <v>6.25E-2</v>
       </c>
-      <c r="CM2" s="27"/>
-      <c r="CN2" s="27"/>
-      <c r="CO2" s="27"/>
-      <c r="CP2" s="27"/>
-      <c r="CQ2" s="27"/>
-      <c r="CR2" s="27"/>
-      <c r="CS2" s="27"/>
-      <c r="CT2" s="27">
+      <c r="CM2" s="33"/>
+      <c r="CN2" s="33"/>
+      <c r="CO2" s="33"/>
+      <c r="CP2" s="33"/>
+      <c r="CQ2" s="33"/>
+      <c r="CR2" s="33"/>
+      <c r="CS2" s="33"/>
+      <c r="CT2" s="33">
         <f>0.125/4</f>
         <v>3.125E-2</v>
       </c>
-      <c r="CU2" s="27"/>
-      <c r="CV2" s="27"/>
-      <c r="CW2" s="27"/>
-      <c r="CX2" s="27"/>
-      <c r="CY2" s="27"/>
-      <c r="CZ2" s="27"/>
-      <c r="DA2" s="27"/>
-      <c r="DB2" s="27">
+      <c r="CU2" s="33"/>
+      <c r="CV2" s="33"/>
+      <c r="CW2" s="33"/>
+      <c r="CX2" s="33"/>
+      <c r="CY2" s="33"/>
+      <c r="CZ2" s="33"/>
+      <c r="DA2" s="33"/>
+      <c r="DB2" s="33">
         <f>0.125/4</f>
         <v>3.125E-2</v>
       </c>
-      <c r="DC2" s="27"/>
-      <c r="DD2" s="27"/>
-      <c r="DE2" s="27"/>
-      <c r="DF2" s="27"/>
-      <c r="DG2" s="27"/>
-      <c r="DH2" s="27"/>
-      <c r="DI2" s="27"/>
-      <c r="DJ2" s="27">
+      <c r="DC2" s="33"/>
+      <c r="DD2" s="33"/>
+      <c r="DE2" s="33"/>
+      <c r="DF2" s="33"/>
+      <c r="DG2" s="33"/>
+      <c r="DH2" s="33"/>
+      <c r="DI2" s="33"/>
+      <c r="DJ2" s="33">
         <f>0.125/4</f>
         <v>3.125E-2</v>
       </c>
-      <c r="DK2" s="27"/>
-      <c r="DL2" s="27"/>
-      <c r="DM2" s="27"/>
-      <c r="DN2" s="27"/>
-      <c r="DO2" s="27"/>
-      <c r="DP2" s="27"/>
-      <c r="DQ2" s="27"/>
-      <c r="DR2" s="27">
+      <c r="DK2" s="33"/>
+      <c r="DL2" s="33"/>
+      <c r="DM2" s="33"/>
+      <c r="DN2" s="33"/>
+      <c r="DO2" s="33"/>
+      <c r="DP2" s="33"/>
+      <c r="DQ2" s="33"/>
+      <c r="DR2" s="33">
         <f>0.125/4</f>
         <v>3.125E-2</v>
       </c>
-      <c r="DS2" s="27"/>
-      <c r="DT2" s="27"/>
-      <c r="DU2" s="27"/>
-      <c r="DV2" s="27"/>
-      <c r="DW2" s="27"/>
-      <c r="DX2" s="27"/>
-      <c r="DY2" s="27"/>
+      <c r="DS2" s="33"/>
+      <c r="DT2" s="33"/>
+      <c r="DU2" s="33"/>
+      <c r="DV2" s="33"/>
+      <c r="DW2" s="33"/>
+      <c r="DX2" s="33"/>
+      <c r="DY2" s="33"/>
     </row>
     <row r="3" spans="1:129" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="B3" s="28">
-        <v>5</v>
-      </c>
-      <c r="C3" s="29"/>
-      <c r="D3" s="29"/>
-      <c r="E3" s="29"/>
-      <c r="F3" s="29"/>
-      <c r="G3" s="29"/>
-      <c r="H3" s="29"/>
-      <c r="I3" s="30"/>
-      <c r="J3" s="28">
-        <v>5</v>
-      </c>
-      <c r="K3" s="29"/>
-      <c r="L3" s="29"/>
-      <c r="M3" s="29"/>
-      <c r="N3" s="29"/>
-      <c r="O3" s="29"/>
-      <c r="P3" s="29"/>
-      <c r="Q3" s="30"/>
-      <c r="R3" s="28">
-        <v>5</v>
-      </c>
-      <c r="S3" s="29"/>
-      <c r="T3" s="29"/>
-      <c r="U3" s="29"/>
-      <c r="V3" s="29"/>
-      <c r="W3" s="29"/>
-      <c r="X3" s="29"/>
-      <c r="Y3" s="30"/>
-      <c r="Z3" s="28">
-        <v>5</v>
-      </c>
-      <c r="AA3" s="29"/>
-      <c r="AB3" s="29"/>
-      <c r="AC3" s="29"/>
-      <c r="AD3" s="29"/>
-      <c r="AE3" s="29"/>
-      <c r="AF3" s="29"/>
-      <c r="AG3" s="30"/>
-      <c r="AH3" s="28">
-        <v>9</v>
-      </c>
-      <c r="AI3" s="29"/>
-      <c r="AJ3" s="29"/>
-      <c r="AK3" s="29"/>
-      <c r="AL3" s="29"/>
-      <c r="AM3" s="29"/>
-      <c r="AN3" s="29"/>
-      <c r="AO3" s="30"/>
-      <c r="AP3" s="28">
-        <v>9</v>
-      </c>
-      <c r="AQ3" s="29"/>
-      <c r="AR3" s="29"/>
-      <c r="AS3" s="29"/>
-      <c r="AT3" s="29"/>
-      <c r="AU3" s="29"/>
-      <c r="AV3" s="29"/>
-      <c r="AW3" s="30"/>
-      <c r="AX3" s="28">
-        <v>9</v>
-      </c>
-      <c r="AY3" s="29"/>
-      <c r="AZ3" s="29"/>
-      <c r="BA3" s="29"/>
-      <c r="BB3" s="29"/>
-      <c r="BC3" s="29"/>
-      <c r="BD3" s="29"/>
-      <c r="BE3" s="30"/>
-      <c r="BF3" s="28">
-        <v>9</v>
-      </c>
-      <c r="BG3" s="29"/>
-      <c r="BH3" s="29"/>
-      <c r="BI3" s="29"/>
-      <c r="BJ3" s="29"/>
-      <c r="BK3" s="29"/>
-      <c r="BL3" s="29"/>
-      <c r="BM3" s="30"/>
-      <c r="BN3" s="36">
-        <v>13</v>
+      <c r="B3" s="39">
+        <v>2</v>
+      </c>
+      <c r="C3" s="40"/>
+      <c r="D3" s="40"/>
+      <c r="E3" s="40"/>
+      <c r="F3" s="40"/>
+      <c r="G3" s="40"/>
+      <c r="H3" s="40"/>
+      <c r="I3" s="41"/>
+      <c r="J3" s="39">
+        <v>2</v>
+      </c>
+      <c r="K3" s="40"/>
+      <c r="L3" s="40"/>
+      <c r="M3" s="40"/>
+      <c r="N3" s="40"/>
+      <c r="O3" s="40"/>
+      <c r="P3" s="40"/>
+      <c r="Q3" s="41"/>
+      <c r="R3" s="39">
+        <v>2</v>
+      </c>
+      <c r="S3" s="40"/>
+      <c r="T3" s="40"/>
+      <c r="U3" s="40"/>
+      <c r="V3" s="40"/>
+      <c r="W3" s="40"/>
+      <c r="X3" s="40"/>
+      <c r="Y3" s="41"/>
+      <c r="Z3" s="39">
+        <v>2</v>
+      </c>
+      <c r="AA3" s="40"/>
+      <c r="AB3" s="40"/>
+      <c r="AC3" s="40"/>
+      <c r="AD3" s="40"/>
+      <c r="AE3" s="40"/>
+      <c r="AF3" s="40"/>
+      <c r="AG3" s="41"/>
+      <c r="AH3" s="39">
+        <v>6</v>
+      </c>
+      <c r="AI3" s="40"/>
+      <c r="AJ3" s="40"/>
+      <c r="AK3" s="40"/>
+      <c r="AL3" s="40"/>
+      <c r="AM3" s="40"/>
+      <c r="AN3" s="40"/>
+      <c r="AO3" s="41"/>
+      <c r="AP3" s="39">
+        <v>6</v>
+      </c>
+      <c r="AQ3" s="40"/>
+      <c r="AR3" s="40"/>
+      <c r="AS3" s="40"/>
+      <c r="AT3" s="40"/>
+      <c r="AU3" s="40"/>
+      <c r="AV3" s="40"/>
+      <c r="AW3" s="41"/>
+      <c r="AX3" s="39">
+        <v>6</v>
+      </c>
+      <c r="AY3" s="40"/>
+      <c r="AZ3" s="40"/>
+      <c r="BA3" s="40"/>
+      <c r="BB3" s="40"/>
+      <c r="BC3" s="40"/>
+      <c r="BD3" s="40"/>
+      <c r="BE3" s="41"/>
+      <c r="BF3" s="39">
+        <v>6</v>
+      </c>
+      <c r="BG3" s="40"/>
+      <c r="BH3" s="40"/>
+      <c r="BI3" s="40"/>
+      <c r="BJ3" s="40"/>
+      <c r="BK3" s="40"/>
+      <c r="BL3" s="40"/>
+      <c r="BM3" s="41"/>
+      <c r="BN3" s="42">
+        <v>10</v>
       </c>
       <c r="BO3" s="37"/>
       <c r="BP3" s="37"/>
@@ -5599,8 +5594,8 @@
       <c r="BS3" s="37"/>
       <c r="BT3" s="37"/>
       <c r="BU3" s="38"/>
-      <c r="BV3" s="39">
-        <v>13</v>
+      <c r="BV3" s="36">
+        <v>10</v>
       </c>
       <c r="BW3" s="37"/>
       <c r="BX3" s="37"/>
@@ -5609,8 +5604,8 @@
       <c r="CA3" s="37"/>
       <c r="CB3" s="37"/>
       <c r="CC3" s="38"/>
-      <c r="CD3" s="39">
-        <v>13</v>
+      <c r="CD3" s="36">
+        <v>10</v>
       </c>
       <c r="CE3" s="37"/>
       <c r="CF3" s="37"/>
@@ -5619,8 +5614,8 @@
       <c r="CI3" s="37"/>
       <c r="CJ3" s="37"/>
       <c r="CK3" s="38"/>
-      <c r="CL3" s="39">
-        <v>13</v>
+      <c r="CL3" s="36">
+        <v>10</v>
       </c>
       <c r="CM3" s="37"/>
       <c r="CN3" s="37"/>
@@ -5629,8 +5624,8 @@
       <c r="CQ3" s="37"/>
       <c r="CR3" s="37"/>
       <c r="CS3" s="38"/>
-      <c r="CT3" s="39">
-        <v>17</v>
+      <c r="CT3" s="36">
+        <v>14</v>
       </c>
       <c r="CU3" s="37"/>
       <c r="CV3" s="37"/>
@@ -5639,8 +5634,8 @@
       <c r="CY3" s="37"/>
       <c r="CZ3" s="37"/>
       <c r="DA3" s="38"/>
-      <c r="DB3" s="39">
-        <v>17</v>
+      <c r="DB3" s="36">
+        <v>14</v>
       </c>
       <c r="DC3" s="37"/>
       <c r="DD3" s="37"/>
@@ -5649,8 +5644,8 @@
       <c r="DG3" s="37"/>
       <c r="DH3" s="37"/>
       <c r="DI3" s="38"/>
-      <c r="DJ3" s="39">
-        <v>17</v>
+      <c r="DJ3" s="36">
+        <v>14</v>
       </c>
       <c r="DK3" s="37"/>
       <c r="DL3" s="37"/>
@@ -5659,8 +5654,8 @@
       <c r="DO3" s="37"/>
       <c r="DP3" s="37"/>
       <c r="DQ3" s="38"/>
-      <c r="DR3" s="39">
-        <v>17</v>
+      <c r="DR3" s="36">
+        <v>14</v>
       </c>
       <c r="DS3" s="37"/>
       <c r="DT3" s="37"/>
@@ -5672,198 +5667,198 @@
     </row>
     <row r="4" spans="1:129" x14ac:dyDescent="0.2">
       <c r="A4" s="4"/>
-      <c r="B4" s="25" t="s">
+      <c r="B4" s="34" t="s">
         <v>71</v>
       </c>
-      <c r="C4" s="25"/>
-      <c r="D4" s="25"/>
-      <c r="E4" s="25"/>
-      <c r="F4" s="26" t="s">
+      <c r="C4" s="34"/>
+      <c r="D4" s="34"/>
+      <c r="E4" s="34"/>
+      <c r="F4" s="35" t="s">
         <v>72</v>
       </c>
-      <c r="G4" s="26"/>
-      <c r="H4" s="26"/>
-      <c r="I4" s="26"/>
-      <c r="J4" s="25" t="s">
+      <c r="G4" s="35"/>
+      <c r="H4" s="35"/>
+      <c r="I4" s="35"/>
+      <c r="J4" s="34" t="s">
         <v>71</v>
       </c>
-      <c r="K4" s="25"/>
-      <c r="L4" s="25"/>
-      <c r="M4" s="25"/>
-      <c r="N4" s="26" t="s">
+      <c r="K4" s="34"/>
+      <c r="L4" s="34"/>
+      <c r="M4" s="34"/>
+      <c r="N4" s="35" t="s">
         <v>72</v>
       </c>
-      <c r="O4" s="26"/>
-      <c r="P4" s="26"/>
-      <c r="Q4" s="26"/>
-      <c r="R4" s="25" t="s">
+      <c r="O4" s="35"/>
+      <c r="P4" s="35"/>
+      <c r="Q4" s="35"/>
+      <c r="R4" s="34" t="s">
         <v>71</v>
       </c>
-      <c r="S4" s="25"/>
-      <c r="T4" s="25"/>
-      <c r="U4" s="25"/>
-      <c r="V4" s="26" t="s">
+      <c r="S4" s="34"/>
+      <c r="T4" s="34"/>
+      <c r="U4" s="34"/>
+      <c r="V4" s="35" t="s">
         <v>72</v>
       </c>
-      <c r="W4" s="26"/>
-      <c r="X4" s="26"/>
-      <c r="Y4" s="26"/>
-      <c r="Z4" s="25" t="s">
+      <c r="W4" s="35"/>
+      <c r="X4" s="35"/>
+      <c r="Y4" s="35"/>
+      <c r="Z4" s="34" t="s">
         <v>71</v>
       </c>
-      <c r="AA4" s="25"/>
-      <c r="AB4" s="25"/>
-      <c r="AC4" s="25"/>
-      <c r="AD4" s="26" t="s">
+      <c r="AA4" s="34"/>
+      <c r="AB4" s="34"/>
+      <c r="AC4" s="34"/>
+      <c r="AD4" s="35" t="s">
         <v>72</v>
       </c>
-      <c r="AE4" s="26"/>
-      <c r="AF4" s="26"/>
-      <c r="AG4" s="26"/>
-      <c r="AH4" s="25" t="s">
+      <c r="AE4" s="35"/>
+      <c r="AF4" s="35"/>
+      <c r="AG4" s="35"/>
+      <c r="AH4" s="34" t="s">
         <v>71</v>
       </c>
-      <c r="AI4" s="25"/>
-      <c r="AJ4" s="25"/>
-      <c r="AK4" s="25"/>
-      <c r="AL4" s="26" t="s">
+      <c r="AI4" s="34"/>
+      <c r="AJ4" s="34"/>
+      <c r="AK4" s="34"/>
+      <c r="AL4" s="35" t="s">
         <v>72</v>
       </c>
-      <c r="AM4" s="26"/>
-      <c r="AN4" s="26"/>
-      <c r="AO4" s="26"/>
-      <c r="AP4" s="25" t="s">
+      <c r="AM4" s="35"/>
+      <c r="AN4" s="35"/>
+      <c r="AO4" s="35"/>
+      <c r="AP4" s="34" t="s">
         <v>71</v>
       </c>
-      <c r="AQ4" s="25"/>
-      <c r="AR4" s="25"/>
-      <c r="AS4" s="25"/>
-      <c r="AT4" s="26" t="s">
+      <c r="AQ4" s="34"/>
+      <c r="AR4" s="34"/>
+      <c r="AS4" s="34"/>
+      <c r="AT4" s="35" t="s">
         <v>72</v>
       </c>
-      <c r="AU4" s="26"/>
-      <c r="AV4" s="26"/>
-      <c r="AW4" s="26"/>
-      <c r="AX4" s="25" t="s">
+      <c r="AU4" s="35"/>
+      <c r="AV4" s="35"/>
+      <c r="AW4" s="35"/>
+      <c r="AX4" s="34" t="s">
         <v>71</v>
       </c>
-      <c r="AY4" s="25"/>
-      <c r="AZ4" s="25"/>
-      <c r="BA4" s="25"/>
-      <c r="BB4" s="26" t="s">
+      <c r="AY4" s="34"/>
+      <c r="AZ4" s="34"/>
+      <c r="BA4" s="34"/>
+      <c r="BB4" s="35" t="s">
         <v>72</v>
       </c>
-      <c r="BC4" s="26"/>
-      <c r="BD4" s="26"/>
-      <c r="BE4" s="26"/>
-      <c r="BF4" s="25" t="s">
+      <c r="BC4" s="35"/>
+      <c r="BD4" s="35"/>
+      <c r="BE4" s="35"/>
+      <c r="BF4" s="34" t="s">
         <v>71</v>
       </c>
-      <c r="BG4" s="25"/>
-      <c r="BH4" s="25"/>
-      <c r="BI4" s="25"/>
-      <c r="BJ4" s="26" t="s">
+      <c r="BG4" s="34"/>
+      <c r="BH4" s="34"/>
+      <c r="BI4" s="34"/>
+      <c r="BJ4" s="35" t="s">
         <v>72</v>
       </c>
-      <c r="BK4" s="26"/>
-      <c r="BL4" s="26"/>
-      <c r="BM4" s="26"/>
-      <c r="BN4" s="25" t="s">
+      <c r="BK4" s="35"/>
+      <c r="BL4" s="35"/>
+      <c r="BM4" s="35"/>
+      <c r="BN4" s="34" t="s">
         <v>71</v>
       </c>
-      <c r="BO4" s="25"/>
-      <c r="BP4" s="25"/>
-      <c r="BQ4" s="25"/>
-      <c r="BR4" s="26" t="s">
+      <c r="BO4" s="34"/>
+      <c r="BP4" s="34"/>
+      <c r="BQ4" s="34"/>
+      <c r="BR4" s="35" t="s">
         <v>72</v>
       </c>
-      <c r="BS4" s="26"/>
-      <c r="BT4" s="26"/>
-      <c r="BU4" s="26"/>
-      <c r="BV4" s="25" t="s">
+      <c r="BS4" s="35"/>
+      <c r="BT4" s="35"/>
+      <c r="BU4" s="35"/>
+      <c r="BV4" s="34" t="s">
         <v>71</v>
       </c>
-      <c r="BW4" s="25"/>
-      <c r="BX4" s="25"/>
-      <c r="BY4" s="25"/>
-      <c r="BZ4" s="26" t="s">
+      <c r="BW4" s="34"/>
+      <c r="BX4" s="34"/>
+      <c r="BY4" s="34"/>
+      <c r="BZ4" s="35" t="s">
         <v>72</v>
       </c>
-      <c r="CA4" s="26"/>
-      <c r="CB4" s="26"/>
-      <c r="CC4" s="26"/>
-      <c r="CD4" s="25" t="s">
+      <c r="CA4" s="35"/>
+      <c r="CB4" s="35"/>
+      <c r="CC4" s="35"/>
+      <c r="CD4" s="34" t="s">
         <v>71</v>
       </c>
-      <c r="CE4" s="25"/>
-      <c r="CF4" s="25"/>
-      <c r="CG4" s="25"/>
-      <c r="CH4" s="26" t="s">
+      <c r="CE4" s="34"/>
+      <c r="CF4" s="34"/>
+      <c r="CG4" s="34"/>
+      <c r="CH4" s="35" t="s">
         <v>72</v>
       </c>
-      <c r="CI4" s="26"/>
-      <c r="CJ4" s="26"/>
-      <c r="CK4" s="26"/>
-      <c r="CL4" s="25" t="s">
+      <c r="CI4" s="35"/>
+      <c r="CJ4" s="35"/>
+      <c r="CK4" s="35"/>
+      <c r="CL4" s="34" t="s">
         <v>71</v>
       </c>
-      <c r="CM4" s="25"/>
-      <c r="CN4" s="25"/>
-      <c r="CO4" s="25"/>
-      <c r="CP4" s="26" t="s">
+      <c r="CM4" s="34"/>
+      <c r="CN4" s="34"/>
+      <c r="CO4" s="34"/>
+      <c r="CP4" s="35" t="s">
         <v>72</v>
       </c>
-      <c r="CQ4" s="26"/>
-      <c r="CR4" s="26"/>
-      <c r="CS4" s="26"/>
-      <c r="CT4" s="25" t="s">
+      <c r="CQ4" s="35"/>
+      <c r="CR4" s="35"/>
+      <c r="CS4" s="35"/>
+      <c r="CT4" s="34" t="s">
         <v>71</v>
       </c>
-      <c r="CU4" s="25"/>
-      <c r="CV4" s="25"/>
-      <c r="CW4" s="25"/>
-      <c r="CX4" s="26" t="s">
+      <c r="CU4" s="34"/>
+      <c r="CV4" s="34"/>
+      <c r="CW4" s="34"/>
+      <c r="CX4" s="35" t="s">
         <v>72</v>
       </c>
-      <c r="CY4" s="26"/>
-      <c r="CZ4" s="26"/>
-      <c r="DA4" s="26"/>
-      <c r="DB4" s="25" t="s">
+      <c r="CY4" s="35"/>
+      <c r="CZ4" s="35"/>
+      <c r="DA4" s="35"/>
+      <c r="DB4" s="34" t="s">
         <v>71</v>
       </c>
-      <c r="DC4" s="25"/>
-      <c r="DD4" s="25"/>
-      <c r="DE4" s="25"/>
-      <c r="DF4" s="26" t="s">
+      <c r="DC4" s="34"/>
+      <c r="DD4" s="34"/>
+      <c r="DE4" s="34"/>
+      <c r="DF4" s="35" t="s">
         <v>72</v>
       </c>
-      <c r="DG4" s="26"/>
-      <c r="DH4" s="26"/>
-      <c r="DI4" s="26"/>
-      <c r="DJ4" s="25" t="s">
+      <c r="DG4" s="35"/>
+      <c r="DH4" s="35"/>
+      <c r="DI4" s="35"/>
+      <c r="DJ4" s="34" t="s">
         <v>71</v>
       </c>
-      <c r="DK4" s="25"/>
-      <c r="DL4" s="25"/>
-      <c r="DM4" s="25"/>
-      <c r="DN4" s="26" t="s">
+      <c r="DK4" s="34"/>
+      <c r="DL4" s="34"/>
+      <c r="DM4" s="34"/>
+      <c r="DN4" s="35" t="s">
         <v>72</v>
       </c>
-      <c r="DO4" s="26"/>
-      <c r="DP4" s="26"/>
-      <c r="DQ4" s="26"/>
-      <c r="DR4" s="25" t="s">
+      <c r="DO4" s="35"/>
+      <c r="DP4" s="35"/>
+      <c r="DQ4" s="35"/>
+      <c r="DR4" s="34" t="s">
         <v>71</v>
       </c>
-      <c r="DS4" s="25"/>
-      <c r="DT4" s="25"/>
-      <c r="DU4" s="25"/>
-      <c r="DV4" s="26" t="s">
+      <c r="DS4" s="34"/>
+      <c r="DT4" s="34"/>
+      <c r="DU4" s="34"/>
+      <c r="DV4" s="35" t="s">
         <v>72</v>
       </c>
-      <c r="DW4" s="26"/>
-      <c r="DX4" s="26"/>
-      <c r="DY4" s="26"/>
+      <c r="DW4" s="35"/>
+      <c r="DX4" s="35"/>
+      <c r="DY4" s="35"/>
     </row>
     <row r="5" spans="1:129" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
@@ -6826,7 +6821,7 @@
         <v>0</v>
       </c>
       <c r="G7" s="3">
-        <f t="shared" ref="G7:I7" si="33">G6*0.5</f>
+        <f t="shared" ref="G7:H7" si="33">G6*0.5</f>
         <v>0</v>
       </c>
       <c r="H7" s="3">
@@ -6855,7 +6850,7 @@
         <v>0</v>
       </c>
       <c r="O7" s="3">
-        <f t="shared" ref="O7:Q7" si="35">O6*0.5</f>
+        <f t="shared" ref="O7:P7" si="35">O6*0.5</f>
         <v>0</v>
       </c>
       <c r="P7" s="3">
@@ -6884,7 +6879,7 @@
         <v>0</v>
       </c>
       <c r="W7" s="3">
-        <f t="shared" ref="W7:Y7" si="38">W6*0.5</f>
+        <f t="shared" ref="W7:X7" si="38">W6*0.5</f>
         <v>0</v>
       </c>
       <c r="X7" s="3">
@@ -6913,7 +6908,7 @@
         <v>0</v>
       </c>
       <c r="AE7" s="3">
-        <f t="shared" ref="AE7:AG7" si="41">AE6*0.5</f>
+        <f t="shared" ref="AE7:AF7" si="41">AE6*0.5</f>
         <v>0</v>
       </c>
       <c r="AF7" s="3">
@@ -6942,7 +6937,7 @@
         <v>0</v>
       </c>
       <c r="AM7" s="3">
-        <f t="shared" ref="AM7:AO7" si="44">AM6*0.5</f>
+        <f t="shared" ref="AM7:AN7" si="44">AM6*0.5</f>
         <v>0</v>
       </c>
       <c r="AN7" s="3">
@@ -6971,7 +6966,7 @@
         <v>0</v>
       </c>
       <c r="AU7" s="3">
-        <f t="shared" ref="AU7:AW7" si="46">AU6*0.5</f>
+        <f t="shared" ref="AU7:AV7" si="46">AU6*0.5</f>
         <v>0</v>
       </c>
       <c r="AV7" s="3">
@@ -7000,7 +6995,7 @@
         <v>0</v>
       </c>
       <c r="BC7" s="3">
-        <f t="shared" ref="BC7:BE7" si="49">BC6*0.5</f>
+        <f t="shared" ref="BC7:BD7" si="49">BC6*0.5</f>
         <v>0</v>
       </c>
       <c r="BD7" s="3">
@@ -7029,7 +7024,7 @@
         <v>0</v>
       </c>
       <c r="BK7" s="3">
-        <f t="shared" ref="BK7:BM7" si="52">BK6*0.5</f>
+        <f t="shared" ref="BK7:BL7" si="52">BK6*0.5</f>
         <v>0</v>
       </c>
       <c r="BL7" s="3">
@@ -7058,7 +7053,7 @@
         <v>0</v>
       </c>
       <c r="BS7" s="3">
-        <f t="shared" ref="BS7:BU7" si="55">BS6*0.5</f>
+        <f t="shared" ref="BS7:BT7" si="55">BS6*0.5</f>
         <v>0</v>
       </c>
       <c r="BT7" s="3">
@@ -7087,7 +7082,7 @@
         <v>0</v>
       </c>
       <c r="CA7" s="3">
-        <f t="shared" ref="CA7:CC7" si="57">CA6*0.5</f>
+        <f t="shared" ref="CA7:CB7" si="57">CA6*0.5</f>
         <v>0</v>
       </c>
       <c r="CB7" s="3">
@@ -7116,7 +7111,7 @@
         <v>0</v>
       </c>
       <c r="CI7" s="3">
-        <f t="shared" ref="CI7:CK7" si="60">CI6*0.5</f>
+        <f t="shared" ref="CI7:CJ7" si="60">CI6*0.5</f>
         <v>0</v>
       </c>
       <c r="CJ7" s="3">
@@ -7145,7 +7140,7 @@
         <v>0</v>
       </c>
       <c r="CQ7" s="3">
-        <f t="shared" ref="CQ7:CS7" si="63">CQ6*0.5</f>
+        <f t="shared" ref="CQ7:CR7" si="63">CQ6*0.5</f>
         <v>0</v>
       </c>
       <c r="CR7" s="3">
@@ -7174,7 +7169,7 @@
         <v>0</v>
       </c>
       <c r="CY7" s="3">
-        <f t="shared" ref="CY7:DA7" si="66">CY6*0.5</f>
+        <f t="shared" ref="CY7:CZ7" si="66">CY6*0.5</f>
         <v>0</v>
       </c>
       <c r="CZ7" s="3">
@@ -7203,7 +7198,7 @@
         <v>0</v>
       </c>
       <c r="DG7" s="3">
-        <f t="shared" ref="DG7:DI7" si="68">DG6*0.5</f>
+        <f t="shared" ref="DG7:DH7" si="68">DG6*0.5</f>
         <v>0</v>
       </c>
       <c r="DH7" s="3">
@@ -7232,7 +7227,7 @@
         <v>0</v>
       </c>
       <c r="DO7" s="3">
-        <f t="shared" ref="DO7:DQ7" si="71">DO6*0.5</f>
+        <f t="shared" ref="DO7:DP7" si="71">DO6*0.5</f>
         <v>0</v>
       </c>
       <c r="DP7" s="3">
@@ -7261,7 +7256,7 @@
         <v>0</v>
       </c>
       <c r="DW7" s="3">
-        <f t="shared" ref="DW7:DY7" si="74">DW6*0.5</f>
+        <f t="shared" ref="DW7:DX7" si="74">DW6*0.5</f>
         <v>0</v>
       </c>
       <c r="DX7" s="3">
@@ -10790,76 +10785,114 @@
       </c>
     </row>
     <row r="33" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B33" s="40">
+      <c r="B33" s="24">
         <v>30</v>
       </c>
-      <c r="C33" s="41">
+      <c r="C33" s="25">
         <v>40</v>
       </c>
-      <c r="D33" s="41">
+      <c r="D33" s="25">
         <v>40</v>
       </c>
-      <c r="E33" s="41">
+      <c r="E33" s="25">
         <v>80</v>
       </c>
     </row>
     <row r="34" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B34" s="42">
+      <c r="B34" s="26">
         <v>30</v>
       </c>
-      <c r="C34" s="43">
+      <c r="C34" s="27">
         <v>40</v>
       </c>
-      <c r="D34" s="43">
+      <c r="D34" s="27">
         <v>45</v>
       </c>
-      <c r="E34" s="43">
+      <c r="E34" s="27">
         <v>90</v>
       </c>
     </row>
     <row r="35" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B35" s="42">
+      <c r="B35" s="26">
         <v>30</v>
       </c>
-      <c r="C35" s="43">
+      <c r="C35" s="27">
         <v>40</v>
       </c>
-      <c r="D35" s="43">
+      <c r="D35" s="27">
         <v>35</v>
       </c>
-      <c r="E35" s="43">
+      <c r="E35" s="27">
         <v>80</v>
       </c>
     </row>
     <row r="36" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B36" s="42">
+      <c r="B36" s="26">
         <v>30</v>
       </c>
-      <c r="C36" s="43">
+      <c r="C36" s="27">
         <v>40</v>
       </c>
-      <c r="D36" s="43">
+      <c r="D36" s="27">
         <v>40</v>
       </c>
-      <c r="E36" s="43">
+      <c r="E36" s="27">
         <v>90</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="80">
-    <mergeCell ref="DB2:DI2"/>
-    <mergeCell ref="DJ2:DQ2"/>
-    <mergeCell ref="DR2:DY2"/>
-    <mergeCell ref="BN2:BU2"/>
-    <mergeCell ref="BV2:CC2"/>
-    <mergeCell ref="CD2:CK2"/>
-    <mergeCell ref="CL2:CS2"/>
-    <mergeCell ref="CT2:DA2"/>
-    <mergeCell ref="Z2:AG2"/>
-    <mergeCell ref="AH2:AO2"/>
-    <mergeCell ref="AP2:AW2"/>
-    <mergeCell ref="AX2:BE2"/>
-    <mergeCell ref="BF2:BM2"/>
+    <mergeCell ref="B1:I1"/>
+    <mergeCell ref="J1:Q1"/>
+    <mergeCell ref="B2:I2"/>
+    <mergeCell ref="J2:Q2"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="F4:I4"/>
+    <mergeCell ref="J4:M4"/>
+    <mergeCell ref="N4:Q4"/>
+    <mergeCell ref="B3:I3"/>
+    <mergeCell ref="J3:Q3"/>
+    <mergeCell ref="R4:U4"/>
+    <mergeCell ref="V4:Y4"/>
+    <mergeCell ref="Z4:AC4"/>
+    <mergeCell ref="AD4:AG4"/>
+    <mergeCell ref="AH4:AK4"/>
+    <mergeCell ref="AL4:AO4"/>
+    <mergeCell ref="AP4:AS4"/>
+    <mergeCell ref="AT4:AW4"/>
+    <mergeCell ref="AX4:BA4"/>
+    <mergeCell ref="BB4:BE4"/>
+    <mergeCell ref="BF4:BI4"/>
+    <mergeCell ref="BJ4:BM4"/>
+    <mergeCell ref="BN4:BQ4"/>
+    <mergeCell ref="BR4:BU4"/>
+    <mergeCell ref="BV4:BY4"/>
+    <mergeCell ref="BZ4:CC4"/>
+    <mergeCell ref="CD4:CG4"/>
+    <mergeCell ref="CH4:CK4"/>
+    <mergeCell ref="CL4:CO4"/>
+    <mergeCell ref="CP4:CS4"/>
+    <mergeCell ref="CT4:CW4"/>
+    <mergeCell ref="CX4:DA4"/>
+    <mergeCell ref="DB4:DE4"/>
+    <mergeCell ref="DF4:DI4"/>
+    <mergeCell ref="DJ4:DM4"/>
+    <mergeCell ref="DN4:DQ4"/>
+    <mergeCell ref="DR4:DU4"/>
+    <mergeCell ref="DV4:DY4"/>
+    <mergeCell ref="R3:Y3"/>
+    <mergeCell ref="Z3:AG3"/>
+    <mergeCell ref="AH3:AO3"/>
+    <mergeCell ref="AP3:AW3"/>
+    <mergeCell ref="AX3:BE3"/>
+    <mergeCell ref="BF3:BM3"/>
+    <mergeCell ref="BN3:BU3"/>
+    <mergeCell ref="BV3:CC3"/>
+    <mergeCell ref="CD3:CK3"/>
+    <mergeCell ref="CL3:CS3"/>
+    <mergeCell ref="CT3:DA3"/>
+    <mergeCell ref="DB3:DI3"/>
+    <mergeCell ref="DJ3:DQ3"/>
     <mergeCell ref="DR3:DY3"/>
     <mergeCell ref="R1:Y1"/>
     <mergeCell ref="Z1:AG1"/>
@@ -10876,57 +10909,19 @@
     <mergeCell ref="DJ1:DQ1"/>
     <mergeCell ref="DR1:DY1"/>
     <mergeCell ref="R2:Y2"/>
-    <mergeCell ref="DN4:DQ4"/>
-    <mergeCell ref="DR4:DU4"/>
-    <mergeCell ref="DV4:DY4"/>
-    <mergeCell ref="R3:Y3"/>
-    <mergeCell ref="Z3:AG3"/>
-    <mergeCell ref="AH3:AO3"/>
-    <mergeCell ref="AP3:AW3"/>
-    <mergeCell ref="AX3:BE3"/>
-    <mergeCell ref="BF3:BM3"/>
-    <mergeCell ref="BN3:BU3"/>
-    <mergeCell ref="BV3:CC3"/>
-    <mergeCell ref="CD3:CK3"/>
-    <mergeCell ref="CL3:CS3"/>
-    <mergeCell ref="CT3:DA3"/>
-    <mergeCell ref="DB3:DI3"/>
-    <mergeCell ref="DJ3:DQ3"/>
-    <mergeCell ref="CT4:CW4"/>
-    <mergeCell ref="CX4:DA4"/>
-    <mergeCell ref="DB4:DE4"/>
-    <mergeCell ref="DF4:DI4"/>
-    <mergeCell ref="DJ4:DM4"/>
-    <mergeCell ref="BZ4:CC4"/>
-    <mergeCell ref="CD4:CG4"/>
-    <mergeCell ref="CH4:CK4"/>
-    <mergeCell ref="CL4:CO4"/>
-    <mergeCell ref="CP4:CS4"/>
-    <mergeCell ref="BF4:BI4"/>
-    <mergeCell ref="BJ4:BM4"/>
-    <mergeCell ref="BN4:BQ4"/>
-    <mergeCell ref="BR4:BU4"/>
-    <mergeCell ref="BV4:BY4"/>
-    <mergeCell ref="AL4:AO4"/>
-    <mergeCell ref="AP4:AS4"/>
-    <mergeCell ref="AT4:AW4"/>
-    <mergeCell ref="AX4:BA4"/>
-    <mergeCell ref="BB4:BE4"/>
-    <mergeCell ref="R4:U4"/>
-    <mergeCell ref="V4:Y4"/>
-    <mergeCell ref="Z4:AC4"/>
-    <mergeCell ref="AD4:AG4"/>
-    <mergeCell ref="AH4:AK4"/>
-    <mergeCell ref="B1:I1"/>
-    <mergeCell ref="J1:Q1"/>
-    <mergeCell ref="B2:I2"/>
-    <mergeCell ref="J2:Q2"/>
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="F4:I4"/>
-    <mergeCell ref="J4:M4"/>
-    <mergeCell ref="N4:Q4"/>
-    <mergeCell ref="B3:I3"/>
-    <mergeCell ref="J3:Q3"/>
+    <mergeCell ref="Z2:AG2"/>
+    <mergeCell ref="AH2:AO2"/>
+    <mergeCell ref="AP2:AW2"/>
+    <mergeCell ref="AX2:BE2"/>
+    <mergeCell ref="BF2:BM2"/>
+    <mergeCell ref="DB2:DI2"/>
+    <mergeCell ref="DJ2:DQ2"/>
+    <mergeCell ref="DR2:DY2"/>
+    <mergeCell ref="BN2:BU2"/>
+    <mergeCell ref="BV2:CC2"/>
+    <mergeCell ref="CD2:CK2"/>
+    <mergeCell ref="CL2:CS2"/>
+    <mergeCell ref="CT2:DA2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -10949,106 +10944,106 @@
       <c r="A1" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="B1" s="31" t="s">
+      <c r="B1" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="31" t="s">
+      <c r="C1" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="31" t="s">
+      <c r="D1" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="E1" s="31" t="s">
+      <c r="E1" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
-      <c r="H1" s="33"/>
-      <c r="I1" s="33"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
+      <c r="I1" s="22"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" s="32">
+      <c r="B2" s="21">
         <v>26</v>
       </c>
-      <c r="C2" s="32">
+      <c r="C2" s="21">
         <v>29</v>
       </c>
-      <c r="D2" s="32">
+      <c r="D2" s="21">
         <v>30</v>
       </c>
-      <c r="E2" s="32">
+      <c r="E2" s="21">
         <v>28</v>
       </c>
-      <c r="F2" s="34"/>
-      <c r="G2" s="34"/>
-      <c r="H2" s="34"/>
-      <c r="I2" s="34"/>
+      <c r="F2" s="23"/>
+      <c r="G2" s="23"/>
+      <c r="H2" s="23"/>
+      <c r="I2" s="23"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3" s="32">
+      <c r="B3" s="21">
         <v>28</v>
       </c>
-      <c r="C3" s="32">
+      <c r="C3" s="21">
         <v>31</v>
       </c>
-      <c r="D3" s="32">
+      <c r="D3" s="21">
         <v>32</v>
       </c>
-      <c r="E3" s="32">
+      <c r="E3" s="21">
         <v>30</v>
       </c>
-      <c r="F3" s="34"/>
-      <c r="G3" s="34"/>
-      <c r="H3" s="34"/>
-      <c r="I3" s="34"/>
+      <c r="F3" s="23"/>
+      <c r="G3" s="23"/>
+      <c r="H3" s="23"/>
+      <c r="I3" s="23"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>3</v>
       </c>
-      <c r="B4" s="32">
+      <c r="B4" s="21">
         <v>27</v>
       </c>
-      <c r="C4" s="32">
+      <c r="C4" s="21">
         <v>30</v>
       </c>
-      <c r="D4" s="32">
+      <c r="D4" s="21">
         <v>31</v>
       </c>
-      <c r="E4" s="32">
+      <c r="E4" s="21">
         <v>29</v>
       </c>
-      <c r="F4" s="34"/>
-      <c r="G4" s="34"/>
-      <c r="H4" s="34"/>
-      <c r="I4" s="34"/>
+      <c r="F4" s="23"/>
+      <c r="G4" s="23"/>
+      <c r="H4" s="23"/>
+      <c r="I4" s="23"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>4</v>
       </c>
-      <c r="B5" s="32">
+      <c r="B5" s="21">
         <v>29</v>
       </c>
-      <c r="C5" s="32">
+      <c r="C5" s="21">
         <v>32</v>
       </c>
-      <c r="D5" s="32">
+      <c r="D5" s="21">
         <v>33</v>
       </c>
-      <c r="E5" s="32">
+      <c r="E5" s="21">
         <v>31</v>
       </c>
-      <c r="F5" s="34"/>
-      <c r="G5" s="34"/>
-      <c r="H5" s="34"/>
-      <c r="I5" s="34"/>
+      <c r="F5" s="23"/>
+      <c r="G5" s="23"/>
+      <c r="H5" s="23"/>
+      <c r="I5" s="23"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -11069,16 +11064,16 @@
       <c r="A1" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="B1" s="31" t="s">
+      <c r="B1" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="31" t="s">
+      <c r="C1" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="31" t="s">
+      <c r="D1" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="E1" s="31" t="s">
+      <c r="E1" s="20" t="s">
         <v>16</v>
       </c>
     </row>
@@ -11086,16 +11081,16 @@
       <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" s="32">
-        <v>1</v>
-      </c>
-      <c r="C2" s="32">
-        <v>1</v>
-      </c>
-      <c r="D2" s="32">
-        <v>1</v>
-      </c>
-      <c r="E2" s="32">
+      <c r="B2" s="21">
+        <v>1</v>
+      </c>
+      <c r="C2" s="21">
+        <v>1</v>
+      </c>
+      <c r="D2" s="21">
+        <v>1</v>
+      </c>
+      <c r="E2" s="21">
         <v>1</v>
       </c>
     </row>
@@ -11103,16 +11098,16 @@
       <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3" s="32">
-        <v>1</v>
-      </c>
-      <c r="C3" s="32">
-        <v>1</v>
-      </c>
-      <c r="D3" s="32">
-        <v>1</v>
-      </c>
-      <c r="E3" s="32">
+      <c r="B3" s="21">
+        <v>1</v>
+      </c>
+      <c r="C3" s="21">
+        <v>1</v>
+      </c>
+      <c r="D3" s="21">
+        <v>1</v>
+      </c>
+      <c r="E3" s="21">
         <v>1</v>
       </c>
     </row>
@@ -11120,16 +11115,16 @@
       <c r="A4" s="1">
         <v>3</v>
       </c>
-      <c r="B4" s="32">
-        <v>1</v>
-      </c>
-      <c r="C4" s="32">
-        <v>1</v>
-      </c>
-      <c r="D4" s="32">
-        <v>1</v>
-      </c>
-      <c r="E4" s="32">
+      <c r="B4" s="21">
+        <v>1</v>
+      </c>
+      <c r="C4" s="21">
+        <v>1</v>
+      </c>
+      <c r="D4" s="21">
+        <v>1</v>
+      </c>
+      <c r="E4" s="21">
         <v>1</v>
       </c>
     </row>
@@ -11137,16 +11132,16 @@
       <c r="A5" s="1">
         <v>4</v>
       </c>
-      <c r="B5" s="32">
-        <v>1</v>
-      </c>
-      <c r="C5" s="32">
-        <v>1</v>
-      </c>
-      <c r="D5" s="32">
-        <v>1</v>
-      </c>
-      <c r="E5" s="32">
+      <c r="B5" s="21">
+        <v>1</v>
+      </c>
+      <c r="C5" s="21">
+        <v>1</v>
+      </c>
+      <c r="D5" s="21">
+        <v>1</v>
+      </c>
+      <c r="E5" s="21">
         <v>1</v>
       </c>
     </row>

--- a/Data/FodstadData.xlsx
+++ b/Data/FodstadData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/berendmarkhorst/Library/Mobile Documents/com~apple~CloudDocs/PhD/READINESS/08 - Trondheim/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D38EB058-2698-A943-89DA-BBF6652BB1E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61D883B4-4E9D-C349-BC28-4096DC8BEC44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="51200" windowHeight="26860" activeTab="2" xr2:uid="{D82E7092-1A4C-0041-9612-C431AA3B912B}"/>
   </bookViews>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="126">
   <si>
     <t>ID</t>
   </si>
@@ -699,7 +699,7 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="2" applyBorder="1"/>
@@ -736,6 +736,7 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -751,22 +752,13 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -779,6 +771,15 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1161,10 +1162,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F599A445-15C0-AB40-A0A7-7DAECA950535}">
-  <dimension ref="A1:B13"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1172,90 +1173,81 @@
     <col min="1" max="1" width="13.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>124</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B5" s="28" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="1" t="s">
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" s="16" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A13" s="1" t="s">
-        <v>113</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -1429,7 +1421,7 @@
   <dimension ref="A1:AI23"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="K1" zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
-      <selection activeCell="U19" sqref="U19"/>
+      <selection activeCell="R4" sqref="R4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1476,40 +1468,40 @@
       <c r="E1" s="8"/>
       <c r="F1" s="8"/>
       <c r="G1" s="8"/>
-      <c r="H1" s="28" t="str">
+      <c r="H1" s="29" t="str">
         <f>Commodities!B2</f>
         <v>gas</v>
       </c>
-      <c r="I1" s="28"/>
-      <c r="J1" s="28"/>
-      <c r="K1" s="28"/>
-      <c r="L1" s="28"/>
-      <c r="M1" s="28"/>
-      <c r="N1" s="28"/>
-      <c r="O1" s="28"/>
-      <c r="P1" s="28"/>
-      <c r="Q1" s="28"/>
-      <c r="R1" s="28"/>
-      <c r="S1" s="28"/>
-      <c r="T1" s="28"/>
-      <c r="U1" s="29"/>
-      <c r="V1" s="30" t="str">
+      <c r="I1" s="29"/>
+      <c r="J1" s="29"/>
+      <c r="K1" s="29"/>
+      <c r="L1" s="29"/>
+      <c r="M1" s="29"/>
+      <c r="N1" s="29"/>
+      <c r="O1" s="29"/>
+      <c r="P1" s="29"/>
+      <c r="Q1" s="29"/>
+      <c r="R1" s="29"/>
+      <c r="S1" s="29"/>
+      <c r="T1" s="29"/>
+      <c r="U1" s="30"/>
+      <c r="V1" s="31" t="str">
         <f>Commodities!B3</f>
         <v>hydrogen</v>
       </c>
-      <c r="W1" s="31"/>
-      <c r="X1" s="31"/>
-      <c r="Y1" s="31"/>
-      <c r="Z1" s="31"/>
-      <c r="AA1" s="31"/>
-      <c r="AB1" s="31"/>
-      <c r="AC1" s="31"/>
-      <c r="AD1" s="31"/>
-      <c r="AE1" s="31"/>
-      <c r="AF1" s="31"/>
-      <c r="AG1" s="31"/>
-      <c r="AH1" s="31"/>
-      <c r="AI1" s="32"/>
+      <c r="W1" s="32"/>
+      <c r="X1" s="32"/>
+      <c r="Y1" s="32"/>
+      <c r="Z1" s="32"/>
+      <c r="AA1" s="32"/>
+      <c r="AB1" s="32"/>
+      <c r="AC1" s="32"/>
+      <c r="AD1" s="32"/>
+      <c r="AE1" s="32"/>
+      <c r="AF1" s="32"/>
+      <c r="AG1" s="32"/>
+      <c r="AH1" s="32"/>
+      <c r="AI1" s="33"/>
     </row>
     <row r="2" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
@@ -1668,16 +1660,16 @@
         <v>1</v>
       </c>
       <c r="R3" s="2">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="S3" s="2">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="T3" s="2">
-        <v>0.3</v>
+        <v>0.35</v>
       </c>
       <c r="U3" s="2">
-        <v>0.3</v>
+        <v>0.35</v>
       </c>
       <c r="V3" s="3">
         <v>5</v>
@@ -1773,16 +1765,16 @@
         <v>1</v>
       </c>
       <c r="R4" s="2">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="S4" s="2">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="T4" s="2">
-        <v>0.3</v>
+        <v>0.35</v>
       </c>
       <c r="U4" s="2">
-        <v>0.3</v>
+        <v>0.35</v>
       </c>
       <c r="V4" s="3">
         <v>5</v>
@@ -1878,16 +1870,16 @@
         <v>1</v>
       </c>
       <c r="R5" s="2">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="S5" s="2">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="T5" s="2">
-        <v>0.3</v>
+        <v>0.35</v>
       </c>
       <c r="U5" s="2">
-        <v>0.3</v>
+        <v>0.35</v>
       </c>
       <c r="V5" s="3">
         <v>5</v>
@@ -1982,16 +1974,16 @@
         <v>1</v>
       </c>
       <c r="R6" s="2">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="S6" s="2">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="T6" s="2">
-        <v>0.3</v>
+        <v>0.35</v>
       </c>
       <c r="U6" s="2">
-        <v>0.3</v>
+        <v>0.35</v>
       </c>
       <c r="V6" s="3">
         <v>5</v>
@@ -2087,16 +2079,16 @@
         <v>1</v>
       </c>
       <c r="R7" s="2">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="S7" s="2">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="T7" s="2">
-        <v>0.3</v>
+        <v>0.35</v>
       </c>
       <c r="U7" s="2">
-        <v>0.3</v>
+        <v>0.35</v>
       </c>
       <c r="V7" s="3">
         <v>5</v>
@@ -2190,16 +2182,16 @@
         <v>1</v>
       </c>
       <c r="R8" s="2">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="S8" s="2">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="T8" s="2">
-        <v>0.3</v>
+        <v>0.35</v>
       </c>
       <c r="U8" s="2">
-        <v>0.3</v>
+        <v>0.35</v>
       </c>
       <c r="V8" s="3">
         <v>5</v>
@@ -2294,16 +2286,16 @@
         <v>1</v>
       </c>
       <c r="R9" s="2">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="S9" s="2">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="T9" s="2">
-        <v>0.3</v>
+        <v>0.35</v>
       </c>
       <c r="U9" s="2">
-        <v>0.3</v>
+        <v>0.35</v>
       </c>
       <c r="V9" s="3">
         <v>5</v>
@@ -2399,16 +2391,16 @@
         <v>1</v>
       </c>
       <c r="R10" s="2">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="S10" s="2">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="T10" s="2">
-        <v>0.3</v>
+        <v>0.35</v>
       </c>
       <c r="U10" s="2">
-        <v>0.3</v>
+        <v>0.35</v>
       </c>
       <c r="V10" s="3">
         <v>5</v>
@@ -2502,16 +2494,16 @@
         <v>1</v>
       </c>
       <c r="R11" s="2">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="S11" s="2">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="T11" s="2">
-        <v>0.3</v>
+        <v>0.35</v>
       </c>
       <c r="U11" s="2">
-        <v>0.3</v>
+        <v>0.35</v>
       </c>
       <c r="V11" s="3">
         <v>5</v>
@@ -2607,16 +2599,16 @@
         <v>1</v>
       </c>
       <c r="R12" s="2">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="S12" s="2">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="T12" s="2">
-        <v>0.3</v>
+        <v>0.35</v>
       </c>
       <c r="U12" s="2">
-        <v>0.3</v>
+        <v>0.35</v>
       </c>
       <c r="V12" s="3">
         <v>5</v>
@@ -2712,16 +2704,16 @@
         <v>1</v>
       </c>
       <c r="R13" s="2">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="S13" s="2">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="T13" s="2">
-        <v>0.3</v>
+        <v>0.35</v>
       </c>
       <c r="U13" s="2">
-        <v>0.3</v>
+        <v>0.35</v>
       </c>
       <c r="V13" s="3">
         <v>5</v>
@@ -2817,16 +2809,16 @@
         <v>1</v>
       </c>
       <c r="R14" s="2">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="S14" s="2">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="T14" s="2">
-        <v>0.3</v>
+        <v>0.35</v>
       </c>
       <c r="U14" s="2">
-        <v>0.3</v>
+        <v>0.35</v>
       </c>
       <c r="V14" s="3">
         <v>5</v>
@@ -2924,16 +2916,16 @@
         <v>1</v>
       </c>
       <c r="R15" s="2">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="S15" s="2">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="T15" s="2">
-        <v>0.3</v>
+        <v>0.35</v>
       </c>
       <c r="U15" s="2">
-        <v>0.3</v>
+        <v>0.35</v>
       </c>
       <c r="V15" s="3">
         <v>5</v>
@@ -3032,16 +3024,16 @@
         <v>1</v>
       </c>
       <c r="R16" s="2">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="S16" s="2">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="T16" s="2">
-        <v>0.3</v>
+        <v>0.35</v>
       </c>
       <c r="U16" s="2">
-        <v>0.3</v>
+        <v>0.35</v>
       </c>
       <c r="V16" s="3">
         <v>5</v>
@@ -3140,16 +3132,16 @@
         <v>1</v>
       </c>
       <c r="R17" s="2">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="S17" s="2">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="T17" s="2">
-        <v>0.3</v>
+        <v>0.35</v>
       </c>
       <c r="U17" s="2">
-        <v>0.3</v>
+        <v>0.35</v>
       </c>
       <c r="V17" s="3">
         <v>5</v>
@@ -3248,16 +3240,16 @@
         <v>1</v>
       </c>
       <c r="R18" s="2">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="S18" s="2">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="T18" s="2">
-        <v>0.3</v>
+        <v>0.35</v>
       </c>
       <c r="U18" s="2">
-        <v>0.3</v>
+        <v>0.35</v>
       </c>
       <c r="V18" s="3">
         <v>5</v>
@@ -3356,16 +3348,16 @@
         <v>1</v>
       </c>
       <c r="R19" s="2">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="S19" s="2">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="T19" s="2">
-        <v>0.3</v>
+        <v>0.35</v>
       </c>
       <c r="U19" s="2">
-        <v>0.3</v>
+        <v>0.35</v>
       </c>
       <c r="V19" s="3">
         <v>5</v>
@@ -3462,16 +3454,16 @@
         <v>1</v>
       </c>
       <c r="R20" s="2">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="S20" s="2">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="T20" s="2">
-        <v>0.3</v>
+        <v>0.35</v>
       </c>
       <c r="U20" s="2">
-        <v>0.3</v>
+        <v>0.35</v>
       </c>
       <c r="V20" s="3">
         <v>5</v>
@@ -3565,98 +3557,98 @@
       <c r="A1" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="B1" s="33">
+      <c r="B1" s="36">
         <v>2</v>
       </c>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
-      <c r="H1" s="33"/>
-      <c r="I1" s="33"/>
-      <c r="J1" s="33">
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="36"/>
+      <c r="H1" s="36"/>
+      <c r="I1" s="36"/>
+      <c r="J1" s="36">
         <f>B1+Parameters!$B$5</f>
         <v>6</v>
       </c>
-      <c r="K1" s="33"/>
-      <c r="L1" s="33"/>
-      <c r="M1" s="33"/>
-      <c r="N1" s="33"/>
-      <c r="O1" s="33"/>
-      <c r="P1" s="33"/>
-      <c r="Q1" s="33"/>
-      <c r="R1" s="33">
+      <c r="K1" s="36"/>
+      <c r="L1" s="36"/>
+      <c r="M1" s="36"/>
+      <c r="N1" s="36"/>
+      <c r="O1" s="36"/>
+      <c r="P1" s="36"/>
+      <c r="Q1" s="36"/>
+      <c r="R1" s="36">
         <f>J1+Parameters!$B$5</f>
         <v>10</v>
       </c>
-      <c r="S1" s="33"/>
-      <c r="T1" s="33"/>
-      <c r="U1" s="33"/>
-      <c r="V1" s="33"/>
-      <c r="W1" s="33"/>
-      <c r="X1" s="33"/>
-      <c r="Y1" s="33"/>
-      <c r="Z1" s="33">
+      <c r="S1" s="36"/>
+      <c r="T1" s="36"/>
+      <c r="U1" s="36"/>
+      <c r="V1" s="36"/>
+      <c r="W1" s="36"/>
+      <c r="X1" s="36"/>
+      <c r="Y1" s="36"/>
+      <c r="Z1" s="36">
         <f>R1+Parameters!$B$5</f>
         <v>14</v>
       </c>
-      <c r="AA1" s="33"/>
-      <c r="AB1" s="33"/>
-      <c r="AC1" s="33"/>
-      <c r="AD1" s="33"/>
-      <c r="AE1" s="33"/>
-      <c r="AF1" s="33"/>
-      <c r="AG1" s="33"/>
+      <c r="AA1" s="36"/>
+      <c r="AB1" s="36"/>
+      <c r="AC1" s="36"/>
+      <c r="AD1" s="36"/>
+      <c r="AE1" s="36"/>
+      <c r="AF1" s="36"/>
+      <c r="AG1" s="36"/>
     </row>
     <row r="2" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="B2" s="33">
+      <c r="B2" s="36">
         <f>1/2</f>
         <v>0.5</v>
       </c>
-      <c r="C2" s="33"/>
-      <c r="D2" s="33"/>
-      <c r="E2" s="33"/>
-      <c r="F2" s="33"/>
-      <c r="G2" s="33"/>
-      <c r="H2" s="33"/>
-      <c r="I2" s="33"/>
-      <c r="J2" s="33">
+      <c r="C2" s="36"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="36"/>
+      <c r="F2" s="36"/>
+      <c r="G2" s="36"/>
+      <c r="H2" s="36"/>
+      <c r="I2" s="36"/>
+      <c r="J2" s="36">
         <f>3/24</f>
         <v>0.125</v>
       </c>
-      <c r="K2" s="33"/>
-      <c r="L2" s="33"/>
-      <c r="M2" s="33"/>
-      <c r="N2" s="33"/>
-      <c r="O2" s="33"/>
-      <c r="P2" s="33"/>
-      <c r="Q2" s="33"/>
-      <c r="R2" s="33">
+      <c r="K2" s="36"/>
+      <c r="L2" s="36"/>
+      <c r="M2" s="36"/>
+      <c r="N2" s="36"/>
+      <c r="O2" s="36"/>
+      <c r="P2" s="36"/>
+      <c r="Q2" s="36"/>
+      <c r="R2" s="36">
         <f>6/24</f>
         <v>0.25</v>
       </c>
-      <c r="S2" s="33"/>
-      <c r="T2" s="33"/>
-      <c r="U2" s="33"/>
-      <c r="V2" s="33"/>
-      <c r="W2" s="33"/>
-      <c r="X2" s="33"/>
-      <c r="Y2" s="33"/>
-      <c r="Z2" s="33">
+      <c r="S2" s="36"/>
+      <c r="T2" s="36"/>
+      <c r="U2" s="36"/>
+      <c r="V2" s="36"/>
+      <c r="W2" s="36"/>
+      <c r="X2" s="36"/>
+      <c r="Y2" s="36"/>
+      <c r="Z2" s="36">
         <f>3/24</f>
         <v>0.125</v>
       </c>
-      <c r="AA2" s="33"/>
-      <c r="AB2" s="33"/>
-      <c r="AC2" s="33"/>
-      <c r="AD2" s="33"/>
-      <c r="AE2" s="33"/>
-      <c r="AF2" s="33"/>
-      <c r="AG2" s="33"/>
+      <c r="AA2" s="36"/>
+      <c r="AB2" s="36"/>
+      <c r="AC2" s="36"/>
+      <c r="AD2" s="36"/>
+      <c r="AE2" s="36"/>
+      <c r="AF2" s="36"/>
+      <c r="AG2" s="36"/>
     </row>
     <row r="3" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A3" s="4"/>
@@ -5103,6 +5095,14 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="R1:Y1"/>
+    <mergeCell ref="R2:Y2"/>
+    <mergeCell ref="R3:U3"/>
+    <mergeCell ref="V3:Y3"/>
+    <mergeCell ref="Z1:AG1"/>
+    <mergeCell ref="Z2:AG2"/>
+    <mergeCell ref="Z3:AC3"/>
+    <mergeCell ref="AD3:AG3"/>
     <mergeCell ref="B3:E3"/>
     <mergeCell ref="F3:I3"/>
     <mergeCell ref="B1:I1"/>
@@ -5111,14 +5111,6 @@
     <mergeCell ref="J2:Q2"/>
     <mergeCell ref="J3:M3"/>
     <mergeCell ref="N3:Q3"/>
-    <mergeCell ref="R1:Y1"/>
-    <mergeCell ref="R2:Y2"/>
-    <mergeCell ref="R3:U3"/>
-    <mergeCell ref="V3:Y3"/>
-    <mergeCell ref="Z1:AG1"/>
-    <mergeCell ref="Z2:AG2"/>
-    <mergeCell ref="Z3:AC3"/>
-    <mergeCell ref="AD3:AG3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5143,527 +5135,527 @@
       <c r="A1" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="B1" s="33">
+      <c r="B1" s="36">
         <v>18</v>
       </c>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
-      <c r="H1" s="33"/>
-      <c r="I1" s="33"/>
-      <c r="J1" s="33">
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="36"/>
+      <c r="H1" s="36"/>
+      <c r="I1" s="36"/>
+      <c r="J1" s="36">
         <f>B1+Parameters!$B$5</f>
         <v>22</v>
       </c>
-      <c r="K1" s="33"/>
-      <c r="L1" s="33"/>
-      <c r="M1" s="33"/>
-      <c r="N1" s="33"/>
-      <c r="O1" s="33"/>
-      <c r="P1" s="33"/>
-      <c r="Q1" s="33"/>
-      <c r="R1" s="33">
+      <c r="K1" s="36"/>
+      <c r="L1" s="36"/>
+      <c r="M1" s="36"/>
+      <c r="N1" s="36"/>
+      <c r="O1" s="36"/>
+      <c r="P1" s="36"/>
+      <c r="Q1" s="36"/>
+      <c r="R1" s="36">
         <f>J1+Parameters!$B$5</f>
         <v>26</v>
       </c>
-      <c r="S1" s="33"/>
-      <c r="T1" s="33"/>
-      <c r="U1" s="33"/>
-      <c r="V1" s="33"/>
-      <c r="W1" s="33"/>
-      <c r="X1" s="33"/>
-      <c r="Y1" s="33"/>
-      <c r="Z1" s="33">
+      <c r="S1" s="36"/>
+      <c r="T1" s="36"/>
+      <c r="U1" s="36"/>
+      <c r="V1" s="36"/>
+      <c r="W1" s="36"/>
+      <c r="X1" s="36"/>
+      <c r="Y1" s="36"/>
+      <c r="Z1" s="36">
         <f>R1+Parameters!$B$5</f>
         <v>30</v>
       </c>
-      <c r="AA1" s="33"/>
-      <c r="AB1" s="33"/>
-      <c r="AC1" s="33"/>
-      <c r="AD1" s="33"/>
-      <c r="AE1" s="33"/>
-      <c r="AF1" s="33"/>
-      <c r="AG1" s="33"/>
-      <c r="AH1" s="33">
+      <c r="AA1" s="36"/>
+      <c r="AB1" s="36"/>
+      <c r="AC1" s="36"/>
+      <c r="AD1" s="36"/>
+      <c r="AE1" s="36"/>
+      <c r="AF1" s="36"/>
+      <c r="AG1" s="36"/>
+      <c r="AH1" s="36">
         <f>Z1+Parameters!$B$5</f>
         <v>34</v>
       </c>
-      <c r="AI1" s="33"/>
-      <c r="AJ1" s="33"/>
-      <c r="AK1" s="33"/>
-      <c r="AL1" s="33"/>
-      <c r="AM1" s="33"/>
-      <c r="AN1" s="33"/>
-      <c r="AO1" s="33"/>
-      <c r="AP1" s="33">
+      <c r="AI1" s="36"/>
+      <c r="AJ1" s="36"/>
+      <c r="AK1" s="36"/>
+      <c r="AL1" s="36"/>
+      <c r="AM1" s="36"/>
+      <c r="AN1" s="36"/>
+      <c r="AO1" s="36"/>
+      <c r="AP1" s="36">
         <f>AH1+Parameters!$B$5</f>
         <v>38</v>
       </c>
-      <c r="AQ1" s="33"/>
-      <c r="AR1" s="33"/>
-      <c r="AS1" s="33"/>
-      <c r="AT1" s="33"/>
-      <c r="AU1" s="33"/>
-      <c r="AV1" s="33"/>
-      <c r="AW1" s="33"/>
-      <c r="AX1" s="33">
+      <c r="AQ1" s="36"/>
+      <c r="AR1" s="36"/>
+      <c r="AS1" s="36"/>
+      <c r="AT1" s="36"/>
+      <c r="AU1" s="36"/>
+      <c r="AV1" s="36"/>
+      <c r="AW1" s="36"/>
+      <c r="AX1" s="36">
         <f>AP1+Parameters!$B$5</f>
         <v>42</v>
       </c>
-      <c r="AY1" s="33"/>
-      <c r="AZ1" s="33"/>
-      <c r="BA1" s="33"/>
-      <c r="BB1" s="33"/>
-      <c r="BC1" s="33"/>
-      <c r="BD1" s="33"/>
-      <c r="BE1" s="33"/>
-      <c r="BF1" s="33">
+      <c r="AY1" s="36"/>
+      <c r="AZ1" s="36"/>
+      <c r="BA1" s="36"/>
+      <c r="BB1" s="36"/>
+      <c r="BC1" s="36"/>
+      <c r="BD1" s="36"/>
+      <c r="BE1" s="36"/>
+      <c r="BF1" s="36">
         <f>AX1+Parameters!$B$5</f>
         <v>46</v>
       </c>
-      <c r="BG1" s="33"/>
-      <c r="BH1" s="33"/>
-      <c r="BI1" s="33"/>
-      <c r="BJ1" s="33"/>
-      <c r="BK1" s="33"/>
-      <c r="BL1" s="33"/>
-      <c r="BM1" s="33"/>
-      <c r="BN1" s="33">
+      <c r="BG1" s="36"/>
+      <c r="BH1" s="36"/>
+      <c r="BI1" s="36"/>
+      <c r="BJ1" s="36"/>
+      <c r="BK1" s="36"/>
+      <c r="BL1" s="36"/>
+      <c r="BM1" s="36"/>
+      <c r="BN1" s="36">
         <f>BF1+Parameters!$B$5</f>
         <v>50</v>
       </c>
-      <c r="BO1" s="33"/>
-      <c r="BP1" s="33"/>
-      <c r="BQ1" s="33"/>
-      <c r="BR1" s="33"/>
-      <c r="BS1" s="33"/>
-      <c r="BT1" s="33"/>
-      <c r="BU1" s="33"/>
-      <c r="BV1" s="33">
+      <c r="BO1" s="36"/>
+      <c r="BP1" s="36"/>
+      <c r="BQ1" s="36"/>
+      <c r="BR1" s="36"/>
+      <c r="BS1" s="36"/>
+      <c r="BT1" s="36"/>
+      <c r="BU1" s="36"/>
+      <c r="BV1" s="36">
         <f>BN1+Parameters!$B$5</f>
         <v>54</v>
       </c>
-      <c r="BW1" s="33"/>
-      <c r="BX1" s="33"/>
-      <c r="BY1" s="33"/>
-      <c r="BZ1" s="33"/>
-      <c r="CA1" s="33"/>
-      <c r="CB1" s="33"/>
-      <c r="CC1" s="33"/>
-      <c r="CD1" s="33">
+      <c r="BW1" s="36"/>
+      <c r="BX1" s="36"/>
+      <c r="BY1" s="36"/>
+      <c r="BZ1" s="36"/>
+      <c r="CA1" s="36"/>
+      <c r="CB1" s="36"/>
+      <c r="CC1" s="36"/>
+      <c r="CD1" s="36">
         <f>BV1+Parameters!$B$5</f>
         <v>58</v>
       </c>
-      <c r="CE1" s="33"/>
-      <c r="CF1" s="33"/>
-      <c r="CG1" s="33"/>
-      <c r="CH1" s="33"/>
-      <c r="CI1" s="33"/>
-      <c r="CJ1" s="33"/>
-      <c r="CK1" s="33"/>
-      <c r="CL1" s="33">
+      <c r="CE1" s="36"/>
+      <c r="CF1" s="36"/>
+      <c r="CG1" s="36"/>
+      <c r="CH1" s="36"/>
+      <c r="CI1" s="36"/>
+      <c r="CJ1" s="36"/>
+      <c r="CK1" s="36"/>
+      <c r="CL1" s="36">
         <f>CD1+Parameters!$B$5</f>
         <v>62</v>
       </c>
-      <c r="CM1" s="33"/>
-      <c r="CN1" s="33"/>
-      <c r="CO1" s="33"/>
-      <c r="CP1" s="33"/>
-      <c r="CQ1" s="33"/>
-      <c r="CR1" s="33"/>
-      <c r="CS1" s="33"/>
-      <c r="CT1" s="33">
+      <c r="CM1" s="36"/>
+      <c r="CN1" s="36"/>
+      <c r="CO1" s="36"/>
+      <c r="CP1" s="36"/>
+      <c r="CQ1" s="36"/>
+      <c r="CR1" s="36"/>
+      <c r="CS1" s="36"/>
+      <c r="CT1" s="36">
         <f>CL1+Parameters!$B$5</f>
         <v>66</v>
       </c>
-      <c r="CU1" s="33"/>
-      <c r="CV1" s="33"/>
-      <c r="CW1" s="33"/>
-      <c r="CX1" s="33"/>
-      <c r="CY1" s="33"/>
-      <c r="CZ1" s="33"/>
-      <c r="DA1" s="33"/>
-      <c r="DB1" s="33">
+      <c r="CU1" s="36"/>
+      <c r="CV1" s="36"/>
+      <c r="CW1" s="36"/>
+      <c r="CX1" s="36"/>
+      <c r="CY1" s="36"/>
+      <c r="CZ1" s="36"/>
+      <c r="DA1" s="36"/>
+      <c r="DB1" s="36">
         <f>CT1+Parameters!$B$5</f>
         <v>70</v>
       </c>
-      <c r="DC1" s="33"/>
-      <c r="DD1" s="33"/>
-      <c r="DE1" s="33"/>
-      <c r="DF1" s="33"/>
-      <c r="DG1" s="33"/>
-      <c r="DH1" s="33"/>
-      <c r="DI1" s="33"/>
-      <c r="DJ1" s="33">
+      <c r="DC1" s="36"/>
+      <c r="DD1" s="36"/>
+      <c r="DE1" s="36"/>
+      <c r="DF1" s="36"/>
+      <c r="DG1" s="36"/>
+      <c r="DH1" s="36"/>
+      <c r="DI1" s="36"/>
+      <c r="DJ1" s="36">
         <f>DB1+Parameters!$B$5</f>
         <v>74</v>
       </c>
-      <c r="DK1" s="33"/>
-      <c r="DL1" s="33"/>
-      <c r="DM1" s="33"/>
-      <c r="DN1" s="33"/>
-      <c r="DO1" s="33"/>
-      <c r="DP1" s="33"/>
-      <c r="DQ1" s="33"/>
-      <c r="DR1" s="33">
+      <c r="DK1" s="36"/>
+      <c r="DL1" s="36"/>
+      <c r="DM1" s="36"/>
+      <c r="DN1" s="36"/>
+      <c r="DO1" s="36"/>
+      <c r="DP1" s="36"/>
+      <c r="DQ1" s="36"/>
+      <c r="DR1" s="36">
         <f>DJ1+Parameters!$B$5</f>
         <v>78</v>
       </c>
-      <c r="DS1" s="33"/>
-      <c r="DT1" s="33"/>
-      <c r="DU1" s="33"/>
-      <c r="DV1" s="33"/>
-      <c r="DW1" s="33"/>
-      <c r="DX1" s="33"/>
-      <c r="DY1" s="33"/>
+      <c r="DS1" s="36"/>
+      <c r="DT1" s="36"/>
+      <c r="DU1" s="36"/>
+      <c r="DV1" s="36"/>
+      <c r="DW1" s="36"/>
+      <c r="DX1" s="36"/>
+      <c r="DY1" s="36"/>
     </row>
     <row r="2" spans="1:129" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="B2" s="33">
+      <c r="B2" s="36">
         <f>0.5/4</f>
         <v>0.125</v>
       </c>
-      <c r="C2" s="33"/>
-      <c r="D2" s="33"/>
-      <c r="E2" s="33"/>
-      <c r="F2" s="33"/>
-      <c r="G2" s="33"/>
-      <c r="H2" s="33"/>
-      <c r="I2" s="33"/>
-      <c r="J2" s="33">
+      <c r="C2" s="36"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="36"/>
+      <c r="F2" s="36"/>
+      <c r="G2" s="36"/>
+      <c r="H2" s="36"/>
+      <c r="I2" s="36"/>
+      <c r="J2" s="36">
         <f>0.5/4</f>
         <v>0.125</v>
       </c>
-      <c r="K2" s="33"/>
-      <c r="L2" s="33"/>
-      <c r="M2" s="33"/>
-      <c r="N2" s="33"/>
-      <c r="O2" s="33"/>
-      <c r="P2" s="33"/>
-      <c r="Q2" s="33"/>
-      <c r="R2" s="33">
+      <c r="K2" s="36"/>
+      <c r="L2" s="36"/>
+      <c r="M2" s="36"/>
+      <c r="N2" s="36"/>
+      <c r="O2" s="36"/>
+      <c r="P2" s="36"/>
+      <c r="Q2" s="36"/>
+      <c r="R2" s="36">
         <f>0.5/4</f>
         <v>0.125</v>
       </c>
-      <c r="S2" s="33"/>
-      <c r="T2" s="33"/>
-      <c r="U2" s="33"/>
-      <c r="V2" s="33"/>
-      <c r="W2" s="33"/>
-      <c r="X2" s="33"/>
-      <c r="Y2" s="33"/>
-      <c r="Z2" s="33">
+      <c r="S2" s="36"/>
+      <c r="T2" s="36"/>
+      <c r="U2" s="36"/>
+      <c r="V2" s="36"/>
+      <c r="W2" s="36"/>
+      <c r="X2" s="36"/>
+      <c r="Y2" s="36"/>
+      <c r="Z2" s="36">
         <f>0.5/4</f>
         <v>0.125</v>
       </c>
-      <c r="AA2" s="33"/>
-      <c r="AB2" s="33"/>
-      <c r="AC2" s="33"/>
-      <c r="AD2" s="33"/>
-      <c r="AE2" s="33"/>
-      <c r="AF2" s="33"/>
-      <c r="AG2" s="33"/>
-      <c r="AH2" s="33">
+      <c r="AA2" s="36"/>
+      <c r="AB2" s="36"/>
+      <c r="AC2" s="36"/>
+      <c r="AD2" s="36"/>
+      <c r="AE2" s="36"/>
+      <c r="AF2" s="36"/>
+      <c r="AG2" s="36"/>
+      <c r="AH2" s="36">
         <f>0.125/4</f>
         <v>3.125E-2</v>
       </c>
-      <c r="AI2" s="33"/>
-      <c r="AJ2" s="33"/>
-      <c r="AK2" s="33"/>
-      <c r="AL2" s="33"/>
-      <c r="AM2" s="33"/>
-      <c r="AN2" s="33"/>
-      <c r="AO2" s="33"/>
-      <c r="AP2" s="33">
+      <c r="AI2" s="36"/>
+      <c r="AJ2" s="36"/>
+      <c r="AK2" s="36"/>
+      <c r="AL2" s="36"/>
+      <c r="AM2" s="36"/>
+      <c r="AN2" s="36"/>
+      <c r="AO2" s="36"/>
+      <c r="AP2" s="36">
         <f>0.125/4</f>
         <v>3.125E-2</v>
       </c>
-      <c r="AQ2" s="33"/>
-      <c r="AR2" s="33"/>
-      <c r="AS2" s="33"/>
-      <c r="AT2" s="33"/>
-      <c r="AU2" s="33"/>
-      <c r="AV2" s="33"/>
-      <c r="AW2" s="33"/>
-      <c r="AX2" s="33">
+      <c r="AQ2" s="36"/>
+      <c r="AR2" s="36"/>
+      <c r="AS2" s="36"/>
+      <c r="AT2" s="36"/>
+      <c r="AU2" s="36"/>
+      <c r="AV2" s="36"/>
+      <c r="AW2" s="36"/>
+      <c r="AX2" s="36">
         <f>0.125/4</f>
         <v>3.125E-2</v>
       </c>
-      <c r="AY2" s="33"/>
-      <c r="AZ2" s="33"/>
-      <c r="BA2" s="33"/>
-      <c r="BB2" s="33"/>
-      <c r="BC2" s="33"/>
-      <c r="BD2" s="33"/>
-      <c r="BE2" s="33"/>
-      <c r="BF2" s="33">
+      <c r="AY2" s="36"/>
+      <c r="AZ2" s="36"/>
+      <c r="BA2" s="36"/>
+      <c r="BB2" s="36"/>
+      <c r="BC2" s="36"/>
+      <c r="BD2" s="36"/>
+      <c r="BE2" s="36"/>
+      <c r="BF2" s="36">
         <f>0.125/4</f>
         <v>3.125E-2</v>
       </c>
-      <c r="BG2" s="33"/>
-      <c r="BH2" s="33"/>
-      <c r="BI2" s="33"/>
-      <c r="BJ2" s="33"/>
-      <c r="BK2" s="33"/>
-      <c r="BL2" s="33"/>
-      <c r="BM2" s="33"/>
-      <c r="BN2" s="33">
+      <c r="BG2" s="36"/>
+      <c r="BH2" s="36"/>
+      <c r="BI2" s="36"/>
+      <c r="BJ2" s="36"/>
+      <c r="BK2" s="36"/>
+      <c r="BL2" s="36"/>
+      <c r="BM2" s="36"/>
+      <c r="BN2" s="36">
         <f>0.125/4*2</f>
         <v>6.25E-2</v>
       </c>
-      <c r="BO2" s="33"/>
-      <c r="BP2" s="33"/>
-      <c r="BQ2" s="33"/>
-      <c r="BR2" s="33"/>
-      <c r="BS2" s="33"/>
-      <c r="BT2" s="33"/>
-      <c r="BU2" s="33"/>
-      <c r="BV2" s="33">
+      <c r="BO2" s="36"/>
+      <c r="BP2" s="36"/>
+      <c r="BQ2" s="36"/>
+      <c r="BR2" s="36"/>
+      <c r="BS2" s="36"/>
+      <c r="BT2" s="36"/>
+      <c r="BU2" s="36"/>
+      <c r="BV2" s="36">
         <f>0.125/4*2</f>
         <v>6.25E-2</v>
       </c>
-      <c r="BW2" s="33"/>
-      <c r="BX2" s="33"/>
-      <c r="BY2" s="33"/>
-      <c r="BZ2" s="33"/>
-      <c r="CA2" s="33"/>
-      <c r="CB2" s="33"/>
-      <c r="CC2" s="33"/>
-      <c r="CD2" s="33">
+      <c r="BW2" s="36"/>
+      <c r="BX2" s="36"/>
+      <c r="BY2" s="36"/>
+      <c r="BZ2" s="36"/>
+      <c r="CA2" s="36"/>
+      <c r="CB2" s="36"/>
+      <c r="CC2" s="36"/>
+      <c r="CD2" s="36">
         <f>0.125/4*2</f>
         <v>6.25E-2</v>
       </c>
-      <c r="CE2" s="33"/>
-      <c r="CF2" s="33"/>
-      <c r="CG2" s="33"/>
-      <c r="CH2" s="33"/>
-      <c r="CI2" s="33"/>
-      <c r="CJ2" s="33"/>
-      <c r="CK2" s="33"/>
-      <c r="CL2" s="33">
+      <c r="CE2" s="36"/>
+      <c r="CF2" s="36"/>
+      <c r="CG2" s="36"/>
+      <c r="CH2" s="36"/>
+      <c r="CI2" s="36"/>
+      <c r="CJ2" s="36"/>
+      <c r="CK2" s="36"/>
+      <c r="CL2" s="36">
         <f>0.125/4*2</f>
         <v>6.25E-2</v>
       </c>
-      <c r="CM2" s="33"/>
-      <c r="CN2" s="33"/>
-      <c r="CO2" s="33"/>
-      <c r="CP2" s="33"/>
-      <c r="CQ2" s="33"/>
-      <c r="CR2" s="33"/>
-      <c r="CS2" s="33"/>
-      <c r="CT2" s="33">
+      <c r="CM2" s="36"/>
+      <c r="CN2" s="36"/>
+      <c r="CO2" s="36"/>
+      <c r="CP2" s="36"/>
+      <c r="CQ2" s="36"/>
+      <c r="CR2" s="36"/>
+      <c r="CS2" s="36"/>
+      <c r="CT2" s="36">
         <f>0.125/4</f>
         <v>3.125E-2</v>
       </c>
-      <c r="CU2" s="33"/>
-      <c r="CV2" s="33"/>
-      <c r="CW2" s="33"/>
-      <c r="CX2" s="33"/>
-      <c r="CY2" s="33"/>
-      <c r="CZ2" s="33"/>
-      <c r="DA2" s="33"/>
-      <c r="DB2" s="33">
+      <c r="CU2" s="36"/>
+      <c r="CV2" s="36"/>
+      <c r="CW2" s="36"/>
+      <c r="CX2" s="36"/>
+      <c r="CY2" s="36"/>
+      <c r="CZ2" s="36"/>
+      <c r="DA2" s="36"/>
+      <c r="DB2" s="36">
         <f>0.125/4</f>
         <v>3.125E-2</v>
       </c>
-      <c r="DC2" s="33"/>
-      <c r="DD2" s="33"/>
-      <c r="DE2" s="33"/>
-      <c r="DF2" s="33"/>
-      <c r="DG2" s="33"/>
-      <c r="DH2" s="33"/>
-      <c r="DI2" s="33"/>
-      <c r="DJ2" s="33">
+      <c r="DC2" s="36"/>
+      <c r="DD2" s="36"/>
+      <c r="DE2" s="36"/>
+      <c r="DF2" s="36"/>
+      <c r="DG2" s="36"/>
+      <c r="DH2" s="36"/>
+      <c r="DI2" s="36"/>
+      <c r="DJ2" s="36">
         <f>0.125/4</f>
         <v>3.125E-2</v>
       </c>
-      <c r="DK2" s="33"/>
-      <c r="DL2" s="33"/>
-      <c r="DM2" s="33"/>
-      <c r="DN2" s="33"/>
-      <c r="DO2" s="33"/>
-      <c r="DP2" s="33"/>
-      <c r="DQ2" s="33"/>
-      <c r="DR2" s="33">
+      <c r="DK2" s="36"/>
+      <c r="DL2" s="36"/>
+      <c r="DM2" s="36"/>
+      <c r="DN2" s="36"/>
+      <c r="DO2" s="36"/>
+      <c r="DP2" s="36"/>
+      <c r="DQ2" s="36"/>
+      <c r="DR2" s="36">
         <f>0.125/4</f>
         <v>3.125E-2</v>
       </c>
-      <c r="DS2" s="33"/>
-      <c r="DT2" s="33"/>
-      <c r="DU2" s="33"/>
-      <c r="DV2" s="33"/>
-      <c r="DW2" s="33"/>
-      <c r="DX2" s="33"/>
-      <c r="DY2" s="33"/>
+      <c r="DS2" s="36"/>
+      <c r="DT2" s="36"/>
+      <c r="DU2" s="36"/>
+      <c r="DV2" s="36"/>
+      <c r="DW2" s="36"/>
+      <c r="DX2" s="36"/>
+      <c r="DY2" s="36"/>
     </row>
     <row r="3" spans="1:129" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="B3" s="39">
+      <c r="B3" s="37">
         <v>2</v>
       </c>
-      <c r="C3" s="40"/>
-      <c r="D3" s="40"/>
-      <c r="E3" s="40"/>
-      <c r="F3" s="40"/>
-      <c r="G3" s="40"/>
-      <c r="H3" s="40"/>
-      <c r="I3" s="41"/>
-      <c r="J3" s="39">
+      <c r="C3" s="38"/>
+      <c r="D3" s="38"/>
+      <c r="E3" s="38"/>
+      <c r="F3" s="38"/>
+      <c r="G3" s="38"/>
+      <c r="H3" s="38"/>
+      <c r="I3" s="39"/>
+      <c r="J3" s="37">
         <v>2</v>
       </c>
-      <c r="K3" s="40"/>
-      <c r="L3" s="40"/>
-      <c r="M3" s="40"/>
-      <c r="N3" s="40"/>
-      <c r="O3" s="40"/>
-      <c r="P3" s="40"/>
-      <c r="Q3" s="41"/>
-      <c r="R3" s="39">
+      <c r="K3" s="38"/>
+      <c r="L3" s="38"/>
+      <c r="M3" s="38"/>
+      <c r="N3" s="38"/>
+      <c r="O3" s="38"/>
+      <c r="P3" s="38"/>
+      <c r="Q3" s="39"/>
+      <c r="R3" s="37">
         <v>2</v>
       </c>
-      <c r="S3" s="40"/>
-      <c r="T3" s="40"/>
-      <c r="U3" s="40"/>
-      <c r="V3" s="40"/>
-      <c r="W3" s="40"/>
-      <c r="X3" s="40"/>
-      <c r="Y3" s="41"/>
-      <c r="Z3" s="39">
+      <c r="S3" s="38"/>
+      <c r="T3" s="38"/>
+      <c r="U3" s="38"/>
+      <c r="V3" s="38"/>
+      <c r="W3" s="38"/>
+      <c r="X3" s="38"/>
+      <c r="Y3" s="39"/>
+      <c r="Z3" s="37">
         <v>2</v>
       </c>
-      <c r="AA3" s="40"/>
-      <c r="AB3" s="40"/>
-      <c r="AC3" s="40"/>
-      <c r="AD3" s="40"/>
-      <c r="AE3" s="40"/>
-      <c r="AF3" s="40"/>
-      <c r="AG3" s="41"/>
-      <c r="AH3" s="39">
+      <c r="AA3" s="38"/>
+      <c r="AB3" s="38"/>
+      <c r="AC3" s="38"/>
+      <c r="AD3" s="38"/>
+      <c r="AE3" s="38"/>
+      <c r="AF3" s="38"/>
+      <c r="AG3" s="39"/>
+      <c r="AH3" s="37">
         <v>6</v>
       </c>
-      <c r="AI3" s="40"/>
-      <c r="AJ3" s="40"/>
-      <c r="AK3" s="40"/>
-      <c r="AL3" s="40"/>
-      <c r="AM3" s="40"/>
-      <c r="AN3" s="40"/>
-      <c r="AO3" s="41"/>
-      <c r="AP3" s="39">
+      <c r="AI3" s="38"/>
+      <c r="AJ3" s="38"/>
+      <c r="AK3" s="38"/>
+      <c r="AL3" s="38"/>
+      <c r="AM3" s="38"/>
+      <c r="AN3" s="38"/>
+      <c r="AO3" s="39"/>
+      <c r="AP3" s="37">
         <v>6</v>
       </c>
-      <c r="AQ3" s="40"/>
-      <c r="AR3" s="40"/>
-      <c r="AS3" s="40"/>
-      <c r="AT3" s="40"/>
-      <c r="AU3" s="40"/>
-      <c r="AV3" s="40"/>
-      <c r="AW3" s="41"/>
-      <c r="AX3" s="39">
+      <c r="AQ3" s="38"/>
+      <c r="AR3" s="38"/>
+      <c r="AS3" s="38"/>
+      <c r="AT3" s="38"/>
+      <c r="AU3" s="38"/>
+      <c r="AV3" s="38"/>
+      <c r="AW3" s="39"/>
+      <c r="AX3" s="37">
         <v>6</v>
       </c>
-      <c r="AY3" s="40"/>
-      <c r="AZ3" s="40"/>
-      <c r="BA3" s="40"/>
-      <c r="BB3" s="40"/>
-      <c r="BC3" s="40"/>
-      <c r="BD3" s="40"/>
-      <c r="BE3" s="41"/>
-      <c r="BF3" s="39">
+      <c r="AY3" s="38"/>
+      <c r="AZ3" s="38"/>
+      <c r="BA3" s="38"/>
+      <c r="BB3" s="38"/>
+      <c r="BC3" s="38"/>
+      <c r="BD3" s="38"/>
+      <c r="BE3" s="39"/>
+      <c r="BF3" s="37">
         <v>6</v>
       </c>
-      <c r="BG3" s="40"/>
-      <c r="BH3" s="40"/>
-      <c r="BI3" s="40"/>
-      <c r="BJ3" s="40"/>
-      <c r="BK3" s="40"/>
-      <c r="BL3" s="40"/>
-      <c r="BM3" s="41"/>
-      <c r="BN3" s="42">
+      <c r="BG3" s="38"/>
+      <c r="BH3" s="38"/>
+      <c r="BI3" s="38"/>
+      <c r="BJ3" s="38"/>
+      <c r="BK3" s="38"/>
+      <c r="BL3" s="38"/>
+      <c r="BM3" s="39"/>
+      <c r="BN3" s="40">
         <v>10</v>
       </c>
-      <c r="BO3" s="37"/>
-      <c r="BP3" s="37"/>
-      <c r="BQ3" s="37"/>
-      <c r="BR3" s="37"/>
-      <c r="BS3" s="37"/>
-      <c r="BT3" s="37"/>
-      <c r="BU3" s="38"/>
-      <c r="BV3" s="36">
+      <c r="BO3" s="41"/>
+      <c r="BP3" s="41"/>
+      <c r="BQ3" s="41"/>
+      <c r="BR3" s="41"/>
+      <c r="BS3" s="41"/>
+      <c r="BT3" s="41"/>
+      <c r="BU3" s="42"/>
+      <c r="BV3" s="43">
         <v>10</v>
       </c>
-      <c r="BW3" s="37"/>
-      <c r="BX3" s="37"/>
-      <c r="BY3" s="37"/>
-      <c r="BZ3" s="37"/>
-      <c r="CA3" s="37"/>
-      <c r="CB3" s="37"/>
-      <c r="CC3" s="38"/>
-      <c r="CD3" s="36">
+      <c r="BW3" s="41"/>
+      <c r="BX3" s="41"/>
+      <c r="BY3" s="41"/>
+      <c r="BZ3" s="41"/>
+      <c r="CA3" s="41"/>
+      <c r="CB3" s="41"/>
+      <c r="CC3" s="42"/>
+      <c r="CD3" s="43">
         <v>10</v>
       </c>
-      <c r="CE3" s="37"/>
-      <c r="CF3" s="37"/>
-      <c r="CG3" s="37"/>
-      <c r="CH3" s="37"/>
-      <c r="CI3" s="37"/>
-      <c r="CJ3" s="37"/>
-      <c r="CK3" s="38"/>
-      <c r="CL3" s="36">
+      <c r="CE3" s="41"/>
+      <c r="CF3" s="41"/>
+      <c r="CG3" s="41"/>
+      <c r="CH3" s="41"/>
+      <c r="CI3" s="41"/>
+      <c r="CJ3" s="41"/>
+      <c r="CK3" s="42"/>
+      <c r="CL3" s="43">
         <v>10</v>
       </c>
-      <c r="CM3" s="37"/>
-      <c r="CN3" s="37"/>
-      <c r="CO3" s="37"/>
-      <c r="CP3" s="37"/>
-      <c r="CQ3" s="37"/>
-      <c r="CR3" s="37"/>
-      <c r="CS3" s="38"/>
-      <c r="CT3" s="36">
+      <c r="CM3" s="41"/>
+      <c r="CN3" s="41"/>
+      <c r="CO3" s="41"/>
+      <c r="CP3" s="41"/>
+      <c r="CQ3" s="41"/>
+      <c r="CR3" s="41"/>
+      <c r="CS3" s="42"/>
+      <c r="CT3" s="43">
         <v>14</v>
       </c>
-      <c r="CU3" s="37"/>
-      <c r="CV3" s="37"/>
-      <c r="CW3" s="37"/>
-      <c r="CX3" s="37"/>
-      <c r="CY3" s="37"/>
-      <c r="CZ3" s="37"/>
-      <c r="DA3" s="38"/>
-      <c r="DB3" s="36">
+      <c r="CU3" s="41"/>
+      <c r="CV3" s="41"/>
+      <c r="CW3" s="41"/>
+      <c r="CX3" s="41"/>
+      <c r="CY3" s="41"/>
+      <c r="CZ3" s="41"/>
+      <c r="DA3" s="42"/>
+      <c r="DB3" s="43">
         <v>14</v>
       </c>
-      <c r="DC3" s="37"/>
-      <c r="DD3" s="37"/>
-      <c r="DE3" s="37"/>
-      <c r="DF3" s="37"/>
-      <c r="DG3" s="37"/>
-      <c r="DH3" s="37"/>
-      <c r="DI3" s="38"/>
-      <c r="DJ3" s="36">
+      <c r="DC3" s="41"/>
+      <c r="DD3" s="41"/>
+      <c r="DE3" s="41"/>
+      <c r="DF3" s="41"/>
+      <c r="DG3" s="41"/>
+      <c r="DH3" s="41"/>
+      <c r="DI3" s="42"/>
+      <c r="DJ3" s="43">
         <v>14</v>
       </c>
-      <c r="DK3" s="37"/>
-      <c r="DL3" s="37"/>
-      <c r="DM3" s="37"/>
-      <c r="DN3" s="37"/>
-      <c r="DO3" s="37"/>
-      <c r="DP3" s="37"/>
-      <c r="DQ3" s="38"/>
-      <c r="DR3" s="36">
+      <c r="DK3" s="41"/>
+      <c r="DL3" s="41"/>
+      <c r="DM3" s="41"/>
+      <c r="DN3" s="41"/>
+      <c r="DO3" s="41"/>
+      <c r="DP3" s="41"/>
+      <c r="DQ3" s="42"/>
+      <c r="DR3" s="43">
         <v>14</v>
       </c>
-      <c r="DS3" s="37"/>
-      <c r="DT3" s="37"/>
-      <c r="DU3" s="37"/>
-      <c r="DV3" s="37"/>
-      <c r="DW3" s="37"/>
-      <c r="DX3" s="37"/>
-      <c r="DY3" s="38"/>
+      <c r="DS3" s="41"/>
+      <c r="DT3" s="41"/>
+      <c r="DU3" s="41"/>
+      <c r="DV3" s="41"/>
+      <c r="DW3" s="41"/>
+      <c r="DX3" s="41"/>
+      <c r="DY3" s="42"/>
     </row>
     <row r="4" spans="1:129" x14ac:dyDescent="0.2">
       <c r="A4" s="4"/>
@@ -10842,41 +10834,35 @@
     </row>
   </sheetData>
   <mergeCells count="80">
-    <mergeCell ref="B1:I1"/>
-    <mergeCell ref="J1:Q1"/>
-    <mergeCell ref="B2:I2"/>
-    <mergeCell ref="J2:Q2"/>
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="F4:I4"/>
-    <mergeCell ref="J4:M4"/>
-    <mergeCell ref="N4:Q4"/>
-    <mergeCell ref="B3:I3"/>
-    <mergeCell ref="J3:Q3"/>
-    <mergeCell ref="R4:U4"/>
-    <mergeCell ref="V4:Y4"/>
-    <mergeCell ref="Z4:AC4"/>
-    <mergeCell ref="AD4:AG4"/>
-    <mergeCell ref="AH4:AK4"/>
-    <mergeCell ref="AL4:AO4"/>
-    <mergeCell ref="AP4:AS4"/>
-    <mergeCell ref="AT4:AW4"/>
-    <mergeCell ref="AX4:BA4"/>
-    <mergeCell ref="BB4:BE4"/>
-    <mergeCell ref="BF4:BI4"/>
-    <mergeCell ref="BJ4:BM4"/>
-    <mergeCell ref="BN4:BQ4"/>
-    <mergeCell ref="BR4:BU4"/>
-    <mergeCell ref="BV4:BY4"/>
-    <mergeCell ref="BZ4:CC4"/>
-    <mergeCell ref="CD4:CG4"/>
-    <mergeCell ref="CH4:CK4"/>
-    <mergeCell ref="CL4:CO4"/>
-    <mergeCell ref="CP4:CS4"/>
-    <mergeCell ref="CT4:CW4"/>
-    <mergeCell ref="CX4:DA4"/>
-    <mergeCell ref="DB4:DE4"/>
-    <mergeCell ref="DF4:DI4"/>
-    <mergeCell ref="DJ4:DM4"/>
+    <mergeCell ref="DB2:DI2"/>
+    <mergeCell ref="DJ2:DQ2"/>
+    <mergeCell ref="DR2:DY2"/>
+    <mergeCell ref="BN2:BU2"/>
+    <mergeCell ref="BV2:CC2"/>
+    <mergeCell ref="CD2:CK2"/>
+    <mergeCell ref="CL2:CS2"/>
+    <mergeCell ref="CT2:DA2"/>
+    <mergeCell ref="Z2:AG2"/>
+    <mergeCell ref="AH2:AO2"/>
+    <mergeCell ref="AP2:AW2"/>
+    <mergeCell ref="AX2:BE2"/>
+    <mergeCell ref="BF2:BM2"/>
+    <mergeCell ref="DR3:DY3"/>
+    <mergeCell ref="R1:Y1"/>
+    <mergeCell ref="Z1:AG1"/>
+    <mergeCell ref="AH1:AO1"/>
+    <mergeCell ref="AP1:AW1"/>
+    <mergeCell ref="AX1:BE1"/>
+    <mergeCell ref="BF1:BM1"/>
+    <mergeCell ref="BN1:BU1"/>
+    <mergeCell ref="BV1:CC1"/>
+    <mergeCell ref="CD1:CK1"/>
+    <mergeCell ref="CL1:CS1"/>
+    <mergeCell ref="CT1:DA1"/>
+    <mergeCell ref="DB1:DI1"/>
+    <mergeCell ref="DJ1:DQ1"/>
+    <mergeCell ref="DR1:DY1"/>
+    <mergeCell ref="R2:Y2"/>
     <mergeCell ref="DN4:DQ4"/>
     <mergeCell ref="DR4:DU4"/>
     <mergeCell ref="DV4:DY4"/>
@@ -10893,35 +10879,41 @@
     <mergeCell ref="CT3:DA3"/>
     <mergeCell ref="DB3:DI3"/>
     <mergeCell ref="DJ3:DQ3"/>
-    <mergeCell ref="DR3:DY3"/>
-    <mergeCell ref="R1:Y1"/>
-    <mergeCell ref="Z1:AG1"/>
-    <mergeCell ref="AH1:AO1"/>
-    <mergeCell ref="AP1:AW1"/>
-    <mergeCell ref="AX1:BE1"/>
-    <mergeCell ref="BF1:BM1"/>
-    <mergeCell ref="BN1:BU1"/>
-    <mergeCell ref="BV1:CC1"/>
-    <mergeCell ref="CD1:CK1"/>
-    <mergeCell ref="CL1:CS1"/>
-    <mergeCell ref="CT1:DA1"/>
-    <mergeCell ref="DB1:DI1"/>
-    <mergeCell ref="DJ1:DQ1"/>
-    <mergeCell ref="DR1:DY1"/>
-    <mergeCell ref="R2:Y2"/>
-    <mergeCell ref="Z2:AG2"/>
-    <mergeCell ref="AH2:AO2"/>
-    <mergeCell ref="AP2:AW2"/>
-    <mergeCell ref="AX2:BE2"/>
-    <mergeCell ref="BF2:BM2"/>
-    <mergeCell ref="DB2:DI2"/>
-    <mergeCell ref="DJ2:DQ2"/>
-    <mergeCell ref="DR2:DY2"/>
-    <mergeCell ref="BN2:BU2"/>
-    <mergeCell ref="BV2:CC2"/>
-    <mergeCell ref="CD2:CK2"/>
-    <mergeCell ref="CL2:CS2"/>
-    <mergeCell ref="CT2:DA2"/>
+    <mergeCell ref="CT4:CW4"/>
+    <mergeCell ref="CX4:DA4"/>
+    <mergeCell ref="DB4:DE4"/>
+    <mergeCell ref="DF4:DI4"/>
+    <mergeCell ref="DJ4:DM4"/>
+    <mergeCell ref="BZ4:CC4"/>
+    <mergeCell ref="CD4:CG4"/>
+    <mergeCell ref="CH4:CK4"/>
+    <mergeCell ref="CL4:CO4"/>
+    <mergeCell ref="CP4:CS4"/>
+    <mergeCell ref="BF4:BI4"/>
+    <mergeCell ref="BJ4:BM4"/>
+    <mergeCell ref="BN4:BQ4"/>
+    <mergeCell ref="BR4:BU4"/>
+    <mergeCell ref="BV4:BY4"/>
+    <mergeCell ref="AL4:AO4"/>
+    <mergeCell ref="AP4:AS4"/>
+    <mergeCell ref="AT4:AW4"/>
+    <mergeCell ref="AX4:BA4"/>
+    <mergeCell ref="BB4:BE4"/>
+    <mergeCell ref="R4:U4"/>
+    <mergeCell ref="V4:Y4"/>
+    <mergeCell ref="Z4:AC4"/>
+    <mergeCell ref="AD4:AG4"/>
+    <mergeCell ref="AH4:AK4"/>
+    <mergeCell ref="B1:I1"/>
+    <mergeCell ref="J1:Q1"/>
+    <mergeCell ref="B2:I2"/>
+    <mergeCell ref="J2:Q2"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="F4:I4"/>
+    <mergeCell ref="J4:M4"/>
+    <mergeCell ref="N4:Q4"/>
+    <mergeCell ref="B3:I3"/>
+    <mergeCell ref="J3:Q3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
